--- a/dataset/lg/madanagopala.xlsx
+++ b/dataset/lg/madanagopala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6027 +434,5427 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>శ్రీరుక్మిణీనాథ జితకోటిరతినాథ సుందరాకార సానంద శరణుసురయక్షకిన్నరవరమౌనిశుభకర నరకాంతకా పద్మనాభ శరణుజలధరనిభగాత్ర జలజాతదళనేత్ర పరమపవిత్ర గోపాల శరణునిర్మలగుణతోష నిజభక్తజనపోషక వివచోభూషప్రకాశ శరణు</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>శ్రీరుక్మిణీనాథ జితకోటిరతినాథ సుందరాకార సానంద శరణుసురయక్షకిన్నరవరమౌనిశుభకర నరకాంతకా పద్మనాభ శరణుజలధరనిభగాత్ర జలజాతదళనేత్ర పరమపవిత్ర గోపాల శరణునిర్మలగుణతోష నిజభక్తజనపోషక వివచోభూషప్రకాశ శరణు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('రు', 'U'), ('క్మి', '|'), ('ణీ', 'U'), ('నా', 'U'), ('థ', '|'), ('జి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('ర', '|'), ('తి', '|'), ('నా', 'U'), ('థ', '|'), ('సుం', 'U'), ('ద', '|'), ('రా', 'U'), ('కా', 'U'), ('ర', '|'), ('సా', 'U'), ('నం', 'U'), ('ద', '|'), ('శ', '|'), ('ర', '|'), ('ణు', '|'), ('సు', '|'), ('ర', '|'), ('య', 'U'), ('క్ష', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('మౌ', 'U'), ('ని', '|'), ('శు', '|'), ('భ', '|'), ('క', '|'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('కా', 'U'), ('ప', 'U'), ('ద్మ', '|'), ('నా', 'U'), ('భ', '|'), ('శ', '|'), ('ర', '|'), ('ణు', '|'), ('జ', '|'), ('ల', '|'), ('ధ', '|'), ('ర', '|'), ('ని', '|'), ('భ', '|'), ('గా', 'U'), ('త్ర', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', '|'), ('ద', '|'), ('ళ', '|'), ('నే', 'U'), ('త్ర', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('ప', '|'), ('వి', 'U'), ('త్ర', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('శ', '|'), ('ర', '|'), ('ణు', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('గు', '|'), ('ణ', '|'), ('తో', 'U'), ('ష', '|'), ('ని', '|'), ('జ', '|'), ('భ', 'U'), ('క్త', '|'), ('జ', '|'), ('న', '|'), ('పో', 'U'), ('ష', '|'), ('క', '|'), ('వి', '|'), ('వ', '|'), ('చో', 'U'), ('భూ', 'U'), ('ష', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('శ', '|'), ('శ', '|'), ('ర', '|'), ('ణు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అనుచు నిను చాల నుతియించి యబ్జభవుని | వెలది నెంతయు గొనియాడి విఘ్నపతినిసన్నుతి యొనర్చి రచియింతు శతకముగను | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>అనుచు నిను చాల నుతియించి యబ్జభవుని | వెలది నెంతయు గొనియాడి విఘ్నపతినిసన్నుతి యొనర్చి రచియింతు శతకముగను | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ను', '|'), ('చు', '|'), ('ని', '|'), ('ను', '|'), ('చా', 'U'), ('ల', '|'), ('ను', '|'), ('తి', '|'), ('యిం', 'U'), ('చి', '|'), ('య', 'U'), ('బ్జ', '|'), ('భ', '|'), ('వు', '|'), ('ని', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('నెం', 'U'), ('త', '|'), ('యు', '|'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డి', '|'), ('వి', 'U'), ('ఘ్న', '|'), ('ప', '|'), ('తి', '|'), ('ని', '|'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('ర', '|'), ('చి', '|'), ('యిం', 'U'), ('తు', '|'), ('శ', '|'), ('త', '|'), ('క', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>దండము యదువీర దశరూపధర నీకు దండము వసుదేవతనయ శౌరిదండము హరిధరాధర నీకు విమలారి దండము శతకోటిసవనతేజదండము మందరోద్ధర నీకు సాష్టాంగదండము కంసమర్దన మురారిదండము కోదండధర మాధవా తన దండకు నిను బిల్వ తరుణి పనిచె</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>దండము యదువీర దశరూపధర నీకు దండము వసుదేవతనయ శౌరిదండము హరిధరాధర నీకు విమలారి దండము శతకోటిసవనతేజదండము మందరోద్ధర నీకు సాష్టాంగదండము కంసమర్దన మురారిదండము కోదండధర మాధవా తన దండకు నిను బిల్వ తరుణి పనిచె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డ', '|'), ('ము', '|'), ('య', '|'), ('దు', '|'), ('వీ', 'U'), ('ర', '|'), ('ద', '|'), ('శ', '|'), ('రూ', 'U'), ('ప', '|'), ('ధ', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('వ', '|'), ('సు', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('న', '|'), ('య', '|'), ('శౌ', 'U'), ('రి', '|'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('హ', '|'), ('రి', '|'), ('ధ', '|'), ('రా', 'U'), ('ధ', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('వి', '|'), ('మ', '|'), ('లా', 'U'), ('రి', '|'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('శ', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('స', '|'), ('వ', '|'), ('న', '|'), ('తే', 'U'), ('జ', '|'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('మం', 'U'), ('ద', '|'), ('రో', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('సా', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('కం', 'U'), ('స', '|'), ('మ', '|'), ('ర్ద', '|'), ('న', '|'), ('ము', '|'), ('రా', 'U'), ('రి', '|'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('ధ', '|'), ('ర', '|'), ('మా', 'U'), ('ధ', '|'), ('వా', 'U'), ('త', '|'), ('న', '|'), ('దం', 'U'), ('డ', '|'), ('కు', '|'), ('ని', '|'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('ప', '|'), ('ని', '|'), ('చె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన వచ్చితి మీ పాదకమలసేవ | కల్గె నా భాగ్యమెట్టిదో కరుణగల్గిసుదతి నేలుట దగునయ్య సుందరాంగ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>గాన వచ్చితి మీ పాదకమలసేవ | కల్గె నా భాగ్యమెట్టిదో కరుణగల్గిసుదతి నేలుట దగునయ్య సుందరాంగ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('మీ', 'U'), ('పా', 'U'), ('ద', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('సే', 'U'), ('వ', '|'), ('క', 'U'), ('ల్గె', '|'), ('నా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మె', 'U'), ('ట్టి', '|'), ('దో', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('నే', 'U'), ('లు', '|'), ('ట', '|'), ('ద', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>సుదతి కెమ్మోపి దా జూపెనా పదియారుకళల చందురువలె గానవచ్చుశుకవాణి కన్నులజూపెనా మరుజేతి కలువతూపులమాట్కి గానవచ్చువగమీర ముంగుర్ల సొగసు చూపించెనా భ్రమరమాలికలని పల్కవచ్చుగబ్బిగబ్బల నుబ్బు గన్పడ జూపెనా పసిడిగిండ్లని మెచ్చ బల్కవచ్చు</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>సుదతి కెమ్మోపి దా జూపెనా పదియారుకళల చందురువలె గానవచ్చుశుకవాణి కన్నులజూపెనా మరుజేతి కలువతూపులమాట్కి గానవచ్చువగమీర ముంగుర్ల సొగసు చూపించెనా భ్రమరమాలికలని పల్కవచ్చుగబ్బిగబ్బల నుబ్బు గన్పడ జూపెనా పసిడిగిండ్లని మెచ్చ బల్కవచ్చు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ద', '|'), ('తి', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('పి', '|'), ('దా', 'U'), ('జూ', 'U'), ('పె', '|'), ('నా', 'U'), ('ప', '|'), ('ది', '|'), ('యా', 'U'), ('రు', '|'), ('క', '|'), ('ళ', '|'), ('ల', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('వ', '|'), ('లె', '|'), ('గా', 'U'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('జూ', 'U'), ('పె', '|'), ('నా', 'U'), ('మ', '|'), ('రు', '|'), ('జే', 'U'), ('తి', '|'), ('క', '|'), ('లు', '|'), ('వ', '|'), ('తూ', 'U'), ('పు', '|'), ('ల', '|'), ('మా', 'U'), ('ట్కి', '|'), ('గా', 'U'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వ', '|'), ('గ', '|'), ('మీ', 'U'), ('ర', '|'), ('ముం', 'U'), ('గు', 'U'), ('ర్ల', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('చూ', 'U'), ('పిం', 'U'), ('చె', '|'), ('నా', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('ల', '|'), ('ని', '|'), ('ప', 'U'), ('ల్క', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', 'U'), ('బ్బి', '|'), ('గ', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ను', 'U'), ('బ్బు', '|'), ('గ', 'U'), ('న్ప', '|'), ('డ', '|'), ('జూ', 'U'), ('పె', '|'), ('నా', 'U'), ('ప', '|'), ('సి', '|'), ('డి', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('ని', '|'), ('మె', 'U'), ('చ్చ', '|'), ('బ', 'U'), ('ల్క', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నతివ సౌందర్య మెన్నుట కలవిగాదు | మగని కూరిమిగలిగిన మగువ నేల-దగును నీకైన దగు మంచితరుణి సుమ్ము | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>నతివ సౌందర్య మెన్నుట కలవిగాదు | మగని కూరిమిగలిగిన మగువ నేల-దగును నీకైన దగు మంచితరుణి సుమ్ము | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('తి', '|'), ('వ', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('మె', 'U'), ('న్ను', '|'), ('ట', '|'), ('క', '|'), ('ల', '|'), ('వి', '|'), ('గా', 'U'), ('దు', '|'), ('మ', '|'), ('గ', '|'), ('ని', '|'), ('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('నే', 'U'), ('ల', '|'), ('ద', '|'), ('గు', '|'), ('ను', '|'), ('నీ', 'U'), ('కై', 'U'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('సు', 'U'), ('మ్ము', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>బాలనే నే తాళజాలనే యీ రవ్వలేలనే వలచిన గోలననవెరమ్మనే మనవిచే కొమ్మ నే బిగికౌఁగిలిమ్మనే నమ్మిన కొమ్మననవెచల్లగా పన్నీరు చల్లగా విభునిపై చల్లగా మదికింపు సలుపుమనవెదక్కి నా వలలోన జిక్కి నా సామికి మ్రొక్కినానని చాల ముదితయనవె</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>బాలనే నే తాళజాలనే యీ రవ్వలేలనే వలచిన గోలననవెరమ్మనే మనవిచే కొమ్మ నే బిగికౌఁగిలిమ్మనే నమ్మిన కొమ్మననవెచల్లగా పన్నీరు చల్లగా విభునిపై చల్లగా మదికింపు సలుపుమనవెదక్కి నా వలలోన జిక్కి నా సామికి మ్రొక్కినానని చాల ముదితయనవె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('ల', '|'), ('నే', 'U'), ('నే', 'U'), ('తా', 'U'), ('ళ', '|'), ('జా', 'U'), ('ల', '|'), ('నే', 'U'), ('యీ', 'U'), ('ర', 'U'), ('వ్వ', '|'), ('లే', 'U'), ('ల', '|'), ('నే', 'U'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('గో', 'U'), ('ల', '|'), ('న', '|'), ('న', '|'), ('వె', '|'), ('ర', 'U'), ('మ్మ', '|'), ('నే', 'U'), ('మ', '|'), ('న', '|'), ('వి', '|'), ('చే', 'U'), ('కొ', 'U'), ('మ్మ', '|'), ('నే', 'U'), ('బి', '|'), ('గి', '|'), ('కౌ', 'U'), ('గి', '|'), ('లి', 'U'), ('మ్మ', '|'), ('నే', 'U'), ('న', 'U'), ('మ్మి', '|'), ('న', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('న', '|'), ('న', '|'), ('వె', '|'), ('చ', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('చ', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('పై', 'U'), ('చ', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('మ', '|'), ('ది', '|'), ('కిం', 'U'), ('పు', '|'), ('స', '|'), ('లు', '|'), ('పు', '|'), ('మ', '|'), ('న', '|'), ('వె', '|'), ('ద', 'U'), ('క్కి', '|'), ('నా', 'U'), ('వ', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('జి', 'U'), ('క్కి', '|'), ('నా', 'U'), ('సా', 'U'), ('మి', '|'), ('కి', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('నా', 'U'), ('న', '|'), ('ని', '|'), ('చా', 'U'), ('ల', '|'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('య', '|'), ('న', '|'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనుచు నీతోడ యెరుగింపుమనుడు వేడె | గాన వచ్చితి నిను బిల్వ కనకచేలతామసించిన నా యింతి తాళదికను | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>యనుచు నీతోడ యెరుగింపుమనుడు వేడె | గాన వచ్చితి నిను బిల్వ కనకచేలతామసించిన నా యింతి తాళదికను | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('నీ', 'U'), ('తో', 'U'), ('డ', '|'), ('యె', '|'), ('రు', '|'), ('గిం', 'U'), ('పు', '|'), ('మ', '|'), ('ను', '|'), ('డు', '|'), ('వే', 'U'), ('డె', '|'), ('గా', 'U'), ('న', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('ని', '|'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('చే', 'U'), ('ల', '|'), ('తా', 'U'), ('మ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('యిం', 'U'), ('తి', '|'), ('తా', 'U'), ('ళ', '|'), ('ది', '|'), ('క', '|'), ('ను', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నెఱికురుల్ నీలాల నిరసించు మోముతో సరియౌనె పున్నమచందమామనిద్దంపు నునుజెక్కుటద్దంబులను గెల్చు ముద్దియయోష్టంబు మొనయ కెంపుకన్నుల సోగలు కల్వరేకుల మీఱు జన్నుగుబ్బలు సరి జక్కవలకుతిలపుష్పముల గేరు తెరవ నాశిక తీరు చెలి హస్తమబాళి జెనకజూచు</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>నెఱికురుల్ నీలాల నిరసించు మోముతో సరియౌనె పున్నమచందమామనిద్దంపు నునుజెక్కుటద్దంబులను గెల్చు ముద్దియయోష్టంబు మొనయ కెంపుకన్నుల సోగలు కల్వరేకుల మీఱు జన్నుగుబ్బలు సరి జక్కవలకుతిలపుష్పముల గేరు తెరవ నాశిక తీరు చెలి హస్తమబాళి జెనకజూచు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('ఱి', '|'), ('కు', '|'), ('రుల్', 'U'), ('నీ', 'U'), ('లా', 'U'), ('ల', '|'), ('ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చు', '|'), ('మో', 'U'), ('ము', '|'), ('తో', 'U'), ('స', '|'), ('రి', '|'), ('యౌ', 'U'), ('నె', '|'), ('పు', 'U'), ('న్న', '|'), ('మ', '|'), ('చం', 'U'), ('ద', '|'), ('మా', 'U'), ('మ', '|'), ('ని', 'U'), ('ద్దం', 'U'), ('పు', '|'), ('ను', '|'), ('ను', '|'), ('జె', 'U'), ('క్కు', '|'), ('ట', 'U'), ('ద్దం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('గె', 'U'), ('ల్చు', '|'), ('ము', 'U'), ('ద్ది', '|'), ('య', '|'), ('యో', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('మొ', '|'), ('న', '|'), ('య', '|'), ('కెం', 'U'), ('పు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('సో', 'U'), ('గ', '|'), ('లు', '|'), ('క', 'U'), ('ల్వ', '|'), ('రే', 'U'), ('కు', '|'), ('ల', '|'), ('మీ', 'U'), ('ఱు', '|'), ('జ', 'U'), ('న్ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('స', '|'), ('రి', '|'), ('జ', 'U'), ('క్క', '|'), ('వ', '|'), ('ల', '|'), ('కు', '|'), ('తి', '|'), ('ల', '|'), ('పు', 'U'), ('ష్ప', '|'), ('ము', '|'), ('ల', '|'), ('గే', 'U'), ('రు', '|'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('నా', 'U'), ('శి', '|'), ('క', '|'), ('తీ', 'U'), ('రు', '|'), ('చె', '|'), ('లి', '|'), ('హ', 'U'), ('స్త', '|'), ('మ', '|'), ('బా', 'U'), ('ళి', '|'), ('జె', '|'), ('న', '|'), ('క', '|'), ('జూ', 'U'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గుందముల మించు రజనాళీ కొమ్మ నిన్ను | దలచి మరుబారిచేతను తాళలేకయున్న దా యింతి నెడబాయ యుచితమగునె | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>గుందముల మించు రజనాళీ కొమ్మ నిన్ను | దలచి మరుబారిచేతను తాళలేకయున్న దా యింతి నెడబాయ యుచితమగునె | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('గుం', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('మిం', 'U'), ('చు', '|'), ('ర', '|'), ('జ', '|'), ('నా', 'U'), ('ళీ', 'U'), ('కొ', 'U'), ('మ్మ', '|'), ('ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('మ', '|'), ('రు', '|'), ('బా', 'U'), ('రి', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('తా', 'U'), ('ళ', '|'), ('లే', 'U'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('దా', 'U'), ('యిం', 'U'), ('తి', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('యు', '|'), ('చి', '|'), ('త', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>అరవిరిగొమ్మరా యపరంజిబొమ్మరా మరునిచేచిల్కరా మందయానయలికులవేణిరా యంబుజపాణిరా చిలుకలకొలికిరా చిగురుబోడివెన్నెలగుమ్మరా యన్నులమిన్నరా పన్నీటిసోనరా పంకజాక్షిచిలికికటారిరా చిత్తజదంతిరా శుకవాణిరా మేటి సుందరాంగి</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>అరవిరిగొమ్మరా యపరంజిబొమ్మరా మరునిచేచిల్కరా మందయానయలికులవేణిరా యంబుజపాణిరా చిలుకలకొలికిరా చిగురుబోడివెన్నెలగుమ్మరా యన్నులమిన్నరా పన్నీటిసోనరా పంకజాక్షిచిలికికటారిరా చిత్తజదంతిరా శుకవాణిరా మేటి సుందరాంగి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('వి', '|'), ('రి', '|'), ('గొ', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('య', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('చే', 'U'), ('చి', 'U'), ('ల్క', '|'), ('రా', 'U'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('య', '|'), ('లి', '|'), ('కు', '|'), ('ల', '|'), ('వే', 'U'), ('ణి', '|'), ('రా', 'U'), ('యం', 'U'), ('బు', '|'), ('జ', '|'), ('పా', 'U'), ('ణి', '|'), ('రా', 'U'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('ల', '|'), ('కొ', '|'), ('లి', '|'), ('కి', '|'), ('రా', 'U'), ('చి', '|'), ('గు', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('గు', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('య', 'U'), ('న్ను', '|'), ('ల', '|'), ('మి', 'U'), ('న్న', '|'), ('రా', 'U'), ('ప', 'U'), ('న్నీ', 'U'), ('టి', '|'), ('సో', 'U'), ('న', '|'), ('రా', 'U'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('క్షి', '|'), ('చి', '|'), ('లి', '|'), ('కి', '|'), ('క', '|'), ('టా', 'U'), ('రి', '|'), ('రా', 'U'), ('చి', 'U'), ('త్త', '|'), ('జ', '|'), ('దం', 'U'), ('తి', '|'), ('రా', 'U'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('రా', 'U'), ('మే', 'U'), ('టి', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనగ దగినట్టి యా బాల నేలుకొనక | మోడిసేయంగ నుచితమే మోహనాంగతామసించక రావయ్య దానవారి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>యనగ దగినట్టి యా బాల నేలుకొనక | మోడిసేయంగ నుచితమే మోహనాంగతామసించక రావయ్య దానవారి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('న', '|'), ('గ', '|'), ('ద', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('బా', 'U'), ('ల', '|'), ('నే', 'U'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('క', '|'), ('మో', 'U'), ('డి', '|'), ('సే', 'U'), ('యం', 'U'), ('గ', '|'), ('ను', '|'), ('చి', '|'), ('త', '|'), ('మే', 'U'), ('మో', 'U'), ('హ', '|'), ('నాం', 'U'), ('గ', '|'), ('తా', 'U'), ('మ', '|'), ('సిం', 'U'), ('చ', '|'), ('క', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('దా', 'U'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నడుముల్కు తొడబెళ్కు మెడకుల్కు కడుతళ్కు మోము చూచిన చాల మురియవటరపగడంపు జగనింపు తగకెంపు జిగిబెంపు కొమ్మవాతెర జూచి కోరవటరబిగినుండు జిగిమించు తొలగించు వగలాడి పాలిండ్లు జూచిన భ్రమయవటరననబోడి శుకవాణి ఘనశ్రోణి మృదుపాణి వగలు చూచిన దాళవచ్చునటర</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>నడుముల్కు తొడబెళ్కు మెడకుల్కు కడుతళ్కు మోము చూచిన చాల మురియవటరపగడంపు జగనింపు తగకెంపు జిగిబెంపు కొమ్మవాతెర జూచి కోరవటరబిగినుండు జిగిమించు తొలగించు వగలాడి పాలిండ్లు జూచిన భ్రమయవటరననబోడి శుకవాణి ఘనశ్రోణి మృదుపాణి వగలు చూచిన దాళవచ్చునటర</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('డు', '|'), ('ము', 'U'), ('ల్కు', '|'), ('తొ', '|'), ('డ', '|'), ('బె', 'U'), ('ళ్కు', '|'), ('మె', '|'), ('డ', '|'), ('కు', 'U'), ('ల్కు', '|'), ('క', '|'), ('డు', '|'), ('త', 'U'), ('ళ్కు', '|'), ('మో', 'U'), ('ము', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('చా', 'U'), ('ల', '|'), ('ము', '|'), ('రి', '|'), ('య', '|'), ('వ', '|'), ('ట', '|'), ('ర', '|'), ('ప', '|'), ('గ', '|'), ('డం', 'U'), ('పు', '|'), ('జ', '|'), ('గ', '|'), ('నిం', 'U'), ('పు', '|'), ('త', '|'), ('గ', '|'), ('కెం', 'U'), ('పు', '|'), ('జి', '|'), ('గి', '|'), ('బెం', 'U'), ('పు', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('వా', 'U'), ('తె', '|'), ('ర', '|'), ('జూ', 'U'), ('చి', '|'), ('కో', 'U'), ('ర', '|'), ('వ', '|'), ('ట', '|'), ('ర', '|'), ('బి', '|'), ('గి', '|'), ('నుం', 'U'), ('డు', '|'), ('జి', '|'), ('గి', '|'), ('మిం', 'U'), ('చు', '|'), ('తొ', '|'), ('ల', '|'), ('గిం', 'U'), ('చు', '|'), ('వ', '|'), ('గ', '|'), ('లా', 'U'), ('డి', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్లు', '|'), ('జూ', 'U'), ('చి', '|'), ('న', 'U'), ('భ్ర', '|'), ('మ', '|'), ('య', '|'), ('వ', '|'), ('ట', '|'), ('ర', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('డి', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('ఘ', '|'), ('న', 'U'), ('శ్రో', 'U'), ('ణి', '|'), ('మృ', '|'), ('దు', '|'), ('పా', 'U'), ('ణి', '|'), ('వ', '|'), ('గ', '|'), ('లు', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('ళ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ట', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన నా సుందరాంగిని గారవమున | నేలుకొనదగు నీకైన దిందువదనవెలది నను బంపె నిను బిల్వ వేడ్కమీర | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>గాన నా సుందరాంగిని గారవమున | నేలుకొనదగు నీకైన దిందువదనవెలది నను బంపె నిను బిల్వ వేడ్కమీర | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('నా', 'U'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గి', '|'), ('ని', '|'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('నీ', 'U'), ('కై', 'U'), ('న', '|'), ('దిం', 'U'), ('దు', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('న', '|'), ('ను', '|'), ('బం', 'U'), ('పె', '|'), ('ని', '|'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('వే', 'U'), ('డ్క', '|'), ('మీ', 'U'), ('ర', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>బెళ్కుచూపులకొమ్మ తళ్కుబంగరుబొమ్మ కుల్కుముద్దులగుమ్మ కుందరదనవగలాడియౌన జిగిముద్దుమోముది చిగురాకుమోవిది చిన్నెలాడిజిగిపెన్గులాట్లచే బిగిగుబ్బపోట్లచే తగుమోవికాట్లచే తరుణి విభునివలపించు మరులెద గొలిపించు నతి మేలు కలిపించు రతులచే గంబుకంఠ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>బెళ్కుచూపులకొమ్మ తళ్కుబంగరుబొమ్మ కుల్కుముద్దులగుమ్మ కుందరదనవగలాడియౌన జిగిముద్దుమోముది చిగురాకుమోవిది చిన్నెలాడిజిగిపెన్గులాట్లచే బిగిగుబ్బపోట్లచే తగుమోవికాట్లచే తరుణి విభునివలపించు మరులెద గొలిపించు నతి మేలు కలిపించు రతులచే గంబుకంఠ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('బె', 'U'), ('ళ్కు', '|'), ('చూ', 'U'), ('పు', '|'), ('ల', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('త', 'U'), ('ళ్కు', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('కు', 'U'), ('ల్కు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ల', '|'), ('గు', 'U'), ('మ్మ', '|'), ('కుం', 'U'), ('ద', '|'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('వ', '|'), ('గ', '|'), ('లా', 'U'), ('డి', '|'), ('యౌ', 'U'), ('న', '|'), ('జి', '|'), ('గి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మో', 'U'), ('ము', '|'), ('ది', '|'), ('చి', '|'), ('గు', '|'), ('రా', 'U'), ('కు', '|'), ('మో', 'U'), ('వి', '|'), ('ది', '|'), ('చి', 'U'), ('న్నె', '|'), ('లా', 'U'), ('డి', '|'), ('జి', '|'), ('గి', '|'), ('పె', 'U'), ('న్గు', '|'), ('లా', 'U'), ('ట్ల', '|'), ('చే', 'U'), ('బి', '|'), ('గి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('పో', 'U'), ('ట్ల', '|'), ('చే', 'U'), ('త', '|'), ('గు', '|'), ('మో', 'U'), ('వి', '|'), ('కా', 'U'), ('ట్ల', '|'), ('చే', 'U'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('పిం', 'U'), ('చు', '|'), ('మ', '|'), ('రు', '|'), ('లె', '|'), ('ద', '|'), ('గొ', '|'), ('లి', '|'), ('పిం', 'U'), ('చు', '|'), ('న', '|'), ('తి', '|'), ('మే', 'U'), ('లు', '|'), ('క', '|'), ('లి', '|'), ('పిం', 'U'), ('చు', '|'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('చే', 'U'), ('గం', 'U'), ('బు', '|'), ('కం', 'U'), ('ఠ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనగ దగినట్టి యీ యింతి నేలుకొన్న | గోరి చక్కెర పాలును గూర్చినటులసురతసౌఖ్యంబులబ్బును సుందరాంగ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>యనగ దగినట్టి యీ యింతి నేలుకొన్న | గోరి చక్కెర పాలును గూర్చినటులసురతసౌఖ్యంబులబ్బును సుందరాంగ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('న', '|'), ('గ', '|'), ('ద', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('యీ', 'U'), ('యిం', 'U'), ('తి', '|'), ('నే', 'U'), ('లు', '|'), ('కొ', 'U'), ('న్న', '|'), ('గో', 'U'), ('రి', '|'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('పా', 'U'), ('లు', '|'), ('ను', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('ల', 'U'), ('బ్బు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>వదనమా కాదది పదియారుకళలచే బెంపొంద వెలయు జాబిల్లి గానికన్నులా కావవి చెన్నుమీఱగజాల మెరసెడి బేడిసమీలు గానియధరమా కాదది మధురసభరితమై పరిపక్వమగు బింబఫలము గానికందరమా కాదు కరిమరేఖల దాల్చి కంధిలో బొదలు శంఖంబు గాని</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>వదనమా కాదది పదియారుకళలచే బెంపొంద వెలయు జాబిల్లి గానికన్నులా కావవి చెన్నుమీఱగజాల మెరసెడి బేడిసమీలు గానియధరమా కాదది మధురసభరితమై పరిపక్వమగు బింబఫలము గానికందరమా కాదు కరిమరేఖల దాల్చి కంధిలో బొదలు శంఖంబు గాని</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ద', '|'), ('న', '|'), ('మా', 'U'), ('కా', 'U'), ('ద', '|'), ('ది', '|'), ('ప', '|'), ('ది', '|'), ('యా', 'U'), ('రు', '|'), ('క', '|'), ('ళ', '|'), ('ల', '|'), ('చే', 'U'), ('బెం', 'U'), ('పొం', 'U'), ('ద', '|'), ('వె', '|'), ('ల', '|'), ('యు', '|'), ('జా', 'U'), ('బి', 'U'), ('ల్లి', '|'), ('గా', 'U'), ('ని', '|'), ('క', 'U'), ('న్ను', '|'), ('లా', 'U'), ('కా', 'U'), ('వ', '|'), ('వి', '|'), ('చె', 'U'), ('న్ను', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('జా', 'U'), ('ల', '|'), ('మె', '|'), ('ర', '|'), ('సె', '|'), ('డి', '|'), ('బే', 'U'), ('డి', '|'), ('స', '|'), ('మీ', 'U'), ('లు', '|'), ('గా', 'U'), ('ని', '|'), ('య', '|'), ('ధ', '|'), ('ర', '|'), ('మా', 'U'), ('కా', 'U'), ('ద', '|'), ('ది', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('స', '|'), ('భ', '|'), ('రి', '|'), ('త', '|'), ('మై', 'U'), ('ప', '|'), ('రి', '|'), ('ప', 'U'), ('క్వ', '|'), ('మ', '|'), ('గు', '|'), ('బిం', 'U'), ('బ', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('గా', 'U'), ('ని', '|'), ('కం', 'U'), ('ద', '|'), ('ర', '|'), ('మా', 'U'), ('కా', 'U'), ('దు', '|'), ('క', '|'), ('రి', '|'), ('మ', '|'), ('రే', 'U'), ('ఖ', '|'), ('ల', '|'), ('దా', 'U'), ('ల్చి', '|'), ('కం', 'U'), ('ధి', '|'), ('లో', 'U'), ('బొ', '|'), ('ద', '|'), ('లు', '|'), ('శం', 'U'), ('ఖం', 'U'), ('బు', '|'), ('గా', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనుచు నుతియింపతగినట్టి యలరుబోడి | నెనయదగు జాగుసేయక నేలుకొమ్మువినుతమౌ నీశ నీకు నే విన్నవింతు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>యనుచు నుతియింపతగినట్టి యలరుబోడి | నెనయదగు జాగుసేయక నేలుకొమ్మువినుతమౌ నీశ నీకు నే విన్నవింతు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('ను', '|'), ('తి', '|'), ('యిం', 'U'), ('ప', '|'), ('త', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('య', '|'), ('ల', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|'), ('నె', '|'), ('న', '|'), ('య', '|'), ('ద', '|'), ('గు', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('నే', 'U'), ('లు', '|'), ('కొ', 'U'), ('మ్ము', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('మౌ', 'U'), ('నీ', 'U'), ('శ', '|'), ('నీ', 'U'), ('కు', '|'), ('నే', 'U'), ('వి', 'U'), ('న్న', '|'), ('విం', 'U'), ('తు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చల్లని పన్నీట జలకంబు గావించి జిలుగుబుటేదారిచీరె గట్టిబంగారుసరిగెమొగ్గల నిగ్గుగను పట్టురంగు మీరిన మేటిరవికె దొడిగిబన్నసరులు మేటిపతకంబు ముత్తియసరులు గుబ్బలమీద జారి యొరయనందిబందులు వజ్రసరులు కంకణములు కరములు నిగనిగ కాంతులెసగ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>చల్లని పన్నీట జలకంబు గావించి జిలుగుబుటేదారిచీరె గట్టిబంగారుసరిగెమొగ్గల నిగ్గుగను పట్టురంగు మీరిన మేటిరవికె దొడిగిబన్నసరులు మేటిపతకంబు ముత్తియసరులు గుబ్బలమీద జారి యొరయనందిబందులు వజ్రసరులు కంకణములు కరములు నిగనిగ కాంతులెసగ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('ట', '|'), ('జ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('జి', '|'), ('లు', '|'), ('గు', '|'), ('బు', '|'), ('టే', 'U'), ('దా', 'U'), ('రి', '|'), ('చీ', 'U'), ('రె', '|'), ('గ', 'U'), ('ట్టి', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('స', '|'), ('రి', '|'), ('గె', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('ని', 'U'), ('గ్గు', '|'), ('గ', '|'), ('ను', '|'), ('ప', 'U'), ('ట్టు', '|'), ('రం', 'U'), ('గు', '|'), ('మీ', 'U'), ('రి', '|'), ('న', '|'), ('మే', 'U'), ('టి', '|'), ('ర', '|'), ('వి', '|'), ('కె', '|'), ('దొ', '|'), ('డి', '|'), ('గి', '|'), ('బ', 'U'), ('న్న', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('మే', 'U'), ('టి', '|'), ('ప', '|'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('ము', 'U'), ('త్తి', '|'), ('య', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('జా', 'U'), ('రి', '|'), ('యొ', '|'), ('ర', '|'), ('య', '|'), ('నం', 'U'), ('ది', '|'), ('బం', 'U'), ('దు', '|'), ('లు', '|'), ('వ', 'U'), ('జ్ర', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('కం', 'U'), ('క', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('ని', '|'), ('గ', '|'), ('ని', '|'), ('గ', '|'), ('కాం', 'U'), ('తు', '|'), ('లె', '|'), ('స', '|'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మెలత మొలనూలిఘంటలు మిగుల మ్రోయ | కాళ్ళనందెలు గజ్జెలు ఘల్లుమనగచెలిని జూచిన మరువారి చిక్కవటర | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>మెలత మొలనూలిఘంటలు మిగుల మ్రోయ | కాళ్ళనందెలు గజ్జెలు ఘల్లుమనగచెలిని జూచిన మరువారి చిక్కవటర | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('మె', '|'), ('ల', '|'), ('త', '|'), ('మొ', '|'), ('ల', '|'), ('నూ', 'U'), ('లి', '|'), ('ఘం', 'U'), ('ట', '|'), ('లు', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('మ్రో', 'U'), ('య', '|'), ('కా', 'U'), ('ళ్ళ', '|'), ('నం', 'U'), ('దె', '|'), ('లు', '|'), ('గ', 'U'), ('జ్జె', '|'), ('లు', '|'), ('ఘ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('న', '|'), ('గ', '|'), ('చె', '|'), ('లి', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('రు', '|'), ('వా', 'U'), ('రి', '|'), ('చి', 'U'), ('క్క', '|'), ('వ', '|'), ('ట', '|'), ('ర', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నెరులురా తుమ్మెదగరులురా నీలంపుసరులురా కొమ్మ ముంగురుల సౌరుమేలురా చెనకినపాలురా మించుటద్దాలురా ముదిత కపోలయుగమువాలురా బేడసమీలురా కల్వలనేలురా కలికి కన్గవల తీరుచెండ్లురా బంగారుగుండ్లురా గజనిమ్మపండ్లురా యతివ పాలిండ్ల తీరు</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>నెరులురా తుమ్మెదగరులురా నీలంపుసరులురా కొమ్మ ముంగురుల సౌరుమేలురా చెనకినపాలురా మించుటద్దాలురా ముదిత కపోలయుగమువాలురా బేడసమీలురా కల్వలనేలురా కలికి కన్గవల తీరుచెండ్లురా బంగారుగుండ్లురా గజనిమ్మపండ్లురా యతివ పాలిండ్ల తీరు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('రు', '|'), ('లు', '|'), ('రా', 'U'), ('తు', 'U'), ('మ్మె', '|'), ('ద', '|'), ('గ', '|'), ('రు', '|'), ('లు', '|'), ('రా', 'U'), ('నీ', 'U'), ('లం', 'U'), ('పు', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('రా', 'U'), ('కొ', 'U'), ('మ్మ', '|'), ('ముం', 'U'), ('గు', '|'), ('రు', '|'), ('ల', '|'), ('సౌ', 'U'), ('రు', '|'), ('మే', 'U'), ('లు', '|'), ('రా', 'U'), ('చె', '|'), ('న', '|'), ('కి', '|'), ('న', '|'), ('పా', 'U'), ('లు', '|'), ('రా', 'U'), ('మిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ద్దా', 'U'), ('లు', '|'), ('రా', 'U'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('క', '|'), ('పో', 'U'), ('ల', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('వా', 'U'), ('లు', '|'), ('రా', 'U'), ('బే', 'U'), ('డ', '|'), ('స', '|'), ('మీ', 'U'), ('లు', '|'), ('రా', 'U'), ('క', 'U'), ('ల్వ', '|'), ('ల', '|'), ('నే', 'U'), ('లు', '|'), ('రా', 'U'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('క', 'U'), ('న్గ', '|'), ('వ', '|'), ('ల', '|'), ('తీ', 'U'), ('రు', '|'), ('చెం', 'U'), ('డ్లు', '|'), ('రా', 'U'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('గుం', 'U'), ('డ్లు', '|'), ('రా', 'U'), ('గ', '|'), ('జ', '|'), ('ని', 'U'), ('మ్మ', '|'), ('పం', 'U'), ('డ్లు', '|'), ('రా', 'U'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్ల', '|'), ('తీ', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చెలియ నూగారు నల్లనిచీమబారు | పొలతి పొక్కిలి విరిసిన పొన్నపూవునెలత నేలుట తగునయ్య నెనరుతోను | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>చెలియ నూగారు నల్లనిచీమబారు | పొలతి పొక్కిలి విరిసిన పొన్నపూవునెలత నేలుట తగునయ్య నెనరుతోను | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లి', '|'), ('య', '|'), ('నూ', 'U'), ('గా', 'U'), ('రు', '|'), ('న', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చీ', 'U'), ('మ', '|'), ('బా', 'U'), ('రు', '|'), ('పొ', '|'), ('ల', '|'), ('తి', '|'), ('పొ', 'U'), ('క్కి', '|'), ('లి', '|'), ('వి', '|'), ('రి', '|'), ('సి', '|'), ('న', '|'), ('పొ', 'U'), ('న్న', '|'), ('పూ', 'U'), ('వు', '|'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('నే', 'U'), ('లు', '|'), ('ట', '|'), ('త', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('తో', 'U'), ('ను', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>రవనూనె మెరుగిడి రాణించు నెరికురుల్ దువ్వి కొప్పమరించి తోరమైనగొప్పరాగిడి మేటియొప్పైన కుప్పెయు సవరించి మొగ్గల సరులు మీరపరగ కెంపులు చెక్కబడినట్టి పాపటబొట్టుపై శశిపువ్వు పొసగ దాల్చినిద్దంపు చెక్కుల వద్దికగా వజ్రతాటకముల ధాళధళ్య మమర</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>రవనూనె మెరుగిడి రాణించు నెరికురుల్ దువ్వి కొప్పమరించి తోరమైనగొప్పరాగిడి మేటియొప్పైన కుప్పెయు సవరించి మొగ్గల సరులు మీరపరగ కెంపులు చెక్కబడినట్టి పాపటబొట్టుపై శశిపువ్వు పొసగ దాల్చినిద్దంపు చెక్కుల వద్దికగా వజ్రతాటకముల ధాళధళ్య మమర</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('వ', '|'), ('నూ', 'U'), ('నె', '|'), ('మె', '|'), ('రు', '|'), ('గి', '|'), ('డి', '|'), ('రా', 'U'), ('ణిం', 'U'), ('చు', '|'), ('నె', '|'), ('రి', '|'), ('కు', '|'), ('రుల్', 'U'), ('దు', 'U'), ('వ్వి', '|'), ('కొ', 'U'), ('ప్ప', '|'), ('మ', '|'), ('రిం', 'U'), ('చి', '|'), ('తో', 'U'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('గి', '|'), ('డి', '|'), ('మే', 'U'), ('టి', '|'), ('యొ', 'U'), ('ప్పై', 'U'), ('న', '|'), ('కు', 'U'), ('ప్పె', '|'), ('యు', '|'), ('స', '|'), ('వ', '|'), ('రిం', 'U'), ('చి', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('మీ', 'U'), ('ర', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('కెం', 'U'), ('పు', '|'), ('లు', '|'), ('చె', 'U'), ('క్క', '|'), ('బ', '|'), ('డి', '|'), ('న', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('ప', '|'), ('ట', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('పై', 'U'), ('శ', '|'), ('శి', '|'), ('పు', 'U'), ('వ్వు', '|'), ('పొ', '|'), ('స', '|'), ('గ', '|'), ('దా', 'U'), ('ల్చి', '|'), ('ని', 'U'), ('ద్దం', 'U'), ('పు', '|'), ('చె', 'U'), ('క్కు', '|'), ('ల', '|'), ('వ', 'U'), ('ద్ది', '|'), ('క', '|'), ('గా', 'U'), ('వ', 'U'), ('జ్ర', '|'), ('తా', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('ధా', 'U'), ('ళ', '|'), ('ధ', 'U'), ('ళ్య', '|'), ('మ', '|'), ('మ', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నాణిముత్తెపు నత్తు మోవంది గుల్క | నెంచదగినట్టి తొలకరి మించొ యనగదాని వగ జూడ దమి నిల్వ దరమె నీకు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>నాణిముత్తెపు నత్తు మోవంది గుల్క | నెంచదగినట్టి తొలకరి మించొ యనగదాని వగ జూడ దమి నిల్వ దరమె నీకు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('ణి', '|'), ('ము', 'U'), ('త్తె', '|'), ('పు', '|'), ('న', 'U'), ('త్తు', '|'), ('మో', 'U'), ('వం', 'U'), ('ది', '|'), ('గు', 'U'), ('ల్క', '|'), ('నెం', 'U'), ('చ', '|'), ('ద', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('తొ', '|'), ('ల', '|'), ('క', '|'), ('రి', '|'), ('మిం', 'U'), ('చొ', '|'), ('య', '|'), ('న', '|'), ('గ', '|'), ('దా', 'U'), ('ని', '|'), ('వ', '|'), ('గ', '|'), ('జూ', 'U'), ('డ', '|'), ('ద', '|'), ('మి', '|'), ('ని', 'U'), ('ల్వ', '|'), ('ద', '|'), ('ర', '|'), ('మె', '|'), ('నీ', 'U'), ('కు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కొసరంచు పలుమారు కొమ్మ కమ్మనిమోవి యాని తేనియ గ్రోలుమనుచు బలుకవద్దికతో దన నిద్దంపు చెక్కులు ముద్దాడరా యని మురియ బల్కమొనసి పాలిండ్లపై మొనగోరు లించుకయుంచరా యని తమిమించు పలుకవడిబోక ముడివిచ్చి తడయక నాభిలో నంగుళం బానరా యనుచు బలుక</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>కొసరంచు పలుమారు కొమ్మ కమ్మనిమోవి యాని తేనియ గ్రోలుమనుచు బలుకవద్దికతో దన నిద్దంపు చెక్కులు ముద్దాడరా యని మురియ బల్కమొనసి పాలిండ్లపై మొనగోరు లించుకయుంచరా యని తమిమించు పలుకవడిబోక ముడివిచ్చి తడయక నాభిలో నంగుళం బానరా యనుచు బలుక</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('స', '|'), ('రం', 'U'), ('చు', '|'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('క', 'U'), ('మ్మ', '|'), ('ని', '|'), ('మో', 'U'), ('వి', '|'), ('యా', 'U'), ('ని', '|'), ('తే', 'U'), ('ని', '|'), ('య', 'U'), ('గ్రో', 'U'), ('లు', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('వ', 'U'), ('ద్ది', '|'), ('క', '|'), ('తో', 'U'), ('ద', '|'), ('న', '|'), ('ని', 'U'), ('ద్దం', 'U'), ('పు', '|'), ('చె', 'U'), ('క్కు', '|'), ('లు', '|'), ('ము', 'U'), ('ద్దా', 'U'), ('డ', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('ము', '|'), ('రి', '|'), ('య', '|'), ('బ', 'U'), ('ల్క', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్ల', '|'), ('పై', 'U'), ('మొ', '|'), ('న', '|'), ('గో', 'U'), ('రు', '|'), ('లిం', 'U'), ('చు', '|'), ('క', '|'), ('యుం', 'U'), ('చ', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('త', '|'), ('మి', '|'), ('మిం', 'U'), ('చు', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('వ', '|'), ('డి', '|'), ('బో', 'U'), ('క', '|'), ('ము', '|'), ('డి', '|'), ('వి', 'U'), ('చ్చి', '|'), ('త', '|'), ('డ', '|'), ('య', '|'), ('క', '|'), ('నా', 'U'), ('భి', '|'), ('లో', 'U'), ('నం', 'U'), ('గు', '|'), ('ళం', 'U'), ('బా', 'U'), ('న', '|'), ('రా', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కేళి మరుకేళి గూడంగ కోరి పలుక యతనుసామ్రాజ్య మెల్ల నీ కబ్బినటుల-నుండదే చూడు మా యింతి నొనరగూడి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>కేళి మరుకేళి గూడంగ కోరి పలుక యతనుసామ్రాజ్య మెల్ల నీ కబ్బినటుల-నుండదే చూడు మా యింతి నొనరగూడి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('కే', 'U'), ('ళి', '|'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('గూ', 'U'), ('డం', 'U'), ('గ', '|'), ('కో', 'U'), ('రి', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('య', '|'), ('త', '|'), ('ను', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('మె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('క', 'U'), ('బ్బి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('నుం', 'U'), ('డ', '|'), ('దే', 'U'), ('చూ', 'U'), ('డు', '|'), ('మా', 'U'), ('యిం', 'U'), ('తి', '|'), ('నొ', '|'), ('న', '|'), ('ర', '|'), ('గూ', 'U'), ('డి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>విడెమందుకొమ్మన్న తొడలపై గూర్చుండి దొంతరవిడెమిచ్చు తోయజాక్షినెనరుంచుమనినను చనువున చెలరేగి మోవితేనియలాను ముద్దుగుమ్మయదనిదియన్నను వదలక బిగబట్టి యదనుగుబ్బలగుమ్ము పద్మగంధి... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ...</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>విడెమందుకొమ్మన్న తొడలపై గూర్చుండి దొంతరవిడెమిచ్చు తోయజాక్షినెనరుంచుమనినను చనువున చెలరేగి మోవితేనియలాను ముద్దుగుమ్మయదనిదియన్నను వదలక బిగబట్టి యదనుగుబ్బలగుమ్ము పద్మగంధి... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ...</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('డె', '|'), ('మం', 'U'), ('దు', '|'), ('కొ', 'U'), ('మ్మ', 'U'), ('న్న', '|'), ('తొ', '|'), ('డ', '|'), ('ల', '|'), ('పై', 'U'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('దొం', 'U'), ('త', '|'), ('ర', '|'), ('వి', '|'), ('డె', '|'), ('మి', 'U'), ('చ్చు', '|'), ('తో', 'U'), ('య', '|'), ('జా', 'U'), ('క్షి', '|'), ('నె', '|'), ('న', '|'), ('రుం', 'U'), ('చు', '|'), ('మ', '|'), ('ని', '|'), ('న', '|'), ('ను', '|'), ('చ', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('చె', '|'), ('ల', '|'), ('రే', 'U'), ('గి', '|'), ('మో', 'U'), ('వి', '|'), ('తే', 'U'), ('ని', '|'), ('య', '|'), ('లా', 'U'), ('ను', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('మ్మ', '|'), ('య', '|'), ('ద', '|'), ('ని', '|'), ('ది', '|'), ('య', 'U'), ('న్న', '|'), ('ను', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('బి', '|'), ('గ', '|'), ('బ', 'U'), ('ట్టి', '|'), ('య', '|'), ('ద', '|'), ('ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('గు', 'U'), ('మ్ము', '|'), ('ప', 'U'), ('ద్మ', '|'), ('గం', 'U'), ('ధి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మరునిచేచిల్క యనదగు మందగమన | కలికి నెమ్మోము చందురుకాంతినెసగునట్టివగలాడి నెడబారునలవి గాదు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>మరునిచేచిల్క యనదగు మందగమన | కలికి నెమ్మోము చందురుకాంతినెసగునట్టివగలాడి నెడబారునలవి గాదు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('రు', '|'), ('ని', '|'), ('చే', 'U'), ('చి', 'U'), ('ల్క', '|'), ('య', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('మం', 'U'), ('ద', '|'), ('గ', '|'), ('మ', '|'), ('న', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('కాం', 'U'), ('తి', '|'), ('నె', '|'), ('స', '|'), ('గు', '|'), ('న', 'U'), ('ట్టి', '|'), ('వ', '|'), ('గ', '|'), ('లా', 'U'), ('డి', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('రు', '|'), ('న', '|'), ('ల', '|'), ('వి', '|'), ('గా', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>బిగికౌఁగిలింతల బెనగుచు పలుమారు విడెమందుకొమ్మను వేడ్కలాడికిలకిలమనుచు వెన్నెలతేటనగవుల గిలగింతలొనరించు కీరవాణితలపున విభునిపై తప్పేమియును లేక పొలయల్క గావించు పువ్వుబోడికొసరి వేడుచు బతి గూడినది యెంతహాయిరా నా సామి యను లతాంగి</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>బిగికౌఁగిలింతల బెనగుచు పలుమారు విడెమందుకొమ్మను వేడ్కలాడికిలకిలమనుచు వెన్నెలతేటనగవుల గిలగింతలొనరించు కీరవాణితలపున విభునిపై తప్పేమియును లేక పొలయల్క గావించు పువ్వుబోడికొసరి వేడుచు బతి గూడినది యెంతహాయిరా నా సామి యను లతాంగి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('బి', '|'), ('గి', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('త', '|'), ('ల', '|'), ('బె', '|'), ('న', '|'), ('గు', '|'), ('చు', '|'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('వి', '|'), ('డె', '|'), ('మం', 'U'), ('దు', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ను', '|'), ('వే', 'U'), ('డ్క', '|'), ('లా', 'U'), ('డి', '|'), ('కి', '|'), ('ల', '|'), ('కి', '|'), ('ల', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('తే', 'U'), ('ట', '|'), ('న', '|'), ('గ', '|'), ('వు', '|'), ('ల', '|'), ('గి', '|'), ('ల', '|'), ('గిం', 'U'), ('త', '|'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('కీ', 'U'), ('ర', '|'), ('వా', 'U'), ('ణి', '|'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('పై', 'U'), ('త', 'U'), ('ప్పే', 'U'), ('మి', '|'), ('యు', '|'), ('ను', '|'), ('లే', 'U'), ('క', '|'), ('పొ', '|'), ('ల', '|'), ('య', 'U'), ('ల్క', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('పు', 'U'), ('వ్వు', '|'), ('బో', 'U'), ('డి', '|'), ('కొ', '|'), ('స', '|'), ('రి', '|'), ('వే', 'U'), ('డు', '|'), ('చు', '|'), ('బ', '|'), ('తి', '|'), ('గూ', 'U'), ('డి', '|'), ('న', '|'), ('ది', '|'), ('యెం', 'U'), ('త', '|'), ('హా', 'U'), ('యి', '|'), ('రా', 'U'), ('నా', 'U'), ('సా', 'U'), ('మి', '|'), ('య', '|'), ('ను', '|'), ('ల', '|'), ('తాం', 'U'), ('గి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యట్టి కనకాంగి వగలెన్న నలవి గాదు | పంకజాక్షిని చౌసీతిబంధగతులనేలుకొనవయ్య యతివేగ నీరజాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>యట్టి కనకాంగి వగలెన్న నలవి గాదు | పంకజాక్షిని చౌసీతిబంధగతులనేలుకొనవయ్య యతివేగ నీరజాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('య', 'U'), ('ట్టి', '|'), ('క', '|'), ('న', '|'), ('కాం', 'U'), ('గి', '|'), ('వ', '|'), ('గ', '|'), ('లె', 'U'), ('న్న', '|'), ('న', '|'), ('ల', '|'), ('వి', '|'), ('గా', 'U'), ('దు', '|'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('క్షి', '|'), ('ని', '|'), ('చౌ', 'U'), ('సీ', 'U'), ('తి', '|'), ('బం', 'U'), ('ధ', '|'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('నే', 'U'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('వ', 'U'), ('య్య', '|'), ('య', '|'), ('తి', '|'), ('వే', 'U'), ('గ', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>మొలకదేనియలొల్కు కుల్కుపల్కుల విభు మది కరగించునే మంజువాణిక్షణమైన నిను బాయజాలర ప్రాణేశ యని కౌఁగిలించునే యబ్జపాణివీణె వాయింపుచు వెలది పైకమురీతి బాడగా నేర్చునే పద్మనయనయిద్దరమొనగూడి వొద్దిక నుండుట కెన్ని నోచితినను నెమ్మెలాడి</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>మొలకదేనియలొల్కు కుల్కుపల్కుల విభు మది కరగించునే మంజువాణిక్షణమైన నిను బాయజాలర ప్రాణేశ యని కౌఁగిలించునే యబ్జపాణివీణె వాయింపుచు వెలది పైకమురీతి బాడగా నేర్చునే పద్మనయనయిద్దరమొనగూడి వొద్దిక నుండుట కెన్ని నోచితినను నెమ్మెలాడి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('మొ', '|'), ('ల', '|'), ('క', '|'), ('దే', 'U'), ('ని', '|'), ('య', '|'), ('లొ', 'U'), ('ల్కు', '|'), ('కు', 'U'), ('ల్కు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('వి', '|'), ('భు', '|'), ('మ', '|'), ('ది', '|'), ('క', '|'), ('ర', '|'), ('గిం', 'U'), ('చు', '|'), ('నే', 'U'), ('మం', 'U'), ('జు', '|'), ('వా', 'U'), ('ణి', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మై', 'U'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('ర', 'U'), ('ప్రా', 'U'), ('ణే', 'U'), ('శ', '|'), ('య', '|'), ('ని', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చు', '|'), ('నే', 'U'), ('య', 'U'), ('బ్జ', '|'), ('పా', 'U'), ('ణి', '|'), ('వీ', 'U'), ('ణె', '|'), ('వా', 'U'), ('యిం', 'U'), ('పు', '|'), ('చు', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('పై', 'U'), ('క', '|'), ('ము', '|'), ('రీ', 'U'), ('తి', '|'), ('బా', 'U'), ('డ', '|'), ('గా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('ప', 'U'), ('ద్మ', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('యి', 'U'), ('ద్ద', '|'), ('ర', '|'), ('మొ', '|'), ('న', '|'), ('గూ', 'U'), ('డి', '|'), ('వొ', 'U'), ('ద్ది', '|'), ('క', '|'), ('నుం', 'U'), ('డు', '|'), ('ట', '|'), ('కె', 'U'), ('న్ని', '|'), ('నో', 'U'), ('చి', '|'), ('తి', '|'), ('న', '|'), ('ను', '|'), ('నె', 'U'), ('మ్మె', '|'), ('లా', 'U'), ('డి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చాల మది కింపు బుట్టించు సరసిజాక్షి| నట్టి జవరాలి నెడబాయ నర్హమగునెకలికి నేలుట దగునయ్య కరుణ గల్గి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>చాల మది కింపు బుట్టించు సరసిజాక్షి| నట్టి జవరాలి నెడబాయ నర్హమగునెకలికి నేలుట దగునయ్య కరుణ గల్గి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('ల', '|'), ('మ', '|'), ('ది', '|'), ('కిం', 'U'), ('పు', '|'), ('బు', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('స', '|'), ('ర', '|'), ('సి', '|'), ('జా', 'U'), ('క్షి', '|'), ('న', 'U'), ('ట్టి', '|'), ('జ', '|'), ('వ', '|'), ('రా', 'U'), ('లి', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('న', 'U'), ('ర్హ', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('నే', 'U'), ('లు', '|'), ('ట', '|'), ('ద', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చెండ్లాడమనుచు బాలిండ్లు నాథుని చేతికబ్బంగనిచ్చు నా యలరుబోడిగాటంపు రతుల జొకాటంపు వగలను మొనసి కూడగజాలు మోహనాంగిబడలిన విభునకు బలుమీరు గెమ్మోవియానంగనిచ్చు నా పంకజాక్షిపన్నీరుగంధంబు పైజల్లి శైత్యోపచారంబు సేయునా జలజపాణి</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>చెండ్లాడమనుచు బాలిండ్లు నాథుని చేతికబ్బంగనిచ్చు నా యలరుబోడిగాటంపు రతుల జొకాటంపు వగలను మొనసి కూడగజాలు మోహనాంగిబడలిన విభునకు బలుమీరు గెమ్మోవియానంగనిచ్చు నా పంకజాక్షిపన్నీరుగంధంబు పైజల్లి శైత్యోపచారంబు సేయునా జలజపాణి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('చెం', 'U'), ('డ్లా', 'U'), ('డ', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('లిం', 'U'), ('డ్లు', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('చే', 'U'), ('తి', '|'), ('క', 'U'), ('బ్బం', 'U'), ('గ', '|'), ('ని', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('య', '|'), ('ల', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|'), ('గా', 'U'), ('టం', 'U'), ('పు', '|'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('జొ', '|'), ('కా', 'U'), ('టం', 'U'), ('పు', '|'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('ను', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('కూ', 'U'), ('డ', '|'), ('గ', '|'), ('జా', 'U'), ('లు', '|'), ('మో', 'U'), ('హ', '|'), ('నాం', 'U'), ('గి', '|'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('న', '|'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కు', '|'), ('బ', '|'), ('లు', '|'), ('మీ', 'U'), ('రు', '|'), ('గె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('యా', 'U'), ('నం', 'U'), ('గ', '|'), ('ని', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('క్షి', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('పై', 'U'), ('జ', 'U'), ('ల్లి', '|'), ('శై', 'U'), ('త్యో', 'U'), ('ప', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('సే', 'U'), ('యు', '|'), ('నా', 'U'), ('జ', '|'), ('ల', '|'), ('జ', '|'), ('పా', 'U'), ('ణి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన నా యింతి వగలెన్నగా దరంబె | సరససద్గుణజాల యా సన్నుతాంగిచాల నిను గోరియున్నది జాలమేల | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>గాన నా యింతి వగలెన్నగా దరంబె | సరససద్గుణజాల యా సన్నుతాంగిచాల నిను గోరియున్నది జాలమేల | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('నా', 'U'), ('యిం', 'U'), ('తి', '|'), ('వ', '|'), ('గ', '|'), ('లె', 'U'), ('న్న', '|'), ('గా', 'U'), ('ద', '|'), ('రం', 'U'), ('బె', '|'), ('స', '|'), ('ర', '|'), ('స', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('జా', 'U'), ('ల', '|'), ('యా', 'U'), ('స', 'U'), ('న్ను', '|'), ('తాం', 'U'), ('గి', '|'), ('చా', 'U'), ('ల', '|'), ('ని', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('జా', 'U'), ('ల', '|'), ('మే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కళలంటి సొక్కించగలయట్టి నిను బాయజాలరా యని రాల సాగి మ్రొక్కునా సామి నా దొర నా మనోహర యని జిగి బిగికౌఁగిట జేర్చి కొసరునిను గానకుండిన నిమిషంబు నా యెద జాలి బొందునటంచు చాల వెఱచుతగ నిను గూడని తరుణి యవ్వనమెల్ల నడవిగాచిన వెన్నెలనుచు బలుకు</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>కళలంటి సొక్కించగలయట్టి నిను బాయజాలరా యని రాల సాగి మ్రొక్కునా సామి నా దొర నా మనోహర యని జిగి బిగికౌఁగిట జేర్చి కొసరునిను గానకుండిన నిమిషంబు నా యెద జాలి బొందునటంచు చాల వెఱచుతగ నిను గూడని తరుణి యవ్వనమెల్ల నడవిగాచిన వెన్నెలనుచు బలుకు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ళ', '|'), ('లం', 'U'), ('టి', '|'), ('సొ', 'U'), ('క్కిం', 'U'), ('చ', '|'), ('గ', '|'), ('ల', '|'), ('య', 'U'), ('ట్టి', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('రా', 'U'), ('ల', '|'), ('సా', 'U'), ('గి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('నా', 'U'), ('సా', 'U'), ('మి', '|'), ('నా', 'U'), ('దొ', '|'), ('ర', '|'), ('నా', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('య', '|'), ('ని', '|'), ('జి', '|'), ('గి', '|'), ('బి', '|'), ('గి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్చి', '|'), ('కొ', '|'), ('స', '|'), ('రు', '|'), ('ని', '|'), ('ను', '|'), ('గా', 'U'), ('న', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('ని', '|'), ('మి', '|'), ('షం', 'U'), ('బు', '|'), ('నా', 'U'), ('యె', '|'), ('ద', '|'), ('జా', 'U'), ('లి', '|'), ('బొం', 'U'), ('దు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('చా', 'U'), ('ల', '|'), ('వె', '|'), ('ఱ', '|'), ('చు', '|'), ('త', '|'), ('గ', '|'), ('ని', '|'), ('ను', '|'), ('గూ', 'U'), ('డ', '|'), ('ని', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('య', 'U'), ('వ్వ', '|'), ('న', '|'), ('మె', 'U'), ('ల్ల', '|'), ('న', '|'), ('డ', '|'), ('వి', '|'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దమకమున నిన్ను వలపింపదగినయట్టి | కొమ్మ ముద్దులగుమ్మయా కోమలాంగినెనయదగు నీకు నా యింతి నేలుకొమ్ము | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>దమకమున నిన్ను వలపింపదగినయట్టి | కొమ్మ ముద్దులగుమ్మయా కోమలాంగినెనయదగు నీకు నా యింతి నేలుకొమ్ము | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('మ', '|'), ('క', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('వ', '|'), ('ల', '|'), ('పిం', 'U'), ('ప', '|'), ('ద', '|'), ('గి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ల', '|'), ('గు', 'U'), ('మ్మ', '|'), ('యా', 'U'), ('కో', 'U'), ('మ', '|'), ('లాం', 'U'), ('గి', '|'), ('నె', '|'), ('న', '|'), ('య', '|'), ('ద', '|'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('నా', 'U'), ('యిం', 'U'), ('తి', '|'), ('నే', 'U'), ('లు', '|'), ('కొ', 'U'), ('మ్ము', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తలవాకిలిల్లుగా దన ప్రాణనాథుని రాక కెదురుచూచు రాజవదనవచ్చిన దన విభు గ్రుచ్చి కౌఁగిట జేర్చి మచ్చికతో బల్కు మందయానమజ్జన మొనరించి మంచిగంధము మేన నలది వేడ్క యొనర్చు నబ్జపాణిపళ్లెరమిడి చాల బసయైన కూరలు రతిరసాన్నము పెట్టు కుసుమగంధి</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>తలవాకిలిల్లుగా దన ప్రాణనాథుని రాక కెదురుచూచు రాజవదనవచ్చిన దన విభు గ్రుచ్చి కౌఁగిట జేర్చి మచ్చికతో బల్కు మందయానమజ్జన మొనరించి మంచిగంధము మేన నలది వేడ్క యొనర్చు నబ్జపాణిపళ్లెరమిడి చాల బసయైన కూరలు రతిరసాన్నము పెట్టు కుసుమగంధి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('వా', 'U'), ('కి', '|'), ('లి', 'U'), ('ల్లు', '|'), ('గా', 'U'), ('ద', '|'), ('న', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('రా', 'U'), ('క', '|'), ('కె', '|'), ('దు', '|'), ('రు', '|'), ('చూ', 'U'), ('చు', '|'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('ద', '|'), ('న', '|'), ('వి', '|'), ('భు', 'U'), ('గ్రు', 'U'), ('చ్చి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్చి', '|'), ('మ', 'U'), ('చ్చి', '|'), ('క', '|'), ('తో', 'U'), ('బ', 'U'), ('ల్కు', '|'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('మ', 'U'), ('జ్జ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('మం', 'U'), ('చి', '|'), ('గం', 'U'), ('ధ', '|'), ('ము', '|'), ('మే', 'U'), ('న', '|'), ('న', '|'), ('ల', '|'), ('ది', '|'), ('వే', 'U'), ('డ్క', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('న', 'U'), ('బ్జ', '|'), ('పా', 'U'), ('ణి', '|'), ('ప', 'U'), ('ళ్లె', '|'), ('ర', '|'), ('మి', '|'), ('డి', '|'), ('చా', 'U'), ('ల', '|'), ('బ', '|'), ('స', '|'), ('యై', 'U'), ('న', '|'), ('కూ', 'U'), ('ర', '|'), ('లు', '|'), ('ర', '|'), ('తి', '|'), ('ర', '|'), ('సా', 'U'), ('న్న', '|'), ('ము', '|'), ('పె', 'U'), ('ట్టు', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('గం', 'U'), ('ధి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యొనర భుజింప బ్రాణేశు నుపచరించు | సురటి చేబూని విసరును సొంపుమీరనింపు బుట్టించు నా బాల నేలవేల | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>యొనర భుజింప బ్రాణేశు నుపచరించు | సురటి చేబూని విసరును సొంపుమీరనింపు బుట్టించు నా బాల నేలవేల | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('యొ', '|'), ('న', '|'), ('ర', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', 'U'), ('బ్రా', 'U'), ('ణే', 'U'), ('శు', '|'), ('ను', '|'), ('ప', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('సు', '|'), ('ర', '|'), ('టి', '|'), ('చే', 'U'), ('బూ', 'U'), ('ని', '|'), ('వి', '|'), ('స', '|'), ('రు', '|'), ('ను', '|'), ('సొం', 'U'), ('పు', '|'), ('మీ', 'U'), ('ర', '|'), ('నిం', 'U'), ('పు', '|'), ('బు', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('నా', 'U'), ('బా', 'U'), ('ల', '|'), ('నే', 'U'), ('ల', '|'), ('వే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పగడంపుగోడల బంగారుపట్టెల చప్పరంబొప్పు మంచం బమర్చిక్రొత్త తాప్తా దూదిమెత్తపైన పరంజిజరి తలగడదిండ్లు చక్కబరచిపరిమళద్రవ్యముల్ పన్నీరుగంధంబు రత్నాలగిన్నెను జతను పరచియరవిరిబంతులు మరువంబు కురువేరు నపరంజితట్టల నమరజేర్చి</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>పగడంపుగోడల బంగారుపట్టెల చప్పరంబొప్పు మంచం బమర్చిక్రొత్త తాప్తా దూదిమెత్తపైన పరంజిజరి తలగడదిండ్లు చక్కబరచిపరిమళద్రవ్యముల్ పన్నీరుగంధంబు రత్నాలగిన్నెను జతను పరచియరవిరిబంతులు మరువంబు కురువేరు నపరంజితట్టల నమరజేర్చి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('గ', '|'), ('డం', 'U'), ('పు', '|'), ('గో', 'U'), ('డ', '|'), ('ల', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('ప', 'U'), ('ట్టె', '|'), ('ల', '|'), ('చ', 'U'), ('ప్ప', '|'), ('రం', 'U'), ('బొ', 'U'), ('ప్పు', '|'), ('మం', 'U'), ('చం', 'U'), ('బ', '|'), ('మ', 'U'), ('ర్చి', 'U'), ('క్రొ', 'U'), ('త్త', '|'), ('తా', 'U'), ('ప్తా', 'U'), ('దూ', 'U'), ('ది', '|'), ('మె', 'U'), ('త్త', '|'), ('పై', 'U'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('జ', '|'), ('రి', '|'), ('త', '|'), ('ల', '|'), ('గ', '|'), ('డ', '|'), ('దిం', 'U'), ('డ్లు', '|'), ('చ', 'U'), ('క్క', '|'), ('బ', '|'), ('ర', '|'), ('చి', '|'), ('ప', '|'), ('రి', '|'), ('మ', '|'), ('ళ', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('ముల్', 'U'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('ర', 'U'), ('త్నా', 'U'), ('ల', '|'), ('గి', 'U'), ('న్నె', '|'), ('ను', '|'), ('జ', '|'), ('త', '|'), ('ను', '|'), ('ప', '|'), ('ర', '|'), ('చి', '|'), ('య', '|'), ('ర', '|'), ('వి', '|'), ('రి', '|'), ('బం', 'U'), ('తు', '|'), ('లు', '|'), ('మ', '|'), ('రు', '|'), ('వం', 'U'), ('బు', '|'), ('కు', '|'), ('రు', '|'), ('వే', 'U'), ('రు', '|'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('త', 'U'), ('ట్ట', '|'), ('ల', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('జే', 'U'), ('ర్చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యతివ దన కేళిగృహము నలంకరించి | విభుని దోడ్కొని రమ్మని వెలది వనిచెపాన్పుపై నిన్ను గూడ నా పద్మగంధి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>యతివ దన కేళిగృహము నలంకరించి | విభుని దోడ్కొని రమ్మని వెలది వనిచెపాన్పుపై నిన్ను గూడ నా పద్మగంధి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('తి', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('కే', 'U'), ('ళి', '|'), ('గృ', '|'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('లం', 'U'), ('క', '|'), ('రిం', 'U'), ('చి', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('దో', 'U'), ('డ్కొ', '|'), ('ని', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('వ', '|'), ('ని', '|'), ('చె', '|'), ('పా', 'U'), ('న్పు', '|'), ('పై', 'U'), ('ని', 'U'), ('న్ను', '|'), ('గూ', 'U'), ('డ', '|'), ('నా', 'U'), ('ప', 'U'), ('ద్మ', '|'), ('గం', 'U'), ('ధి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నాథునికడ జేరి నాతి వాక్చాతురి బల్కగా విభు డతిపరవశమునమొనసి చక్కెరమోవి మునిపంట నొక్కిన నసురుసురను లేచి యలరుబోడియెవరైన జూచెద రిదివేళ గాదని తలుపుచాటున జేరి తమకముననుజులుము సేయక నీకు జోహారు జేసెద దాళరా యిక కొంత దడవటంచు</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>నాథునికడ జేరి నాతి వాక్చాతురి బల్కగా విభు డతిపరవశమునమొనసి చక్కెరమోవి మునిపంట నొక్కిన నసురుసురను లేచి యలరుబోడియెవరైన జూచెద రిదివేళ గాదని తలుపుచాటున జేరి తమకముననుజులుము సేయక నీకు జోహారు జేసెద దాళరా యిక కొంత దడవటంచు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('థు', '|'), ('ని', '|'), ('క', '|'), ('డ', '|'), ('జే', 'U'), ('రి', '|'), ('నా', 'U'), ('తి', '|'), ('వా', 'U'), ('క్చా', 'U'), ('తు', '|'), ('రి', '|'), ('బ', 'U'), ('ల్క', '|'), ('గా', 'U'), ('వి', '|'), ('భు', '|'), ('డ', '|'), ('తి', '|'), ('ప', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('మో', 'U'), ('వి', '|'), ('ము', '|'), ('ని', '|'), ('పం', 'U'), ('ట', '|'), ('నొ', 'U'), ('క్కి', '|'), ('న', '|'), ('న', '|'), ('సు', '|'), ('రు', '|'), ('సు', '|'), ('ర', '|'), ('ను', '|'), ('లే', 'U'), ('చి', '|'), ('య', '|'), ('ల', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|'), ('యె', '|'), ('వ', '|'), ('రై', 'U'), ('న', '|'), ('జూ', 'U'), ('చె', '|'), ('ద', '|'), ('రి', '|'), ('ది', '|'), ('వే', 'U'), ('ళ', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('త', '|'), ('లు', '|'), ('పు', '|'), ('చా', 'U'), ('టు', '|'), ('న', '|'), ('జే', 'U'), ('రి', '|'), ('త', '|'), ('మ', '|'), ('క', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('జు', '|'), ('లు', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('నీ', 'U'), ('కు', '|'), ('జో', 'U'), ('హా', 'U'), ('రు', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('దా', 'U'), ('ళ', '|'), ('రా', 'U'), ('యి', '|'), ('క', '|'), ('కొం', 'U'), ('త', '|'), ('ద', '|'), ('డ', '|'), ('వ', '|'), ('టం', 'U'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బతికి సతి మోహమొనరించి పణతి తెలిసి కినిసి క్షణమున రతిదేలి కీరవాణిమగని మతి జరగించు నా మందగమన | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>బతికి సతి మోహమొనరించి పణతి తెలిసి కినిసి క్షణమున రతిదేలి కీరవాణిమగని మతి జరగించు నా మందగమన | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('తి', '|'), ('కి', '|'), ('స', '|'), ('తి', '|'), ('మో', 'U'), ('హ', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('ప', '|'), ('ణ', '|'), ('తి', '|'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('కి', '|'), ('ని', '|'), ('సి', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('ర', '|'), ('తి', '|'), ('దే', 'U'), ('లి', '|'), ('కీ', 'U'), ('ర', '|'), ('వా', 'U'), ('ణి', '|'), ('మ', '|'), ('గ', '|'), ('ని', '|'), ('మ', '|'), ('తి', '|'), ('జ', '|'), ('ర', '|'), ('గిం', 'U'), ('చు', '|'), ('నా', 'U'), ('మం', 'U'), ('ద', '|'), ('గ', '|'), ('మ', '|'), ('న', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నెమ్మదిగా భర్త నెనరుంచవలెనని పొలతి పున్నమ యొక్కప్రొద్దులుండుమమత బాయక పతి మందిరంబుననుండ మరుమంత్రజపము లేమరక సేయునన్యకాంతల విభు డాసింపకుండగా శివు నభిషేకంబు చేయుచుండుమగడు దన మాటకు నూరాడకుండగా జెలి వినాయకపూజ సేయుచుండు</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>నెమ్మదిగా భర్త నెనరుంచవలెనని పొలతి పున్నమ యొక్కప్రొద్దులుండుమమత బాయక పతి మందిరంబుననుండ మరుమంత్రజపము లేమరక సేయునన్యకాంతల విభు డాసింపకుండగా శివు నభిషేకంబు చేయుచుండుమగడు దన మాటకు నూరాడకుండగా జెలి వినాయకపూజ సేయుచుండు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('నె', 'U'), ('మ్మ', '|'), ('ది', '|'), ('గా', 'U'), ('భ', 'U'), ('ర్త', '|'), ('నె', '|'), ('న', '|'), ('రుం', 'U'), ('చ', '|'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('ని', '|'), ('పొ', '|'), ('ల', '|'), ('తి', '|'), ('పు', 'U'), ('న్న', '|'), ('మ', '|'), ('యొ', 'U'), ('క్క', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('లుం', 'U'), ('డు', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('ప', '|'), ('తి', '|'), ('మం', 'U'), ('ది', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డ', '|'), ('మ', '|'), ('రు', '|'), ('మం', 'U'), ('త్ర', '|'), ('జ', '|'), ('ప', '|'), ('ము', '|'), ('లే', 'U'), ('మ', '|'), ('ర', '|'), ('క', '|'), ('సే', 'U'), ('యు', '|'), ('న', 'U'), ('న్య', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('వి', '|'), ('భు', '|'), ('డా', 'U'), ('సిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('డ', '|'), ('గా', 'U'), ('శి', '|'), ('వు', '|'), ('న', '|'), ('భి', '|'), ('షే', 'U'), ('కం', 'U'), ('బు', '|'), ('చే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('మ', '|'), ('గ', '|'), ('డు', '|'), ('ద', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('కు', '|'), ('నూ', 'U'), ('రా', 'U'), ('డ', '|'), ('కుం', 'U'), ('డ', '|'), ('గా', 'U'), ('జె', '|'), ('లి', '|'), ('వి', '|'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('పూ', 'U'), ('జ', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బడతి యీ రీతి దేవతాప్రార్థనంబు | చేయుచున్నది మీ పాదసేవకొరకు... ... ... ... ... ... ... ... ... ... ... ... ... | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>బడతి యీ రీతి దేవతాప్రార్థనంబు | చేయుచున్నది మీ పాదసేవకొరకు... ... ... ... ... ... ... ... ... ... ... ... ... | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('డ', '|'), ('తి', '|'), ('యీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('ప్రా', 'U'), ('ర్థ', '|'), ('నం', 'U'), ('బు', '|'), ('చే', 'U'), ('యు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('మీ', 'U'), ('పా', 'U'), ('ద', '|'), ('సే', 'U'), ('వ', '|'), ('కొ', '|'), ('ర', '|'), ('కు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఆసించి తన పతి ననుకూలపరచిన భాసురాంగికి నిత్తు బన్నసరులుకూరిమి వరుని గూర్చగల్గినయట్టి ముద్దియకిత్తు నే ముత్తియములుపనిపూని విభుని నా భవనంబు జేర్చిన వనితకిత్తును మేటివజ్రతతులుకరుణించి తన భర్త గలయఁ జేసినయట్టి భామకిత్తును జౌలబావిలీలు</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ఆసించి తన పతి ననుకూలపరచిన భాసురాంగికి నిత్తు బన్నసరులుకూరిమి వరుని గూర్చగల్గినయట్టి ముద్దియకిత్తు నే ముత్తియములుపనిపూని విభుని నా భవనంబు జేర్చిన వనితకిత్తును మేటివజ్రతతులుకరుణించి తన భర్త గలయఁ జేసినయట్టి భామకిత్తును జౌలబావిలీలు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('సిం', 'U'), ('చి', '|'), ('త', '|'), ('న', '|'), ('ప', '|'), ('తి', '|'), ('న', '|'), ('ను', '|'), ('కూ', 'U'), ('ల', '|'), ('ప', '|'), ('ర', '|'), ('చి', '|'), ('న', '|'), ('భా', 'U'), ('సు', '|'), ('రాం', 'U'), ('గి', '|'), ('కి', '|'), ('ని', 'U'), ('త్తు', '|'), ('బ', 'U'), ('న్న', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('వ', '|'), ('రు', '|'), ('ని', '|'), ('గూ', 'U'), ('ర్చ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('ము', 'U'), ('ద్ది', '|'), ('య', '|'), ('కి', 'U'), ('త్తు', '|'), ('నే', 'U'), ('ము', 'U'), ('త్తి', '|'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('ప', '|'), ('ని', '|'), ('పూ', 'U'), ('ని', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('నా', 'U'), ('భ', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('జే', 'U'), ('ర్చి', '|'), ('న', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('కి', 'U'), ('త్తు', '|'), ('ను', '|'), ('మే', 'U'), ('టి', '|'), ('వ', 'U'), ('జ్ర', '|'), ('త', '|'), ('తు', '|'), ('లు', '|'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('చి', '|'), ('త', '|'), ('న', '|'), ('భ', 'U'), ('ర్త', '|'), ('గ', '|'), ('ల', '|'), ('య', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('మ', '|'), ('కి', 'U'), ('త్తు', '|'), ('ను', '|'), ('జౌ', 'U'), ('ల', '|'), ('బా', 'U'), ('వి', '|'), ('లీ', 'U'), ('లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అనుచు దగినట్టి చెలులతో నలరుబోడి | బలుకుచున్నది యతిమోహపరవశతనుగాన నా యింతి నేలుము కమలనాభ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>అనుచు దగినట్టి చెలులతో నలరుబోడి | బలుకుచున్నది యతిమోహపరవశతనుగాన నా యింతి నేలుము కమలనాభ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ను', '|'), ('చు', '|'), ('ద', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('య', '|'), ('తి', '|'), ('మో', 'U'), ('హ', '|'), ('ప', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('త', '|'), ('ను', '|'), ('గా', 'U'), ('న', '|'), ('నా', 'U'), ('యిం', 'U'), ('తి', '|'), ('నే', 'U'), ('లు', '|'), ('ము', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చల్లని పన్నీరుచల్లి నాథునితోడ సరసంబులాడుచు చాల మెచ్చియించుక నీ దయ యుంచరా నా సామి యంచు చక్కెరమోవి యాననిచ్చియెదయెద గదియించి వదలక బిగియించి ముదమున జెక్కిళ్ళు ముద్దుబెట్టిసమరతి యుపరతి చతురత వగలను సదయునితో నొక్కజాము పెనగి</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>చల్లని పన్నీరుచల్లి నాథునితోడ సరసంబులాడుచు చాల మెచ్చియించుక నీ దయ యుంచరా నా సామి యంచు చక్కెరమోవి యాననిచ్చియెదయెద గదియించి వదలక బిగియించి ముదమున జెక్కిళ్ళు ముద్దుబెట్టిసమరతి యుపరతి చతురత వగలను సదయునితో నొక్కజాము పెనగి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('చ', 'U'), ('ల్లి', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('తో', 'U'), ('డ', '|'), ('స', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('చా', 'U'), ('ల', '|'), ('మె', 'U'), ('చ్చి', '|'), ('యిం', 'U'), ('చు', '|'), ('క', '|'), ('నీ', 'U'), ('ద', '|'), ('య', '|'), ('యుం', 'U'), ('చ', '|'), ('రా', 'U'), ('నా', 'U'), ('సా', 'U'), ('మి', '|'), ('యం', 'U'), ('చు', '|'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('మో', 'U'), ('వి', '|'), ('యా', 'U'), ('న', '|'), ('ని', 'U'), ('చ్చి', '|'), ('యె', '|'), ('ద', '|'), ('యె', '|'), ('ద', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('బి', '|'), ('గి', '|'), ('యిం', 'U'), ('చి', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('జె', 'U'), ('క్కి', 'U'), ('ళ్ళు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('స', '|'), ('మ', '|'), ('ర', '|'), ('తి', '|'), ('యు', '|'), ('ప', '|'), ('ర', '|'), ('తి', '|'), ('చ', '|'), ('తు', '|'), ('ర', '|'), ('త', '|'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('ను', '|'), ('స', '|'), ('ద', '|'), ('యు', '|'), ('ని', '|'), ('తో', 'U'), ('నొ', 'U'), ('క్క', '|'), ('జా', 'U'), ('ము', '|'), ('పె', '|'), ('న', '|'), ('గి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యవుర శాబాసు నా సామి యనుచు బొగడి | మరలి రతిగూడి విభునకు మమత హెచ్చదమిని గల్పించినటువంటి తరుణి గదర | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>యవుర శాబాసు నా సామి యనుచు బొగడి | మరలి రతిగూడి విభునకు మమత హెచ్చదమిని గల్పించినటువంటి తరుణి గదర | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('వు', '|'), ('ర', '|'), ('శా', 'U'), ('బా', 'U'), ('సు', '|'), ('నా', 'U'), ('సా', 'U'), ('మి', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('బొ', '|'), ('గ', '|'), ('డి', '|'), ('మ', '|'), ('ర', '|'), ('లి', '|'), ('ర', '|'), ('తి', '|'), ('గూ', 'U'), ('డి', '|'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కు', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('హె', 'U'), ('చ్చ', '|'), ('ద', '|'), ('మి', '|'), ('ని', '|'), ('గ', 'U'), ('ల్పిం', 'U'), ('చి', '|'), ('న', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పతియింట లేనప్డు భ్రమరమా యిట రాక తగునటే యని లేచి తరమబోవుసద్దుజేయక నుండజాలవె కోయిల వేళ గాదని కేల వ్రేయబోవుమచ్చరంబున నేడు మరుడు దండెత్తెనో చెలులార పొమ్మని జెప్పుడనునునిలువుటద్దమునందు నెలకొన్నవాడని తెరవ చందురుని మర్దింపబోవు</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>పతియింట లేనప్డు భ్రమరమా యిట రాక తగునటే యని లేచి తరమబోవుసద్దుజేయక నుండజాలవె కోయిల వేళ గాదని కేల వ్రేయబోవుమచ్చరంబున నేడు మరుడు దండెత్తెనో చెలులార పొమ్మని జెప్పుడనునునిలువుటద్దమునందు నెలకొన్నవాడని తెరవ చందురుని మర్దింపబోవు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('యిం', 'U'), ('ట', '|'), ('లే', 'U'), ('న', 'U'), ('ప్డు', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('మా', 'U'), ('యి', '|'), ('ట', '|'), ('రా', 'U'), ('క', '|'), ('త', '|'), ('గు', '|'), ('న', '|'), ('టే', 'U'), ('య', '|'), ('ని', '|'), ('లే', 'U'), ('చి', '|'), ('త', '|'), ('ర', '|'), ('మ', '|'), ('బో', 'U'), ('వు', '|'), ('స', 'U'), ('ద్దు', '|'), ('జే', 'U'), ('య', '|'), ('క', '|'), ('నుం', 'U'), ('డ', '|'), ('జా', 'U'), ('ల', '|'), ('వె', '|'), ('కో', 'U'), ('యి', '|'), ('ల', '|'), ('వే', 'U'), ('ళ', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('కే', 'U'), ('ల', 'U'), ('వ్రే', 'U'), ('య', '|'), ('బో', 'U'), ('వు', '|'), ('మ', 'U'), ('చ్చ', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('డు', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('దం', 'U'), ('డె', 'U'), ('త్తె', '|'), ('నో', 'U'), ('చె', '|'), ('లు', '|'), ('లా', 'U'), ('ర', '|'), ('పొ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('జె', 'U'), ('ప్పు', '|'), ('డ', '|'), ('ను', '|'), ('ను', '|'), ('ని', '|'), ('లు', '|'), ('వు', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('నె', '|'), ('ల', '|'), ('కొ', 'U'), ('న్న', '|'), ('వా', 'U'), ('డ', '|'), ('ని', '|'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('ని', '|'), ('మ', '|'), ('ర్దిం', 'U'), ('ప', '|'), ('బో', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మగువ యీ రీతి విరహాబ్ధిమగ్న యగుచు | తలిరువిలుకాని బారికి తాళలేకనిన్నె దలచుచునున్నది నీరజాక్షి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>మగువ యీ రీతి విరహాబ్ధిమగ్న యగుచు | తలిరువిలుకాని బారికి తాళలేకనిన్నె దలచుచునున్నది నీరజాక్షి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('గు', '|'), ('వ', '|'), ('యీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('బ్ధి', '|'), ('మ', 'U'), ('గ్న', '|'), ('య', '|'), ('గు', '|'), ('చు', '|'), ('త', '|'), ('లి', '|'), ('రు', '|'), ('వి', '|'), ('లు', '|'), ('కా', 'U'), ('ని', '|'), ('బా', 'U'), ('రి', '|'), ('కి', '|'), ('తా', 'U'), ('ళ', '|'), ('లే', 'U'), ('క', '|'), ('ని', 'U'), ('న్నె', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('ది', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్షి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తుమ్మెద రొదసేయ తొడరిన తోడనె తెమ్మెర వీచెనే తెరవలారతెమ్మెర వీచెనే తెరగింక ననుచుండ గ్రమ్మె చిల్కలగముల్ కాంతలారచిలుకలగము లేల చేరెనో యనుచుండ జెలగి కోయిల గూసె జెలియలారకోయల లీరీతి గూసెనేమొకొ యని భావింప మరుడదె భామలార</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>తుమ్మెద రొదసేయ తొడరిన తోడనె తెమ్మెర వీచెనే తెరవలారతెమ్మెర వీచెనే తెరగింక ననుచుండ గ్రమ్మె చిల్కలగముల్ కాంతలారచిలుకలగము లేల చేరెనో యనుచుండ జెలగి కోయిల గూసె జెలియలారకోయల లీరీతి గూసెనేమొకొ యని భావింప మరుడదె భామలార</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('తు', 'U'), ('మ్మె', '|'), ('ద', '|'), ('రొ', '|'), ('ద', '|'), ('సే', 'U'), ('య', '|'), ('తొ', '|'), ('డ', '|'), ('రి', '|'), ('న', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('వీ', 'U'), ('చె', '|'), ('నే', 'U'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('లా', 'U'), ('ర', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('వీ', 'U'), ('చె', '|'), ('నే', 'U'), ('తె', '|'), ('ర', '|'), ('గిం', 'U'), ('క', '|'), ('న', '|'), ('ను', '|'), ('చుం', 'U'), ('డ', 'U'), ('గ్ర', 'U'), ('మ్మె', '|'), ('చి', 'U'), ('ల్క', '|'), ('ల', '|'), ('గ', '|'), ('ముల్', 'U'), ('కాం', 'U'), ('త', '|'), ('లా', 'U'), ('ర', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('ల', '|'), ('గ', '|'), ('ము', '|'), ('లే', 'U'), ('ల', '|'), ('చే', 'U'), ('రె', '|'), ('నో', 'U'), ('య', '|'), ('ను', '|'), ('చుం', 'U'), ('డ', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('కో', 'U'), ('యి', '|'), ('ల', '|'), ('గూ', 'U'), ('సె', '|'), ('జె', '|'), ('లి', '|'), ('య', '|'), ('లా', 'U'), ('ర', '|'), ('కో', 'U'), ('య', '|'), ('ల', '|'), ('లీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('గూ', 'U'), ('సె', '|'), ('నే', 'U'), ('మొ', '|'), ('కొ', '|'), ('య', '|'), ('ని', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('మ', '|'), ('రు', '|'), ('డ', '|'), ('దె', '|'), ('భా', 'U'), ('మ', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చెరుకవిలు వంచి యటపొంచి చేవమించి | పదరి యెద నాటనేసెనే పణతి యనుచుబలుకుచున్నది వలపున భ్రమసి మిగుల | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>చెరుకవిలు వంచి యటపొంచి చేవమించి | పదరి యెద నాటనేసెనే పణతి యనుచుబలుకుచున్నది వలపున భ్రమసి మిగుల | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('రు', '|'), ('క', '|'), ('వి', '|'), ('లు', '|'), ('వం', 'U'), ('చి', '|'), ('య', '|'), ('ట', '|'), ('పొం', 'U'), ('చి', '|'), ('చే', 'U'), ('వ', '|'), ('మిం', 'U'), ('చి', '|'), ('ప', '|'), ('ద', '|'), ('రి', '|'), ('యె', '|'), ('ద', '|'), ('నా', 'U'), ('ట', '|'), ('నే', 'U'), ('సె', '|'), ('నే', 'U'), ('ప', '|'), ('ణ', '|'), ('తి', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('న', 'U'), ('భ్ర', '|'), ('మ', '|'), ('సి', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>దాడాయె మరుడిదే వేడాయె వెన్నెల వాడాయెనే విరుల్ వనితలారచెలువ తెమ్మెర డాయ నళులు జుమ్మని మ్రోయ జిలుకలు రొదసేయ జెలియలారవిరహమగ్గలమాయె వెఱపొందగానాయె సరసుడు రాడాయె సఖులారనను జేరవచ్చునా వనజాక్షి మెచ్చునా మనసిచ్చి కూడునా మగువలార</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>దాడాయె మరుడిదే వేడాయె వెన్నెల వాడాయెనే విరుల్ వనితలారచెలువ తెమ్మెర డాయ నళులు జుమ్మని మ్రోయ జిలుకలు రొదసేయ జెలియలారవిరహమగ్గలమాయె వెఱపొందగానాయె సరసుడు రాడాయె సఖులారనను జేరవచ్చునా వనజాక్షి మెచ్చునా మనసిచ్చి కూడునా మగువలార</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('డా', 'U'), ('యె', '|'), ('మ', '|'), ('రు', '|'), ('డి', '|'), ('దే', 'U'), ('వే', 'U'), ('డా', 'U'), ('యె', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('వా', 'U'), ('డా', 'U'), ('యె', '|'), ('నే', 'U'), ('వి', '|'), ('రుల్', 'U'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('లా', 'U'), ('ర', '|'), ('చె', '|'), ('లు', '|'), ('వ', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('డా', 'U'), ('య', '|'), ('న', '|'), ('ళు', '|'), ('లు', '|'), ('జు', 'U'), ('మ్మ', '|'), ('ని', '|'), ('మ్రో', 'U'), ('య', '|'), ('జి', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('రొ', '|'), ('ద', '|'), ('సే', 'U'), ('య', '|'), ('జె', '|'), ('లి', '|'), ('య', '|'), ('లా', 'U'), ('ర', '|'), ('వి', '|'), ('ర', '|'), ('హ', '|'), ('మ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('మా', 'U'), ('యె', '|'), ('వె', '|'), ('ఱ', '|'), ('పొం', 'U'), ('ద', '|'), ('గా', 'U'), ('నా', 'U'), ('యె', '|'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('డు', '|'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('స', '|'), ('ఖు', '|'), ('లా', 'U'), ('ర', '|'), ('న', '|'), ('ను', '|'), ('జే', 'U'), ('ర', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('మె', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('కూ', 'U'), ('డు', '|'), ('నా', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనుచు దనలోనె తలపోసి యతివ నీదు | రాక గోరుచునున్నది రవ్వలేలగాననిక నేలుకొనవయ్య కరుణగల్గి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>యనుచు దనలోనె తలపోసి యతివ నీదు | రాక గోరుచునున్నది రవ్వలేలగాననిక నేలుకొనవయ్య కరుణగల్గి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('ద', '|'), ('న', '|'), ('లో', 'U'), ('నె', '|'), ('త', '|'), ('ల', '|'), ('పో', 'U'), ('సి', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('నీ', 'U'), ('దు', '|'), ('రా', 'U'), ('క', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('ది', '|'), ('ర', 'U'), ('వ్వ', '|'), ('లే', 'U'), ('ల', '|'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('క', '|'), ('నే', 'U'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('వ', 'U'), ('య్య', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>సుదతి వెన్నెలపిండు జూచిన కడు తాపమందును జూడరాదనుచు బల్కువిరులు దురుమగరాదు వెలదిరో యతనుని శరజాలములటంచు చేరి పల్కుగంధ మలదగరాదు గంధవాహుండల్గి యదర వీవగ వేడియనుచు బల్కునిటు దలపోయుచున్నది యింతి మరుని దాడికిని వెఱచి నిను మది దలచితలచి</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>సుదతి వెన్నెలపిండు జూచిన కడు తాపమందును జూడరాదనుచు బల్కువిరులు దురుమగరాదు వెలదిరో యతనుని శరజాలములటంచు చేరి పల్కుగంధ మలదగరాదు గంధవాహుండల్గి యదర వీవగ వేడియనుచు బల్కునిటు దలపోయుచున్నది యింతి మరుని దాడికిని వెఱచి నిను మది దలచితలచి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ద', '|'), ('తి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('పిం', 'U'), ('డు', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('క', '|'), ('డు', '|'), ('తా', 'U'), ('ప', '|'), ('మం', 'U'), ('దు', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('రా', 'U'), ('ద', '|'), ('ను', '|'), ('చు', '|'), ('బ', 'U'), ('ల్కు', '|'), ('వి', '|'), ('రు', '|'), ('లు', '|'), ('దు', '|'), ('రు', '|'), ('మ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('రో', 'U'), ('య', '|'), ('త', '|'), ('ను', '|'), ('ని', '|'), ('శ', '|'), ('ర', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('చే', 'U'), ('రి', '|'), ('ప', 'U'), ('ల్కు', '|'), ('గం', 'U'), ('ధ', '|'), ('మ', '|'), ('ల', '|'), ('ద', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('గం', 'U'), ('ధ', '|'), ('వా', 'U'), ('హుం', 'U'), ('డ', 'U'), ('ల్గి', '|'), ('య', '|'), ('ద', '|'), ('ర', '|'), ('వీ', 'U'), ('వ', '|'), ('గ', '|'), ('వే', 'U'), ('డి', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('బ', 'U'), ('ల్కు', '|'), ('ని', '|'), ('టు', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('యు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('యిం', 'U'), ('తి', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('దా', 'U'), ('డి', '|'), ('కి', '|'), ('ని', '|'), ('వె', '|'), ('ఱ', '|'), ('చి', '|'), ('ని', '|'), ('ను', '|'), ('మ', '|'), ('ది', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('త', '|'), ('ల', '|'), ('చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>... ... ... ...యట్టి విరిబోడి నేలుట యర్హమగును | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>... ... ... ...యట్టి విరిబోడి నేలుట యర్హమగును | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('య', 'U'), ('ట్టి', '|'), ('వి', '|'), ('రి', '|'), ('బో', 'U'), ('డి', '|'), ('నే', 'U'), ('లు', '|'), ('ట', '|'), ('య', 'U'), ('ర్హ', '|'), ('మ', '|'), ('గు', '|'), ('ను', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తీరైన మృగనాభి తిలకంబు ధరియించి కనుల కాటుక దీర్చి గరిమ మీరనగరుగంధము మేన నలది కొప్పున దావి పొలివోని పువ్వులు పొందుపరచివన్నెమీరగ సన్నవలిపెపై పన్నీరుచల్లి ఘమ్మనుచు వాసన చెలంగకుంకుమ యత్తరు గోరజవ్వాదియు బొంకమౌ పాలిండ్ల బూసె నీదు</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>తీరైన మృగనాభి తిలకంబు ధరియించి కనుల కాటుక దీర్చి గరిమ మీరనగరుగంధము మేన నలది కొప్పున దావి పొలివోని పువ్వులు పొందుపరచివన్నెమీరగ సన్నవలిపెపై పన్నీరుచల్లి ఘమ్మనుచు వాసన చెలంగకుంకుమ యత్తరు గోరజవ్వాదియు బొంకమౌ పాలిండ్ల బూసె నీదు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('తీ', 'U'), ('రై', 'U'), ('న', '|'), ('మృ', '|'), ('గ', '|'), ('నా', 'U'), ('భి', '|'), ('తి', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('క', '|'), ('ను', '|'), ('ల', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('మీ', 'U'), ('ర', '|'), ('న', '|'), ('గ', '|'), ('రు', '|'), ('గం', 'U'), ('ధ', '|'), ('ము', '|'), ('మే', 'U'), ('న', '|'), ('న', '|'), ('ల', '|'), ('ది', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('న', '|'), ('దా', 'U'), ('వి', '|'), ('పొ', '|'), ('లి', '|'), ('వో', 'U'), ('ని', '|'), ('పు', 'U'), ('వ్వు', '|'), ('లు', '|'), ('పొం', 'U'), ('దు', '|'), ('ప', '|'), ('ర', '|'), ('చి', '|'), ('వ', 'U'), ('న్నె', '|'), ('మీ', 'U'), ('ర', '|'), ('గ', '|'), ('స', 'U'), ('న్న', '|'), ('వ', '|'), ('లి', '|'), ('పె', '|'), ('పై', 'U'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('చ', 'U'), ('ల్లి', '|'), ('ఘ', 'U'), ('మ్మ', '|'), ('ను', '|'), ('చు', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('కుం', 'U'), ('కు', '|'), ('మ', '|'), ('య', 'U'), ('త్త', '|'), ('రు', '|'), ('గో', 'U'), ('ర', '|'), ('జ', 'U'), ('వ్వా', 'U'), ('ది', '|'), ('యు', '|'), ('బొం', 'U'), ('క', '|'), ('మౌ', 'U'), ('పా', 'U'), ('లిం', 'U'), ('డ్ల', '|'), ('బూ', 'U'), ('సె', '|'), ('నీ', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వక్షమున గుబ్బగురుతులు వనిత సేయ | గోరి యున్నది యిక నేలుకొనుము దానిజాగుసేయక రావయ్య జలరుహాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>వక్షమున గుబ్బగురుతులు వనిత సేయ | గోరి యున్నది యిక నేలుకొనుము దానిజాగుసేయక రావయ్య జలరుహాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('గు', 'U'), ('బ్బ', '|'), ('గు', '|'), ('రు', '|'), ('తు', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('సే', 'U'), ('య', '|'), ('గో', 'U'), ('రి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('యి', '|'), ('క', '|'), ('నే', 'U'), ('లు', '|'), ('కొ', '|'), ('ను', '|'), ('ము', '|'), ('దా', 'U'), ('ని', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('జ', '|'), ('ల', '|'), ('రు', '|'), ('హా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నిను జూచినది మొదల్ నిదుర కంటికి రాక మనమున దిగులొంది మరులు వరలవిరహ మగ్గలమాయె విభుడేల రాడాయె బిలువవే యని నన్ను బిలిచి పనిచెననబోడి మాటలు విని నేను గ్రక్కున నిను బిల్వ వచ్చితి నిలువకెందునిక జాగుసేయక శుకవాణికడ జేరి యకలంకముగ నేలు మంబుజాక్షి</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>నిను జూచినది మొదల్ నిదుర కంటికి రాక మనమున దిగులొంది మరులు వరలవిరహ మగ్గలమాయె విభుడేల రాడాయె బిలువవే యని నన్ను బిలిచి పనిచెననబోడి మాటలు విని నేను గ్రక్కున నిను బిల్వ వచ్చితి నిలువకెందునిక జాగుసేయక శుకవాణికడ జేరి యకలంకముగ నేలు మంబుజాక్షి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('ది', '|'), ('మొ', '|'), ('దల్', 'U'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('కం', 'U'), ('టి', '|'), ('కి', '|'), ('రా', 'U'), ('క', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('ది', '|'), ('గు', '|'), ('లొం', 'U'), ('ది', '|'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('వ', '|'), ('ర', '|'), ('ల', '|'), ('వి', '|'), ('ర', '|'), ('హ', '|'), ('మ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('మా', 'U'), ('యె', '|'), ('వి', '|'), ('భు', '|'), ('డే', 'U'), ('ల', '|'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('వే', 'U'), ('య', '|'), ('ని', '|'), ('న', 'U'), ('న్ను', '|'), ('బి', '|'), ('లి', '|'), ('చి', '|'), ('ప', '|'), ('ని', '|'), ('చె', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('డి', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('వి', '|'), ('ని', '|'), ('నే', 'U'), ('ను', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('కెం', 'U'), ('దు', '|'), ('ని', '|'), ('క', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('క', '|'), ('డ', '|'), ('జే', 'U'), ('రి', '|'), ('య', '|'), ('క', '|'), ('లం', 'U'), ('క', '|'), ('ము', '|'), ('గ', '|'), ('నే', 'U'), ('లు', '|'), ('మం', 'U'), ('బు', '|'), ('జా', 'U'), ('క్షి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గడగి నీవింక రాకున్న గంబుకంఠి ప్రాణములు నిల్వనోపవు పడతి విరుల-దండ లురిబోసుకొన నది దలచునింక | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>గడగి నీవింక రాకున్న గంబుకంఠి ప్రాణములు నిల్వనోపవు పడతి విరుల-దండ లురిబోసుకొన నది దలచునింక | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('డ', '|'), ('గి', '|'), ('నీ', 'U'), ('విం', 'U'), ('క', '|'), ('రా', 'U'), ('కు', 'U'), ('న్న', '|'), ('గం', 'U'), ('బు', '|'), ('కం', 'U'), ('ఠి', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('ల్వ', '|'), ('నో', 'U'), ('ప', '|'), ('వు', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('వి', '|'), ('రు', '|'), ('ల', '|'), ('దం', 'U'), ('డ', '|'), ('లు', '|'), ('రి', '|'), ('బో', 'U'), ('సు', '|'), ('కొ', '|'), ('న', '|'), ('న', '|'), ('ది', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('నిం', 'U'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఇంతిరో విభుడు నా చెంత జేరినయంత నునుచెక్కులను గోట నులుమనటవెకాంతరో నా భర్త కౌఁగిలించిన యెంత చక్కని కెమ్మోవి నొక్కనటవెమందయానరో నాథుడంది చన్గవ నంట కొసరి నా జడతోడ గొట్టనటవెకొమ్మరో పతిరతి గూడ నా గుబ్బల ఱొమ్మున గసిదీర గ్రుమ్మనటవె</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ఇంతిరో విభుడు నా చెంత జేరినయంత నునుచెక్కులను గోట నులుమనటవెకాంతరో నా భర్త కౌఁగిలించిన యెంత చక్కని కెమ్మోవి నొక్కనటవెమందయానరో నాథుడంది చన్గవ నంట కొసరి నా జడతోడ గొట్టనటవెకొమ్మరో పతిరతి గూడ నా గుబ్బల ఱొమ్మున గసిదీర గ్రుమ్మనటవె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('ఇం', 'U'), ('తి', '|'), ('రో', 'U'), ('వి', '|'), ('భు', '|'), ('డు', '|'), ('నా', 'U'), ('చెం', 'U'), ('త', '|'), ('జే', 'U'), ('రి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('ను', '|'), ('ను', '|'), ('చె', 'U'), ('క్కు', '|'), ('ల', '|'), ('ను', '|'), ('గో', 'U'), ('ట', '|'), ('ను', '|'), ('లు', '|'), ('మ', '|'), ('న', '|'), ('ట', '|'), ('వె', '|'), ('కాం', 'U'), ('త', '|'), ('రో', 'U'), ('నా', 'U'), ('భ', 'U'), ('ర్త', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చి', '|'), ('న', '|'), ('యెం', 'U'), ('త', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నొ', 'U'), ('క్క', '|'), ('న', '|'), ('ట', '|'), ('వె', '|'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('రో', 'U'), ('నా', 'U'), ('థు', '|'), ('డం', 'U'), ('ది', '|'), ('చ', 'U'), ('న్గ', '|'), ('వ', '|'), ('నం', 'U'), ('ట', '|'), ('కొ', '|'), ('స', '|'), ('రి', '|'), ('నా', 'U'), ('జ', '|'), ('డ', '|'), ('తో', 'U'), ('డ', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('న', '|'), ('ట', '|'), ('వె', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('రో', 'U'), ('ప', '|'), ('తి', '|'), ('ర', '|'), ('తి', '|'), ('గూ', 'U'), ('డ', '|'), ('నా', 'U'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ఱొ', 'U'), ('మ్ము', '|'), ('న', '|'), ('గ', '|'), ('సి', '|'), ('దీ', 'U'), ('ర', 'U'), ('గ్రు', 'U'), ('మ్మ', '|'), ('న', '|'), ('ట', '|'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనుచు బంతంబులాడుచు నలిరుబోడి | మరునికేళిని నిముషమేమరక కలిసినిన్నె మెప్పించనున్నది నీలవేణి | మదనగోపాల సత్యభామావిలోలా!</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>యనుచు బంతంబులాడుచు నలిరుబోడి | మరునికేళిని నిముషమేమరక కలిసినిన్నె మెప్పించనున్నది నీలవేణి | మదనగోపాల సత్యభామావిలోలా!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('బం', 'U'), ('తం', 'U'), ('బు', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('న', '|'), ('లి', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('కే', 'U'), ('ళి', '|'), ('ని', '|'), ('ని', '|'), ('ము', '|'), ('ష', '|'), ('మే', 'U'), ('మ', '|'), ('ర', '|'), ('క', '|'), ('క', '|'), ('లి', '|'), ('సి', '|'), ('ని', 'U'), ('న్నె', '|'), ('మె', 'U'), ('ప్పిం', 'U'), ('చ', '|'), ('ను', 'U'), ('న్న', '|'), ('ది', '|'), ('నీ', 'U'), ('ల', '|'), ('వే', 'U'), ('ణి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('లా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>సురతచమత్క్రియల్ సూపించిచూపించి మేలిమి నీ పొందు మెచ్చిమెచ్చిమోము మోమున జేర్చి ముద్దాడిముద్దాడి గొసబులియ్యని మోవి గ్రోలి గ్రోలిగబ్బిగుబ్బల నెద గదియించిగదియించి బిగువు కౌఁగిళ్ళను బెనగిపెనగిమరుకేళి గవయగ మనసిచ్చి మనసిచ్చి గౌరవంబు చెలంగగలసికలసి</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>సురతచమత్క్రియల్ సూపించిచూపించి మేలిమి నీ పొందు మెచ్చిమెచ్చిమోము మోమున జేర్చి ముద్దాడిముద్దాడి గొసబులియ్యని మోవి గ్రోలి గ్రోలిగబ్బిగుబ్బల నెద గదియించిగదియించి బిగువు కౌఁగిళ్ళను బెనగిపెనగిమరుకేళి గవయగ మనసిచ్చి మనసిచ్చి గౌరవంబు చెలంగగలసికలసి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ర', '|'), ('త', '|'), ('చ', '|'), ('మ', 'U'), ('త్క్రి', '|'), ('యల్', 'U'), ('సూ', 'U'), ('పిం', 'U'), ('చి', '|'), ('చూ', 'U'), ('పిం', 'U'), ('చి', '|'), ('మే', 'U'), ('లి', '|'), ('మి', '|'), ('నీ', 'U'), ('పొం', 'U'), ('దు', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మో', 'U'), ('ము', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('ర్చి', '|'), ('ము', 'U'), ('ద్దా', 'U'), ('డి', '|'), ('ము', 'U'), ('ద్దా', 'U'), ('డి', '|'), ('గొ', '|'), ('స', '|'), ('బు', '|'), ('లి', 'U'), ('య్య', '|'), ('ని', '|'), ('మో', 'U'), ('వి', 'U'), ('గ్రో', 'U'), ('లి', 'U'), ('గ్రో', 'U'), ('లి', '|'), ('గ', 'U'), ('బ్బి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('నె', '|'), ('ద', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('బి', '|'), ('గు', '|'), ('వు', '|'), ('కౌ', 'U'), ('గి', 'U'), ('ళ్ళ', '|'), ('ను', '|'), ('బె', '|'), ('న', '|'), ('గి', '|'), ('పె', '|'), ('న', '|'), ('గి', '|'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('గ', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('గౌ', 'U'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('క', '|'), ('ల', '|'), ('సి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మాటిమాటికి దన మేను మరచిమరచి తమక మిగురొత్త రతికేలి తగ పెనంగువనిత నేలుట తగునయ్య వనరుహాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>మాటిమాటికి దన మేను మరచిమరచి తమక మిగురొత్త రతికేలి తగ పెనంగువనిత నేలుట తగునయ్య వనరుహాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('టి', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('ద', '|'), ('న', '|'), ('మే', 'U'), ('ను', '|'), ('మ', '|'), ('ర', '|'), ('చి', '|'), ('మ', '|'), ('ర', '|'), ('చి', '|'), ('త', '|'), ('మ', '|'), ('క', '|'), ('మి', '|'), ('గు', '|'), ('రొ', 'U'), ('త్త', '|'), ('ర', '|'), ('తి', '|'), ('కే', 'U'), ('లి', '|'), ('త', '|'), ('గ', '|'), ('పె', '|'), ('నం', 'U'), ('గు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('నే', 'U'), ('లు', '|'), ('ట', '|'), ('త', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('వ', '|'), ('న', '|'), ('రు', '|'), ('హా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>విభుడు పైకొనువేళ వెలది సంతసమంది గబ్బిగుబ్బలచేత గదియనిచ్చిదురుసుగా మరుకేళి దొడరిన నాథుని దప్పక వీక్షించి తరుణి తనదుచెలువుని మోమున చెమట గ్రమ్మిన జూచి విరులవీవన చేత విసరి వేడ్కనేడు మంచిదినంబు నెనరున ననుగూడి హాయి వుట్టించితి వంబుజాక్ష</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>విభుడు పైకొనువేళ వెలది సంతసమంది గబ్బిగుబ్బలచేత గదియనిచ్చిదురుసుగా మరుకేళి దొడరిన నాథుని దప్పక వీక్షించి తరుణి తనదుచెలువుని మోమున చెమట గ్రమ్మిన జూచి విరులవీవన చేత విసరి వేడ్కనేడు మంచిదినంబు నెనరున ననుగూడి హాయి వుట్టించితి వంబుజాక్ష</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('భు', '|'), ('డు', '|'), ('పై', 'U'), ('కొ', '|'), ('ను', '|'), ('వే', 'U'), ('ళ', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('మం', 'U'), ('ది', '|'), ('గ', 'U'), ('బ్బి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('గ', '|'), ('ది', '|'), ('య', '|'), ('ని', 'U'), ('చ్చి', '|'), ('దు', '|'), ('రు', '|'), ('సు', '|'), ('గా', 'U'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('దొ', '|'), ('డ', '|'), ('రి', '|'), ('న', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('ద', 'U'), ('ప్ప', '|'), ('క', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('త', '|'), ('న', '|'), ('దు', '|'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('ని', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('చె', '|'), ('మ', '|'), ('ట', 'U'), ('గ్ర', 'U'), ('మ్మి', '|'), ('న', '|'), ('జూ', 'U'), ('చి', '|'), ('వి', '|'), ('రు', '|'), ('ల', '|'), ('వీ', 'U'), ('వ', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('వి', '|'), ('స', '|'), ('రి', '|'), ('వే', 'U'), ('డ్క', '|'), ('నే', 'U'), ('డు', '|'), ('మం', 'U'), ('చి', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('న', '|'), ('న', '|'), ('ను', '|'), ('గూ', 'U'), ('డి', '|'), ('హా', 'U'), ('యి', '|'), ('వు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('తి', '|'), ('వం', 'U'), ('బు', '|'), ('జా', 'U'), ('క్ష', '|')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనుచు నను జాల మెప్పించు నతివ నిట్లు | బాసి యుండగ దగునయ్య పడతి నీదురాక గోరుచునున్నది రవ్వలేల | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>యనుచు నను జాల మెప్పించు నతివ నిట్లు | బాసి యుండగ దగునయ్య పడతి నీదురాక గోరుచునున్నది రవ్వలేల | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('న', '|'), ('ను', '|'), ('జా', 'U'), ('ల', '|'), ('మె', 'U'), ('ప్పిం', 'U'), ('చు', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('ని', 'U'), ('ట్లు', '|'), ('బా', 'U'), ('సి', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('ద', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('నీ', 'U'), ('దు', '|'), ('రా', 'U'), ('క', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('ది', '|'), ('ర', 'U'), ('వ్వ', '|'), ('లే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>సుదతి దా దశవిధచుంబనగతులను దన భర్తకును దెల్పు దావులరయగుచయుగంబులు నాభి గొనబైన కెమ్మోవి హస్తముల్ చెక్కులు మస్తకంబుకక్షంబు నుదురును కంఠంబు మరునిల్లు వదలక పదిచోట్ల ముదము మీరకరికరలీలల గావించి నఖముల ముద్దులాడగ గొంత మొనయవలయు</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>సుదతి దా దశవిధచుంబనగతులను దన భర్తకును దెల్పు దావులరయగుచయుగంబులు నాభి గొనబైన కెమ్మోవి హస్తముల్ చెక్కులు మస్తకంబుకక్షంబు నుదురును కంఠంబు మరునిల్లు వదలక పదిచోట్ల ముదము మీరకరికరలీలల గావించి నఖముల ముద్దులాడగ గొంత మొనయవలయు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ద', '|'), ('తి', '|'), ('దా', 'U'), ('ద', '|'), ('శ', '|'), ('వి', '|'), ('ధ', '|'), ('చుం', 'U'), ('బ', '|'), ('న', '|'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('ద', '|'), ('న', '|'), ('భ', 'U'), ('ర్త', '|'), ('కు', '|'), ('ను', '|'), ('దె', 'U'), ('ల్పు', '|'), ('దా', 'U'), ('వు', '|'), ('ల', '|'), ('ర', '|'), ('య', '|'), ('గు', '|'), ('చ', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('భి', '|'), ('గొ', '|'), ('న', '|'), ('బై', 'U'), ('న', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('హ', 'U'), ('స్త', '|'), ('ముల్', 'U'), ('చె', 'U'), ('క్కు', '|'), ('లు', '|'), ('మ', 'U'), ('స్త', '|'), ('కం', 'U'), ('బు', '|'), ('క', 'U'), ('క్షం', 'U'), ('బు', '|'), ('ను', '|'), ('దు', '|'), ('రు', '|'), ('ను', '|'), ('కం', 'U'), ('ఠం', 'U'), ('బు', '|'), ('మ', '|'), ('రు', '|'), ('ని', 'U'), ('ల్లు', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('ప', '|'), ('ది', '|'), ('చో', 'U'), ('ట్ల', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('మీ', 'U'), ('ర', '|'), ('క', '|'), ('రి', '|'), ('క', '|'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('ఖ', '|'), ('ము', '|'), ('ల', '|'), ('ము', 'U'), ('ద్దు', '|'), ('లా', 'U'), ('డ', '|'), ('గ', '|'), ('గొం', 'U'), ('త', '|'), ('మొ', '|'), ('న', '|'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ననుచు జుంబనవిధముల నన్ని వగల | దెల్ప వలపింపదగినట్టి తెరవ నిపుడుగలసి యేలుట దగునయ్య కామజనక | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ననుచు జుంబనవిధముల నన్ని వగల | దెల్ప వలపింపదగినట్టి తెరవ నిపుడుగలసి యేలుట దగునయ్య కామజనక | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('చు', '|'), ('జుం', 'U'), ('బ', '|'), ('న', '|'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('ల', '|'), ('న', 'U'), ('న్ని', '|'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('దె', 'U'), ('ల్ప', '|'), ('వ', '|'), ('ల', '|'), ('పిం', 'U'), ('ప', '|'), ('ద', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('ని', '|'), ('పు', '|'), ('డు', '|'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('యే', 'U'), ('లు', '|'), ('ట', '|'), ('ద', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('కా', 'U'), ('మ', '|'), ('జ', '|'), ('న', '|'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఎవతె బోధించెనో సవతి బెట్టిన మందు తలకెక్కె గాబోలు తరుణులారపలుమారు చెలులను బంపిన నిటురాక పంతమేలనె నాతో భామలారమ్రొక్కి వేడితినని ముదితలు దెల్పగా నక్కరలేదనె నమ్మలారవనజాక్షి మగవారి వలపులు సతమనగూడునా తెల్పరే కొమ్మలార</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ఎవతె బోధించెనో సవతి బెట్టిన మందు తలకెక్కె గాబోలు తరుణులారపలుమారు చెలులను బంపిన నిటురాక పంతమేలనె నాతో భామలారమ్రొక్కి వేడితినని ముదితలు దెల్పగా నక్కరలేదనె నమ్మలారవనజాక్షి మగవారి వలపులు సతమనగూడునా తెల్పరే కొమ్మలార</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('వ', '|'), ('తె', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చె', '|'), ('నో', 'U'), ('స', '|'), ('వ', '|'), ('తి', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('త', '|'), ('ల', '|'), ('కె', 'U'), ('క్కె', '|'), ('గా', 'U'), ('బో', 'U'), ('లు', '|'), ('త', '|'), ('రు', '|'), ('ణు', '|'), ('లా', 'U'), ('ర', '|'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|'), ('ను', '|'), ('బం', 'U'), ('పి', '|'), ('న', '|'), ('ని', '|'), ('టు', '|'), ('రా', 'U'), ('క', '|'), ('పం', 'U'), ('త', '|'), ('మే', 'U'), ('ల', '|'), ('నె', '|'), ('నా', 'U'), ('తో', 'U'), ('భా', 'U'), ('మ', '|'), ('లా', 'U'), ('ర', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('వే', 'U'), ('డి', '|'), ('తి', '|'), ('న', '|'), ('ని', '|'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('లు', '|'), ('దె', 'U'), ('ల్ప', '|'), ('గా', 'U'), ('న', 'U'), ('క్క', '|'), ('ర', '|'), ('లే', 'U'), ('ద', '|'), ('నె', '|'), ('న', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('మ', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('లు', '|'), ('స', '|'), ('త', '|'), ('మ', '|'), ('న', '|'), ('గూ', 'U'), ('డు', '|'), ('నా', 'U'), ('తె', 'U'), ('ల్ప', '|'), ('రే', 'U'), ('కొ', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనుచు బలుమారు చెలులతో నాడికొనుచు | మోహసాగరమున మున్గి ముదిత నీదుకరుణ యను తెప్ప గోరెడి కమలనయన | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>యనుచు బలుమారు చెలులతో నాడికొనుచు | మోహసాగరమున మున్గి ముదిత నీదుకరుణ యను తెప్ప గోరెడి కమలనయన | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|'), ('తో', 'U'), ('నా', 'U'), ('డి', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('మో', 'U'), ('హ', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('ము', 'U'), ('న్గి', '|'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('య', '|'), ('ను', '|'), ('తె', 'U'), ('ప్ప', '|'), ('గో', 'U'), ('రె', '|'), ('డి', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చిత్తజుకేళికి హత్తెనా వగలాడి యత్తరుగంధంబు యలదినట్లుగుత్తంపుగుబ్బల గ్రుమ్మెనా విరిబోడి మెత్తనిపూచెండ్ల మెరమినట్లుచిత్తంబు నొకటిగా జేర్చెనా యలివేణి నిత్యసంపదలచే నెగడినట్లుపొత్తున భుజియింపబూనెనా శుకవాణి కొంత తేనియ జున్ను గ్రోలినటుల</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>చిత్తజుకేళికి హత్తెనా వగలాడి యత్తరుగంధంబు యలదినట్లుగుత్తంపుగుబ్బల గ్రుమ్మెనా విరిబోడి మెత్తనిపూచెండ్ల మెరమినట్లుచిత్తంబు నొకటిగా జేర్చెనా యలివేణి నిత్యసంపదలచే నెగడినట్లుపొత్తున భుజియింపబూనెనా శుకవాణి కొంత తేనియ జున్ను గ్రోలినటుల</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('చి', 'U'), ('త్త', '|'), ('జు', '|'), ('కే', 'U'), ('ళి', '|'), ('కి', '|'), ('హ', 'U'), ('త్తె', '|'), ('నా', 'U'), ('వ', '|'), ('గ', '|'), ('లా', 'U'), ('డి', '|'), ('య', 'U'), ('త్త', '|'), ('రు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('య', '|'), ('ల', '|'), ('ది', '|'), ('న', 'U'), ('ట్లు', '|'), ('గు', 'U'), ('త్తం', 'U'), ('పు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', 'U'), ('గ్రు', 'U'), ('మ్మె', '|'), ('నా', 'U'), ('వి', '|'), ('రి', '|'), ('బో', 'U'), ('డి', '|'), ('మె', 'U'), ('త్త', '|'), ('ని', '|'), ('పూ', 'U'), ('చెం', 'U'), ('డ్ల', '|'), ('మె', '|'), ('ర', '|'), ('మి', '|'), ('న', 'U'), ('ట్లు', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నొ', '|'), ('క', '|'), ('టి', '|'), ('గా', 'U'), ('జే', 'U'), ('ర్చె', '|'), ('నా', 'U'), ('య', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('ని', 'U'), ('త్య', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('చే', 'U'), ('నె', '|'), ('గ', '|'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('పొ', 'U'), ('త్తు', '|'), ('న', '|'), ('భు', '|'), ('జి', '|'), ('యిం', 'U'), ('ప', '|'), ('బూ', 'U'), ('నె', '|'), ('నా', 'U'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('కొం', 'U'), ('త', '|'), ('తే', 'U'), ('ని', '|'), ('య', '|'), ('జు', 'U'), ('న్ను', 'U'), ('గ్రో', 'U'), ('లి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నుండు గదరోరి యా యింతినొనర గూడ | దగుర యిక జాగుసేయుట దగదు నీకువెలది నను బంచె నిను బిల్వ వేగ రమ్మి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>నుండు గదరోరి యా యింతినొనర గూడ | దగుర యిక జాగుసేయుట దగదు నీకువెలది నను బంచె నిను బిల్వ వేగ రమ్మి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('నుం', 'U'), ('డు', '|'), ('గ', '|'), ('ద', '|'), ('రో', 'U'), ('రి', '|'), ('యా', 'U'), ('యిం', 'U'), ('తి', '|'), ('నొ', '|'), ('న', '|'), ('ర', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', '|'), ('గు', '|'), ('ర', '|'), ('యి', '|'), ('క', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('ద', '|'), ('గ', '|'), ('దు', '|'), ('నీ', 'U'), ('కు', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('న', '|'), ('ను', '|'), ('బం', 'U'), ('చె', '|'), ('ని', '|'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('వే', 'U'), ('గ', '|'), ('ర', 'U'), ('మ్మి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నిను బాసినది మొదల్ నీరజాతాక్షికి నాహారనిద్ర లేదాయె గదరతలపున నిను చాల దలచి వేమారును బరితాపమును జెంది పలుకు గదరయెప్పుడు నను బాయడేమొకో రాడాయెనని తన చెలులతో నాడు గదరచలమూని నా ముద్దుసామి రాడని చాల భయమంది నిను బిల్వబంచె గదర</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>నిను బాసినది మొదల్ నీరజాతాక్షికి నాహారనిద్ర లేదాయె గదరతలపున నిను చాల దలచి వేమారును బరితాపమును జెంది పలుకు గదరయెప్పుడు నను బాయడేమొకో రాడాయెనని తన చెలులతో నాడు గదరచలమూని నా ముద్దుసామి రాడని చాల భయమంది నిను బిల్వబంచె గదర</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('బా', 'U'), ('సి', '|'), ('న', '|'), ('ది', '|'), ('మొ', '|'), ('దల్', 'U'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('తా', 'U'), ('క్షి', '|'), ('కి', '|'), ('నా', 'U'), ('హా', 'U'), ('ర', '|'), ('ని', '|'), ('ద్ర', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('చా', 'U'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('ను', '|'), ('బ', '|'), ('రి', '|'), ('తా', 'U'), ('ప', '|'), ('ము', '|'), ('ను', '|'), ('జెం', 'U'), ('ది', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('యె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('డే', 'U'), ('మొ', '|'), ('కో', 'U'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('న', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|'), ('తో', 'U'), ('నా', 'U'), ('డు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('చ', '|'), ('ల', '|'), ('మూ', 'U'), ('ని', '|'), ('నా', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('సా', 'U'), ('మి', '|'), ('రా', 'U'), ('డ', '|'), ('ని', '|'), ('చా', 'U'), ('ల', '|'), ('భ', '|'), ('య', '|'), ('మం', 'U'), ('ది', '|'), ('ని', '|'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('బం', 'U'), ('చె', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కాన నిటకేగుదెంచితి గారవమున చాన నేలుట తగునయ్య జాగువలదునిన్నె మదిగోరి యున్నది నీలవేణి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>కాన నిటకేగుదెంచితి గారవమున చాన నేలుట తగునయ్య జాగువలదునిన్నె మదిగోరి యున్నది నీలవేణి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('న', '|'), ('ని', '|'), ('ట', '|'), ('కే', 'U'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('తి', '|'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('చా', 'U'), ('న', '|'), ('నే', 'U'), ('లు', '|'), ('ట', '|'), ('త', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('జా', 'U'), ('గు', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('ని', 'U'), ('న్నె', '|'), ('మ', '|'), ('ది', '|'), ('గో', 'U'), ('రి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('నీ', 'U'), ('ల', '|'), ('వే', 'U'), ('ణి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తొలుత ప్రాణేశుని తొడలపై బవళంచి యాసదీరగ ముద్దులాడుకొంచుబ్రాణేశ నిను బాసి ప్రాణముల్ నిలుచునా యని తన కెమ్మోవి యాననిచ్చినలినాక్షి నిను బాయనని బాసలిమ్మని పలుమారు కొసరుచు బడతి విభునిమక్కువతోడను మరుకేళి దేలించి యక్కరతోడ నయ్యలరుబోడి</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>తొలుత ప్రాణేశుని తొడలపై బవళంచి యాసదీరగ ముద్దులాడుకొంచుబ్రాణేశ నిను బాసి ప్రాణముల్ నిలుచునా యని తన కెమ్మోవి యాననిచ్చినలినాక్షి నిను బాయనని బాసలిమ్మని పలుమారు కొసరుచు బడతి విభునిమక్కువతోడను మరుకేళి దేలించి యక్కరతోడ నయ్యలరుబోడి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('తొ', '|'), ('లు', '|'), ('త', 'U'), ('ప్రా', 'U'), ('ణే', 'U'), ('శు', '|'), ('ని', '|'), ('తొ', '|'), ('డ', '|'), ('ల', '|'), ('పై', 'U'), ('బ', '|'), ('వ', '|'), ('ళం', 'U'), ('చి', '|'), ('యా', 'U'), ('స', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('లా', 'U'), ('డు', '|'), ('కొం', 'U'), ('చు', 'U'), ('బ్రా', 'U'), ('ణే', 'U'), ('శ', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('సి', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('ని', '|'), ('లు', '|'), ('చు', '|'), ('నా', 'U'), ('య', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('యా', 'U'), ('న', '|'), ('ని', 'U'), ('చ్చి', '|'), ('న', '|'), ('లి', '|'), ('నా', 'U'), ('క్షి', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('న', '|'), ('ని', '|'), ('బా', 'U'), ('స', '|'), ('లి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('కొ', '|'), ('స', '|'), ('రు', '|'), ('చు', '|'), ('బ', '|'), ('డ', '|'), ('తి', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('దే', 'U'), ('లిం', 'U'), ('చి', '|'), ('య', 'U'), ('క్క', '|'), ('ర', '|'), ('తో', 'U'), ('డ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పాలువెన్నయు మీగడ పంచదార | కొమ్మనుచు వేగ భర్తకు గ్రోలనిచ్చిహాయి పుట్టించునటువంటి యతివ గదర | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>పాలువెన్నయు మీగడ పంచదార | కొమ్మనుచు వేగ భర్తకు గ్రోలనిచ్చిహాయి పుట్టించునటువంటి యతివ గదర | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('లు', '|'), ('వె', 'U'), ('న్న', '|'), ('యు', '|'), ('మీ', 'U'), ('గ', '|'), ('డ', '|'), ('పం', 'U'), ('చ', '|'), ('దా', 'U'), ('ర', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ను', '|'), ('చు', '|'), ('వే', 'U'), ('గ', '|'), ('భ', 'U'), ('ర్త', '|'), ('కు', 'U'), ('గ్రో', 'U'), ('ల', '|'), ('ని', 'U'), ('చ్చి', '|'), ('హా', 'U'), ('యి', '|'), ('పు', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('న', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పలుమరు మేల్‍జరీ పైటకొంగున గట్టివలపు నిల్పగలేనె వనిత యనుచుజెలరేగి నీ ముద్దుజెక్కులపై నొక్కి ముద్దుబెట్టనియవె ముదితయనుచుకనకాంగి నీ బిగికౌఁగిట నను జేర్చి మనసియ్యరాదటే మగువ యనుచుకొమరొప్ప నీ కుల్కుగుబ్బలపై నాట గోరులుంచగనీవె కొమ్మ యనుచు</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>పలుమరు మేల్‍జరీ పైటకొంగున గట్టివలపు నిల్పగలేనె వనిత యనుచుజెలరేగి నీ ముద్దుజెక్కులపై నొక్కి ముద్దుబెట్టనియవె ముదితయనుచుకనకాంగి నీ బిగికౌఁగిట నను జేర్చి మనసియ్యరాదటే మగువ యనుచుకొమరొప్ప నీ కుల్కుగుబ్బలపై నాట గోరులుంచగనీవె కొమ్మ యనుచు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('మ', '|'), ('రు', '|'), ('మే', 'U'), ('ల్జ', '|'), ('రీ', 'U'), ('పై', 'U'), ('ట', '|'), ('కొం', 'U'), ('గు', '|'), ('న', '|'), ('గ', 'U'), ('ట్టి', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('ని', 'U'), ('ల్ప', '|'), ('గ', '|'), ('లే', 'U'), ('నె', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('జె', '|'), ('ల', '|'), ('రే', 'U'), ('గి', '|'), ('నీ', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('జె', 'U'), ('క్కు', '|'), ('ల', '|'), ('పై', 'U'), ('నొ', 'U'), ('క్కి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('బె', 'U'), ('ట్ట', '|'), ('ని', '|'), ('య', '|'), ('వె', '|'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('క', '|'), ('న', '|'), ('కాం', 'U'), ('గి', '|'), ('నీ', 'U'), ('బి', '|'), ('గి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('న', '|'), ('ను', '|'), ('జే', 'U'), ('ర్చి', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('య్య', '|'), ('రా', 'U'), ('ద', '|'), ('టే', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('కొ', '|'), ('మ', '|'), ('రొ', 'U'), ('ప్ప', '|'), ('నీ', 'U'), ('కు', 'U'), ('ల్కు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('పై', 'U'), ('నా', 'U'), ('ట', '|'), ('గో', 'U'), ('రు', '|'), ('లుం', 'U'), ('చ', '|'), ('గ', '|'), ('నీ', 'U'), ('వె', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('య', '|'), ('ను', '|'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వెలది నను చాల కొసరిన విభుని పొందు | మఱచి యెటులుండవచ్చునే మందయానయనుచు నను బంపె నీకడ కబ్జనాభ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>వెలది నను చాల కొసరిన విభుని పొందు | మఱచి యెటులుండవచ్చునే మందయానయనుచు నను బంపె నీకడ కబ్జనాభ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('ది', '|'), ('న', '|'), ('ను', '|'), ('చా', 'U'), ('ల', '|'), ('కొ', '|'), ('స', '|'), ('రి', '|'), ('న', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('పొం', 'U'), ('దు', '|'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('యె', '|'), ('టు', '|'), ('లుం', 'U'), ('డ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నే', 'U'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('న', '|'), ('ను', '|'), ('బం', 'U'), ('పె', '|'), ('నీ', 'U'), ('క', '|'), ('డ', '|'), ('క', 'U'), ('బ్జ', '|'), ('నా', 'U'), ('భ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ప్రేమతో నా విభు పిలువనంపిన నిందు రాడాయెనేమొకో రామలారసవతులు నాపైన చాడి గావించిరో కానరాకున్నాడు కాంతలారయతివలు నా మనోహరుని రావద్దని యడ్డగించిరొ కదే యమ్మలారమనసిచ్చి యెవతెను మరగియున్నాడకో తెలియదు గదవే యో తెరవలార</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ప్రేమతో నా విభు పిలువనంపిన నిందు రాడాయెనేమొకో రామలారసవతులు నాపైన చాడి గావించిరో కానరాకున్నాడు కాంతలారయతివలు నా మనోహరుని రావద్దని యడ్డగించిరొ కదే యమ్మలారమనసిచ్చి యెవతెను మరగియున్నాడకో తెలియదు గదవే యో తెరవలార</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('ప్రే', 'U'), ('మ', '|'), ('తో', 'U'), ('నా', 'U'), ('వి', '|'), ('భు', '|'), ('పి', '|'), ('లు', '|'), ('వ', '|'), ('నం', 'U'), ('పి', '|'), ('న', '|'), ('నిం', 'U'), ('దు', '|'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('నే', 'U'), ('మొ', '|'), ('కో', 'U'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('ర', '|'), ('స', '|'), ('వ', '|'), ('తు', '|'), ('లు', '|'), ('నా', 'U'), ('పై', 'U'), ('న', '|'), ('చా', 'U'), ('డి', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('రో', 'U'), ('కా', 'U'), ('న', '|'), ('రా', 'U'), ('కు', 'U'), ('న్నా', 'U'), ('డు', '|'), ('కాం', 'U'), ('త', '|'), ('లా', 'U'), ('ర', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('లు', '|'), ('నా', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('రు', '|'), ('ని', '|'), ('రా', 'U'), ('వ', 'U'), ('ద్ద', '|'), ('ని', '|'), ('య', 'U'), ('డ్డ', '|'), ('గిం', 'U'), ('చి', '|'), ('రొ', '|'), ('క', '|'), ('దే', 'U'), ('య', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('యె', '|'), ('వ', '|'), ('తె', '|'), ('ను', '|'), ('మ', '|'), ('ర', '|'), ('గి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('కో', 'U'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('యో', 'U'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనుచు జెలులతొ నెప్పుడా యలరుబోడి | నిన్నె తలచుచునున్నది నీరజాక్షగాన రావయ్య వేగమె కమలనయన | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>యనుచు జెలులతొ నెప్పుడా యలరుబోడి | నిన్నె తలచుచునున్నది నీరజాక్షగాన రావయ్య వేగమె కమలనయన | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('జె', '|'), ('లు', '|'), ('ల', '|'), ('తొ', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డా', 'U'), ('య', '|'), ('ల', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|'), ('ని', 'U'), ('న్నె', '|'), ('త', '|'), ('ల', '|'), ('చు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('ది', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('గా', 'U'), ('న', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('వే', 'U'), ('గ', '|'), ('మె', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తరువు బాసిన తీగె తెరగున విభు బాసి యెటు నిల్వనోపుదు నింతులారననుగైన మొగులు గానని నెమ్మి కైవడి ముచ్చట లేదాయె ముదితలారజలము బాసినయట్టి జలజంబువలె మది సొంపొకించుక లేదె సుదతులారకొమరైన ద్విజరాజు కూరిమి లేనట్టి కుముదంబువలెనాయె కొమ్మలార</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>తరువు బాసిన తీగె తెరగున విభు బాసి యెటు నిల్వనోపుదు నింతులారననుగైన మొగులు గానని నెమ్మి కైవడి ముచ్చట లేదాయె ముదితలారజలము బాసినయట్టి జలజంబువలె మది సొంపొకించుక లేదె సుదతులారకొమరైన ద్విజరాజు కూరిమి లేనట్టి కుముదంబువలెనాయె కొమ్మలార</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('రు', '|'), ('వు', '|'), ('బా', 'U'), ('సి', '|'), ('న', '|'), ('తీ', 'U'), ('గె', '|'), ('తె', '|'), ('ర', '|'), ('గు', '|'), ('న', '|'), ('వి', '|'), ('భు', '|'), ('బా', 'U'), ('సి', '|'), ('యె', '|'), ('టు', '|'), ('ని', 'U'), ('ల్వ', '|'), ('నో', 'U'), ('పు', '|'), ('దు', '|'), ('నిం', 'U'), ('తు', '|'), ('లా', 'U'), ('ర', '|'), ('న', '|'), ('ను', '|'), ('గై', 'U'), ('న', '|'), ('మొ', '|'), ('గు', '|'), ('లు', '|'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('నె', 'U'), ('మ్మి', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('లా', 'U'), ('ర', '|'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('బా', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('జ', '|'), ('ల', '|'), ('జం', 'U'), ('బు', '|'), ('వ', '|'), ('లె', '|'), ('మ', '|'), ('ది', '|'), ('సొం', 'U'), ('పొ', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('లే', 'U'), ('దె', '|'), ('సు', '|'), ('ద', '|'), ('తు', '|'), ('లా', 'U'), ('ర', '|'), ('కొ', '|'), ('మ', '|'), ('రై', 'U'), ('న', 'U'), ('ద్వి', '|'), ('జ', '|'), ('రా', 'U'), ('జు', '|'), ('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('లే', 'U'), ('న', 'U'), ('ట్టి', '|'), ('కు', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('వ', '|'), ('లె', '|'), ('నా', 'U'), ('యె', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన నిక నేటి బ్రతుకని కంబుకంఠి | మదిని దత్తరమొదవ నా మందయానచెలుల నేవేళ జీరుచు చింతనొందు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>గాన నిక నేటి బ్రతుకని కంబుకంఠి | మదిని దత్తరమొదవ నా మందయానచెలుల నేవేళ జీరుచు చింతనొందు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('ని', '|'), ('క', '|'), ('నే', 'U'), ('టి', 'U'), ('బ్ర', '|'), ('తు', '|'), ('క', '|'), ('ని', '|'), ('కం', 'U'), ('బు', '|'), ('కం', 'U'), ('ఠి', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('ద', 'U'), ('త్త', '|'), ('ర', '|'), ('మొ', '|'), ('ద', '|'), ('వ', '|'), ('నా', 'U'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|'), ('నే', 'U'), ('వే', 'U'), ('ళ', '|'), ('జీ', 'U'), ('రు', '|'), ('చు', '|'), ('చిం', 'U'), ('త', '|'), ('నొం', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>గజయాన వగమీర గదిసి నాథుని యెద కులుకుగుబ్బలచేత గ్రుమ్మి వేగబదపడి చేతుల వదలక బిగబట్టి గుదిగాళ్లు వెన్నున గూర్చి వొక్కిమరుకేళి నొకవింత మనసిచ్చి యొక కొంతసేపు హాయిగ రతిచెంది మగనిమదికింపు పుట్టింప సదయుని మెప్పించి సుదతి నాథుని మోము జూచి తమిని</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>గజయాన వగమీర గదిసి నాథుని యెద కులుకుగుబ్బలచేత గ్రుమ్మి వేగబదపడి చేతుల వదలక బిగబట్టి గుదిగాళ్లు వెన్నున గూర్చి వొక్కిమరుకేళి నొకవింత మనసిచ్చి యొక కొంతసేపు హాయిగ రతిచెంది మగనిమదికింపు పుట్టింప సదయుని మెప్పించి సుదతి నాథుని మోము జూచి తమిని</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('జ', '|'), ('యా', 'U'), ('న', '|'), ('వ', '|'), ('గ', '|'), ('మీ', 'U'), ('ర', '|'), ('గ', '|'), ('ది', '|'), ('సి', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('యె', '|'), ('ద', '|'), ('కు', '|'), ('లు', '|'), ('కు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('చే', 'U'), ('త', 'U'), ('గ్రు', 'U'), ('మ్మి', '|'), ('వే', 'U'), ('గ', '|'), ('బ', '|'), ('ద', '|'), ('ప', '|'), ('డి', '|'), ('చే', 'U'), ('తు', '|'), ('ల', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('బి', '|'), ('గ', '|'), ('బ', 'U'), ('ట్టి', '|'), ('గు', '|'), ('ది', '|'), ('గా', 'U'), ('ళ్లు', '|'), ('వె', 'U'), ('న్ను', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('వొ', 'U'), ('క్కి', '|'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('నొ', '|'), ('క', '|'), ('విం', 'U'), ('త', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('యొ', '|'), ('క', '|'), ('కొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('హా', 'U'), ('యి', '|'), ('గ', '|'), ('ర', '|'), ('తి', '|'), ('చెం', 'U'), ('ది', '|'), ('మ', '|'), ('గ', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('కిం', 'U'), ('పు', '|'), ('పు', 'U'), ('ట్టిం', 'U'), ('ప', '|'), ('స', '|'), ('ద', '|'), ('యు', '|'), ('ని', '|'), ('మె', 'U'), ('ప్పిం', 'U'), ('చి', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('మో', 'U'), ('ము', '|'), ('జూ', 'U'), ('చి', '|'), ('త', '|'), ('మి', '|'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యవుర నా సామి విడువకుమనుచు జాల మ్రొక్కి కౌఁగిట జేరిచి ముద్దుబెట్టికొసరి భర్తను లాలించు కోమలాంగి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>యవుర నా సామి విడువకుమనుచు జాల మ్రొక్కి కౌఁగిట జేరిచి ముద్దుబెట్టికొసరి భర్తను లాలించు కోమలాంగి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('వు', '|'), ('ర', '|'), ('నా', 'U'), ('సా', 'U'), ('మి', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('జా', 'U'), ('ల', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('రి', '|'), ('చి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('కొ', '|'), ('స', '|'), ('రి', '|'), ('భ', 'U'), ('ర్త', '|'), ('ను', '|'), ('లా', 'U'), ('లిం', 'U'), ('చు', '|'), ('కో', 'U'), ('మ', '|'), ('లాం', 'U'), ('గి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పల్కున దేనియలొల్కు రాజిల్క నా మదిరాక్షి విభునితో మాటలాడుఠీవి మీరిన మేటిపావురావలె గుల్కి మొనసి నాథునకు కెమ్మోవి యొసగుజిగిమీర గౌగిళ్ల పికిలిపిట్టల భాతి తరుణి నాథుని గూడి తగ బెనంగుశుకవాణి భర్తతో లకుముకి చందాన చెలరేగి యుపరతి సలిపి సొక్కు</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>పల్కున దేనియలొల్కు రాజిల్క నా మదిరాక్షి విభునితో మాటలాడుఠీవి మీరిన మేటిపావురావలె గుల్కి మొనసి నాథునకు కెమ్మోవి యొసగుజిగిమీర గౌగిళ్ల పికిలిపిట్టల భాతి తరుణి నాథుని గూడి తగ బెనంగుశుకవాణి భర్తతో లకుముకి చందాన చెలరేగి యుపరతి సలిపి సొక్కు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ల్కు', '|'), ('న', '|'), ('దే', 'U'), ('ని', '|'), ('య', '|'), ('లొ', 'U'), ('ల్కు', '|'), ('రా', 'U'), ('జి', 'U'), ('ల్క', '|'), ('నా', 'U'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షి', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('తో', 'U'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డు', '|'), ('ఠీ', 'U'), ('వి', '|'), ('మీ', 'U'), ('రి', '|'), ('న', '|'), ('మే', 'U'), ('టి', '|'), ('పా', 'U'), ('వు', '|'), ('రా', 'U'), ('వ', '|'), ('లె', '|'), ('గు', 'U'), ('ల్కి', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('నా', 'U'), ('థు', '|'), ('న', '|'), ('కు', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('యొ', '|'), ('స', '|'), ('గు', '|'), ('జి', '|'), ('గి', '|'), ('మీ', 'U'), ('ర', '|'), ('గౌ', 'U'), ('గి', 'U'), ('ళ్ల', '|'), ('పి', '|'), ('కి', '|'), ('లి', '|'), ('పి', 'U'), ('ట్ట', '|'), ('ల', '|'), ('భా', 'U'), ('తి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('గూ', 'U'), ('డి', '|'), ('త', '|'), ('గ', '|'), ('బె', '|'), ('నం', 'U'), ('గు', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('భ', 'U'), ('ర్త', '|'), ('తో', 'U'), ('ల', '|'), ('కు', '|'), ('ము', '|'), ('కి', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('చె', '|'), ('ల', '|'), ('రే', 'U'), ('గి', '|'), ('యు', '|'), ('ప', '|'), ('ర', '|'), ('తి', '|'), ('స', '|'), ('లి', '|'), ('పి', '|'), ('సొ', 'U'), ('క్కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నహహఈ యింతి వగలెన్న నలవిగాదు | మగువ మరువేదముల కుప్ప మదిని యొప్ప-గోరియున్నది నీ చెల్మి కువలయాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>నహహఈ యింతి వగలెన్న నలవిగాదు | మగువ మరువేదముల కుప్ప మదిని యొప్ప-గోరియున్నది నీ చెల్మి కువలయాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('హ', '|'), ('హ', '|'), ('ఈ', 'U'), ('యిం', 'U'), ('తి', '|'), ('వ', '|'), ('గ', '|'), ('లె', 'U'), ('న్న', '|'), ('న', '|'), ('ల', '|'), ('వి', '|'), ('గా', 'U'), ('దు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('మ', '|'), ('రు', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('ప్ప', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('యొ', 'U'), ('ప్ప', '|'), ('గో', 'U'), ('రి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('నీ', 'U'), ('చె', 'U'), ('ల్మి', '|'), ('కు', '|'), ('వ', '|'), ('ల', '|'), ('యా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>సొగసైన మైనిగ్గు సుదతి సొమ్ముల జగ్గు వెలలేని మణులచే వేడ్కలలరుపగడంపు జిగిడాలు పడతి మోవిని బోలు జూడజూడగ నెంతోచోద్యముగనువిరిబోడి పాలిండ్లు గురులైన పూచెండు నీక్షింపనీక్షింప నెనగు ముదముచెలిహస్తముల బాగు చిగురుటాకుల లాగు గనుగొన నతిమోహకాంక్ష జెందు</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>సొగసైన మైనిగ్గు సుదతి సొమ్ముల జగ్గు వెలలేని మణులచే వేడ్కలలరుపగడంపు జిగిడాలు పడతి మోవిని బోలు జూడజూడగ నెంతోచోద్యముగనువిరిబోడి పాలిండ్లు గురులైన పూచెండు నీక్షింపనీక్షింప నెనగు ముదముచెలిహస్తముల బాగు చిగురుటాకుల లాగు గనుగొన నతిమోహకాంక్ష జెందు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('సొ', '|'), ('గ', '|'), ('సై', 'U'), ('న', '|'), ('మై', 'U'), ('ని', 'U'), ('గ్గు', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('ల', '|'), ('జ', 'U'), ('గ్గు', '|'), ('వె', '|'), ('ల', '|'), ('లే', 'U'), ('ని', '|'), ('మ', '|'), ('ణు', '|'), ('ల', '|'), ('చే', 'U'), ('వే', 'U'), ('డ్క', '|'), ('ల', '|'), ('ల', '|'), ('రు', '|'), ('ప', '|'), ('గ', '|'), ('డం', 'U'), ('పు', '|'), ('జి', '|'), ('గి', '|'), ('డా', 'U'), ('లు', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('మో', 'U'), ('వి', '|'), ('ని', '|'), ('బో', 'U'), ('లు', '|'), ('జూ', 'U'), ('డ', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('నెం', 'U'), ('తో', 'U'), ('చో', 'U'), ('ద్య', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('వి', '|'), ('రి', '|'), ('బో', 'U'), ('డి', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్లు', '|'), ('గు', '|'), ('రు', '|'), ('లై', 'U'), ('న', '|'), ('పూ', 'U'), ('చెం', 'U'), ('డు', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('నె', '|'), ('న', '|'), ('గు', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('చె', '|'), ('లి', '|'), ('హ', 'U'), ('స్త', '|'), ('ము', '|'), ('ల', '|'), ('బా', 'U'), ('గు', '|'), ('చి', '|'), ('గు', '|'), ('రు', '|'), ('టా', 'U'), ('కు', '|'), ('ల', '|'), ('లా', 'U'), ('గు', '|'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('న', '|'), ('న', '|'), ('తి', '|'), ('మో', 'U'), ('హ', '|'), ('కాం', 'U'), ('క్ష', '|'), ('జెం', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిలువనిచ్చునా యొకచోట నిముషమైన | తరుణి నయవినయములచే దగ బెనంగగోరియున్నది రావయ్య కోమలాంగ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>నిలువనిచ్చునా యొకచోట నిముషమైన | తరుణి నయవినయములచే దగ బెనంగగోరియున్నది రావయ్య కోమలాంగ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('లు', '|'), ('వ', '|'), ('ని', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('యొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('ని', '|'), ('ము', '|'), ('ష', '|'), ('మై', 'U'), ('న', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('న', '|'), ('య', '|'), ('వి', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('ల', '|'), ('చే', 'U'), ('ద', '|'), ('గ', '|'), ('బె', '|'), ('నం', 'U'), ('గ', '|'), ('గో', 'U'), ('రి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('కో', 'U'), ('మ', '|'), ('లాం', 'U'), ('గ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పసిడిబుటేదారి పట్టువల్వ ధరించి రాణించు పైఠాణిరవికె దొడిగిబాలచందురువంటి ఫాలభాగంబున దిలకంబు కొనగోర దిద్ది వేగవరుని మృదూక్తుల వలపించి జిగిబిగికౌఁగిట జేర్పును కంబుకంఠిపద్మంబు తావి మై బరగు పద్మినిజాతి కాంతయౌ నది గాన కమలనాభ</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>పసిడిబుటేదారి పట్టువల్వ ధరించి రాణించు పైఠాణిరవికె దొడిగిబాలచందురువంటి ఫాలభాగంబున దిలకంబు కొనగోర దిద్ది వేగవరుని మృదూక్తుల వలపించి జిగిబిగికౌఁగిట జేర్పును కంబుకంఠిపద్మంబు తావి మై బరగు పద్మినిజాతి కాంతయౌ నది గాన కమలనాభ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('సి', '|'), ('డి', '|'), ('బు', '|'), ('టే', 'U'), ('దా', 'U'), ('రి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('వ', 'U'), ('ల్వ', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('రా', 'U'), ('ణిం', 'U'), ('చు', '|'), ('పై', 'U'), ('ఠా', 'U'), ('ణి', '|'), ('ర', '|'), ('వి', '|'), ('కె', '|'), ('దొ', '|'), ('డి', '|'), ('గి', '|'), ('బా', 'U'), ('ల', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('వం', 'U'), ('టి', '|'), ('ఫా', 'U'), ('ల', '|'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('ది', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('కొ', '|'), ('న', '|'), ('గో', 'U'), ('ర', '|'), ('ది', 'U'), ('ద్ది', '|'), ('వే', 'U'), ('గ', '|'), ('వ', '|'), ('రు', '|'), ('ని', '|'), ('మృ', '|'), ('దూ', 'U'), ('క్తు', '|'), ('ల', '|'), ('వ', '|'), ('ల', '|'), ('పిం', 'U'), ('చి', '|'), ('జి', '|'), ('గి', '|'), ('బి', '|'), ('గి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్పు', '|'), ('ను', '|'), ('కం', 'U'), ('బు', '|'), ('కం', 'U'), ('ఠి', '|'), ('ప', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('తా', 'U'), ('వి', '|'), ('మై', 'U'), ('బ', '|'), ('ర', '|'), ('గు', '|'), ('ప', 'U'), ('ద్మి', '|'), ('ని', '|'), ('జా', 'U'), ('తి', '|'), ('కాం', 'U'), ('త', '|'), ('యౌ', 'U'), ('న', '|'), ('ది', '|'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిన్నె మది గోరియున్నది నీలజాక్షి | తామసించక రావయ్య తరుణికడకుభవ్యగుణశీల యీవేళ భక్తపాల | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>నిన్నె మది గోరియున్నది నీలజాక్షి | తామసించక రావయ్య తరుణికడకుభవ్యగుణశీల యీవేళ భక్తపాల | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్నె', '|'), ('మ', '|'), ('ది', '|'), ('గో', 'U'), ('రి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('నీ', 'U'), ('ల', '|'), ('జా', 'U'), ('క్షి', '|'), ('తా', 'U'), ('మ', '|'), ('సిం', 'U'), ('చ', '|'), ('క', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('భ', 'U'), ('వ్య', '|'), ('గు', '|'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|'), ('యీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('భ', 'U'), ('క్త', '|'), ('పా', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>వదనాంబుజమునందు కొదమతేటుల మాడ్కి నలువైన ముంగురుల్ నటనమాడపసమించు బంగారుపతకముల్ జతగూడి కులుకుగుబ్బలమీద గుసియాడసందిటగల బాజుబందుకుచ్చులచాలు తోరమై పలుమారు తూగులాడచెలువైన మొలనూలి చిరుఘంటలొరయుచు సారె కణిల్లని సద్దుసేయ</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>వదనాంబుజమునందు కొదమతేటుల మాడ్కి నలువైన ముంగురుల్ నటనమాడపసమించు బంగారుపతకముల్ జతగూడి కులుకుగుబ్బలమీద గుసియాడసందిటగల బాజుబందుకుచ్చులచాలు తోరమై పలుమారు తూగులాడచెలువైన మొలనూలి చిరుఘంటలొరయుచు సారె కణిల్లని సద్దుసేయ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ద', '|'), ('నాం', 'U'), ('బు', '|'), ('జ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('కొ', '|'), ('ద', '|'), ('మ', '|'), ('తే', 'U'), ('టు', '|'), ('ల', '|'), ('మా', 'U'), ('డ్కి', '|'), ('న', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('ముం', 'U'), ('గు', '|'), ('రుల్', 'U'), ('న', '|'), ('ట', '|'), ('న', '|'), ('మా', 'U'), ('డ', '|'), ('ప', '|'), ('స', '|'), ('మిం', 'U'), ('చు', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('ప', '|'), ('త', '|'), ('క', '|'), ('ముల్', 'U'), ('జ', '|'), ('త', '|'), ('గూ', 'U'), ('డి', '|'), ('కు', '|'), ('లు', '|'), ('కు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('గు', '|'), ('సి', '|'), ('యా', 'U'), ('డ', '|'), ('సం', 'U'), ('ది', '|'), ('ట', '|'), ('గ', '|'), ('ల', '|'), ('బా', 'U'), ('జు', '|'), ('బం', 'U'), ('దు', '|'), ('కు', 'U'), ('చ్చు', '|'), ('ల', '|'), ('చా', 'U'), ('లు', '|'), ('తో', 'U'), ('ర', '|'), ('మై', 'U'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('తూ', 'U'), ('గు', '|'), ('లా', 'U'), ('డ', '|'), ('చె', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('మొ', '|'), ('ల', '|'), ('నూ', 'U'), ('లి', '|'), ('చి', '|'), ('రు', '|'), ('ఘం', 'U'), ('ట', '|'), ('లొ', '|'), ('ర', '|'), ('యు', '|'), ('చు', '|'), ('సా', 'U'), ('రె', '|'), ('క', '|'), ('ణి', 'U'), ('ల్ల', '|'), ('ని', '|'), ('స', 'U'), ('ద్దు', '|'), ('సే', 'U'), ('య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జెలగి మొనసియు రతిగూడు చిన్నెలన్ని | మఱచియున్నాడొ దెల్పవే మగువ యనుచునన్ను బనిచిన వచ్చితి నలిననాభ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>జెలగి మొనసియు రతిగూడు చిన్నెలన్ని | మఱచియున్నాడొ దెల్పవే మగువ యనుచునన్ను బనిచిన వచ్చితి నలిననాభ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('జె', '|'), ('ల', '|'), ('గి', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('యు', '|'), ('ర', '|'), ('తి', '|'), ('గూ', 'U'), ('డు', '|'), ('చి', 'U'), ('న్నె', '|'), ('ల', 'U'), ('న్ని', '|'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('డొ', '|'), ('దె', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('న', 'U'), ('న్ను', '|'), ('బ', '|'), ('ని', '|'), ('చి', '|'), ('న', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('న', '|'), ('లి', '|'), ('న', '|'), ('నా', 'U'), ('భ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తోయజముఖి విభు తొడలపై దన పాదయుగము చక్కగ నిల్పి యువతి వేగపతి భుజంబులు రెండు పట్టుక తన చేత గొసరి తా గెమ్మోవి గ్రోలనిచ్చికలయుచు మరుకేళి కాంక్షదీరగ జేసి యాకుమడ్పు లొసంగి హవుసుమీరనిను బాయజాలరా నిముషమేని యటంచు మనసుంచి దయజూడుమనుచు బలికి</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>తోయజముఖి విభు తొడలపై దన పాదయుగము చక్కగ నిల్పి యువతి వేగపతి భుజంబులు రెండు పట్టుక తన చేత గొసరి తా గెమ్మోవి గ్రోలనిచ్చికలయుచు మరుకేళి కాంక్షదీరగ జేసి యాకుమడ్పు లొసంగి హవుసుమీరనిను బాయజాలరా నిముషమేని యటంచు మనసుంచి దయజూడుమనుచు బలికి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('తో', 'U'), ('య', '|'), ('జ', '|'), ('ము', '|'), ('ఖి', '|'), ('వి', '|'), ('భు', '|'), ('తొ', '|'), ('డ', '|'), ('ల', '|'), ('పై', 'U'), ('ద', '|'), ('న', '|'), ('పా', 'U'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('చ', 'U'), ('క్క', '|'), ('గ', '|'), ('ని', 'U'), ('ల్పి', '|'), ('యు', '|'), ('వ', '|'), ('తి', '|'), ('వే', 'U'), ('గ', '|'), ('ప', '|'), ('తి', '|'), ('భు', '|'), ('జం', 'U'), ('బు', '|'), ('లు', '|'), ('రెం', 'U'), ('డు', '|'), ('ప', 'U'), ('ట్టు', '|'), ('క', '|'), ('త', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('గొ', '|'), ('స', '|'), ('రి', '|'), ('తా', 'U'), ('గె', 'U'), ('మ్మో', 'U'), ('వి', 'U'), ('గ్రో', 'U'), ('ల', '|'), ('ని', 'U'), ('చ్చి', '|'), ('క', '|'), ('ల', '|'), ('యు', '|'), ('చు', '|'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('కాం', 'U'), ('క్ష', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('యా', 'U'), ('కు', '|'), ('మ', 'U'), ('డ్పు', '|'), ('లొ', '|'), ('సం', 'U'), ('గి', '|'), ('హ', '|'), ('వు', '|'), ('సు', '|'), ('మీ', 'U'), ('ర', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('రా', 'U'), ('ని', '|'), ('ము', '|'), ('ష', '|'), ('మే', 'U'), ('ని', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('మ', '|'), ('న', '|'), ('సుం', 'U'), ('చి', '|'), ('ద', '|'), ('య', '|'), ('జూ', 'U'), ('డు', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లి', '|'), ('కి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మాటిమాటికి నీపైని మరులు చెంది యున్న విరిబోడి నెడబాయ నుచితమగునెతరుణి మరుబారిచేతను దాళదికను | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>మాటిమాటికి నీపైని మరులు చెంది యున్న విరిబోడి నెడబాయ నుచితమగునెతరుణి మరుబారిచేతను దాళదికను | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('టి', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('నీ', 'U'), ('పై', 'U'), ('ని', '|'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('చెం', 'U'), ('ది', '|'), ('యు', 'U'), ('న్న', '|'), ('వి', '|'), ('రి', '|'), ('బో', 'U'), ('డి', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('ను', '|'), ('చి', '|'), ('త', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('మ', '|'), ('రు', '|'), ('బా', 'U'), ('రి', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('దా', 'U'), ('ళ', '|'), ('ది', '|'), ('క', '|'), ('ను', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>మాటల నొకకొంత పాటల నొకవింత గావించు బతి కింపుగాను కొమ్మరూపున నొకకొంత చూపున నొకవింత జూపించు విభునకు సుందరాంగితళుకున నొకకొంత బెళుకు నొకవింత గల్పించు ధవునకు గంబుకంఠిముద్దుల నొకకొంత మోవిమార్పుల వింత గావించు భర్తకు గమలపాణి</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>మాటల నొకకొంత పాటల నొకవింత గావించు బతి కింపుగాను కొమ్మరూపున నొకకొంత చూపున నొకవింత జూపించు విభునకు సుందరాంగితళుకున నొకకొంత బెళుకు నొకవింత గల్పించు ధవునకు గంబుకంఠిముద్దుల నొకకొంత మోవిమార్పుల వింత గావించు భర్తకు గమలపాణి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('ట', '|'), ('ల', '|'), ('నొ', '|'), ('క', '|'), ('కొం', 'U'), ('త', '|'), ('పా', 'U'), ('ట', '|'), ('ల', '|'), ('నొ', '|'), ('క', '|'), ('విం', 'U'), ('త', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('బ', '|'), ('తి', '|'), ('కిం', 'U'), ('పు', '|'), ('గా', 'U'), ('ను', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('రూ', 'U'), ('పు', '|'), ('న', '|'), ('నొ', '|'), ('క', '|'), ('కొం', 'U'), ('త', '|'), ('చూ', 'U'), ('పు', '|'), ('న', '|'), ('నొ', '|'), ('క', '|'), ('విం', 'U'), ('త', '|'), ('జూ', 'U'), ('పిం', 'U'), ('చు', '|'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కు', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గి', '|'), ('త', '|'), ('ళు', '|'), ('కు', '|'), ('న', '|'), ('నొ', '|'), ('క', '|'), ('కొం', 'U'), ('త', '|'), ('బె', '|'), ('ళు', '|'), ('కు', '|'), ('నొ', '|'), ('క', '|'), ('విం', 'U'), ('త', '|'), ('గ', 'U'), ('ల్పిం', 'U'), ('చు', '|'), ('ధ', '|'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('గం', 'U'), ('బు', '|'), ('కం', 'U'), ('ఠి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ల', '|'), ('నొ', '|'), ('క', '|'), ('కొం', 'U'), ('త', '|'), ('మో', 'U'), ('వి', '|'), ('మా', 'U'), ('ర్పు', '|'), ('ల', '|'), ('విం', 'U'), ('త', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('భ', 'U'), ('ర్త', '|'), ('కు', '|'), ('గ', '|'), ('మ', '|'), ('ల', '|'), ('పా', 'U'), ('ణి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తరుణి వగలెన్న నెవ్వరితరము గాదు వినుతగుణశీల నీకు నే విన్నవింతుజాగు సేయక రావయ్య జలజనాభ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>తరుణి వగలెన్న నెవ్వరితరము గాదు వినుతగుణశీల నీకు నే విన్నవింతుజాగు సేయక రావయ్య జలజనాభ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('రు', '|'), ('ణి', '|'), ('వ', '|'), ('గ', '|'), ('లె', 'U'), ('న్న', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('గు', '|'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|'), ('నీ', 'U'), ('కు', '|'), ('నే', 'U'), ('వి', 'U'), ('న్న', '|'), ('విం', 'U'), ('తు', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('జ', '|'), ('ల', '|'), ('జ', '|'), ('నా', 'U'), ('భ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చెఱగు మాసిన మొదముల్ చెలియ మూడవనాడు గడిచి వేడ్కను జలకంబులాడిపసపూని నెమ్మేన మిసిమికాంతి చెలంగ చాన పాదిరిపూల చాదుబెట్టినొసట బాసటబొట్టు పసమించు వజ్రాల యాభరణంబుల నమర దాల్చితళుకుబంగరు బుటేదారి పావడ పైని సరిగె పైటచెరంగు జాళువార</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>చెఱగు మాసిన మొదముల్ చెలియ మూడవనాడు గడిచి వేడ్కను జలకంబులాడిపసపూని నెమ్మేన మిసిమికాంతి చెలంగ చాన పాదిరిపూల చాదుబెట్టినొసట బాసటబొట్టు పసమించు వజ్రాల యాభరణంబుల నమర దాల్చితళుకుబంగరు బుటేదారి పావడ పైని సరిగె పైటచెరంగు జాళువార</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ఱ', '|'), ('గు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('మొ', '|'), ('ద', '|'), ('ముల్', 'U'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('మూ', 'U'), ('డ', '|'), ('వ', '|'), ('నా', 'U'), ('డు', '|'), ('గ', '|'), ('డి', '|'), ('చి', '|'), ('వే', 'U'), ('డ్క', '|'), ('ను', '|'), ('జ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('లా', 'U'), ('డి', '|'), ('ప', '|'), ('స', '|'), ('పూ', 'U'), ('ని', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('మి', '|'), ('సి', '|'), ('మి', '|'), ('కాం', 'U'), ('తి', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('చా', 'U'), ('న', '|'), ('పా', 'U'), ('ది', '|'), ('రి', '|'), ('పూ', 'U'), ('ల', '|'), ('చా', 'U'), ('దు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('నొ', '|'), ('స', '|'), ('ట', '|'), ('బా', 'U'), ('స', '|'), ('ట', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('ప', '|'), ('స', '|'), ('మిం', 'U'), ('చు', '|'), ('వ', 'U'), ('జ్రా', 'U'), ('ల', '|'), ('యా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('దా', 'U'), ('ల్చి', '|'), ('త', '|'), ('ళు', '|'), ('కు', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('బు', '|'), ('టే', 'U'), ('దా', 'U'), ('రి', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('పై', 'U'), ('ని', '|'), ('స', '|'), ('రి', '|'), ('గె', '|'), ('పై', 'U'), ('ట', '|'), ('చె', '|'), ('రం', 'U'), ('గు', '|'), ('జా', 'U'), ('ళు', '|'), ('వా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కొద్దియద్దాల రవికెయు ముద్దుగుల్క | తోరమగు గబ్బిగుబ్బల దొడగి కొమ్మవెడలు తరి జూడగావలె వేయుకనుల | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>కొద్దియద్దాల రవికెయు ముద్దుగుల్క | తోరమగు గబ్బిగుబ్బల దొడగి కొమ్మవెడలు తరి జూడగావలె వేయుకనుల | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('కొ', 'U'), ('ద్ది', '|'), ('య', 'U'), ('ద్దా', 'U'), ('ల', '|'), ('ర', '|'), ('వి', '|'), ('కె', '|'), ('యు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('ల్క', '|'), ('తో', 'U'), ('ర', '|'), ('మ', '|'), ('గు', '|'), ('గ', 'U'), ('బ్బి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('దొ', '|'), ('డ', '|'), ('గి', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('వె', '|'), ('డ', '|'), ('లు', '|'), ('త', '|'), ('రి', '|'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('వే', 'U'), ('యు', '|'), ('క', '|'), ('ను', '|'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>దొండపండుకు జాల బొండుమల్లెలు గూర్చి యాట్లాడరా వేగ హవుసుకాడఅద్దంపు పైపద్మమంటించి ప్రియమున జూడరా యావింత సొగసుకాడబాలచంద్రుల దెచ్చి పూలచెండ్ల గదించి వేడుక చూడరా వింతకాడమకరధ్వజునిగూటి శుకము నోటికనంటిపండిచ్చి చూడరా బలిమికాడ</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>దొండపండుకు జాల బొండుమల్లెలు గూర్చి యాట్లాడరా వేగ హవుసుకాడఅద్దంపు పైపద్మమంటించి ప్రియమున జూడరా యావింత సొగసుకాడబాలచంద్రుల దెచ్చి పూలచెండ్ల గదించి వేడుక చూడరా వింతకాడమకరధ్వజునిగూటి శుకము నోటికనంటిపండిచ్చి చూడరా బలిమికాడ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('దొం', 'U'), ('డ', '|'), ('పం', 'U'), ('డు', '|'), ('కు', '|'), ('జా', 'U'), ('ల', '|'), ('బొం', 'U'), ('డు', '|'), ('మ', 'U'), ('ల్లె', '|'), ('లు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('యా', 'U'), ('ట్లా', 'U'), ('డ', '|'), ('రా', 'U'), ('వే', 'U'), ('గ', '|'), ('హ', '|'), ('వు', '|'), ('సు', '|'), ('కా', 'U'), ('డ', '|'), ('అ', 'U'), ('ద్దం', 'U'), ('పు', '|'), ('పై', 'U'), ('ప', 'U'), ('ద్మ', '|'), ('మం', 'U'), ('టిం', 'U'), ('చి', 'U'), ('ప్రి', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('జూ', 'U'), ('డ', '|'), ('రా', 'U'), ('యా', 'U'), ('విం', 'U'), ('త', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('కా', 'U'), ('డ', '|'), ('బా', 'U'), ('ల', '|'), ('చం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('దె', 'U'), ('చ్చి', '|'), ('పూ', 'U'), ('ల', '|'), ('చెం', 'U'), ('డ్ల', '|'), ('గ', '|'), ('దిం', 'U'), ('చి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('చూ', 'U'), ('డ', '|'), ('రా', 'U'), ('విం', 'U'), ('త', '|'), ('కా', 'U'), ('డ', '|'), ('మ', '|'), ('క', '|'), ('ర', 'U'), ('ధ్వ', '|'), ('జు', '|'), ('ని', '|'), ('గూ', 'U'), ('టి', '|'), ('శు', '|'), ('క', '|'), ('ము', '|'), ('నో', 'U'), ('టి', '|'), ('క', '|'), ('నం', 'U'), ('టి', '|'), ('పం', 'U'), ('డి', 'U'), ('చ్చి', '|'), ('చూ', 'U'), ('డ', '|'), ('రా', 'U'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('కా', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనుచు దెరచాటి మాటల నతివ నీదు మనసు రంజిల్లగా జేయు మదనతంత్రజాలముల పుట్ట యా దిట్ట సరసిజాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>యనుచు దెరచాటి మాటల నతివ నీదు మనసు రంజిల్లగా జేయు మదనతంత్రజాలముల పుట్ట యా దిట్ట సరసిజాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('దె', '|'), ('ర', '|'), ('చా', 'U'), ('టి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('నీ', 'U'), ('దు', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('రం', 'U'), ('జి', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('జే', 'U'), ('యు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('తం', 'U'), ('త్ర', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('పు', 'U'), ('ట్ట', '|'), ('యా', 'U'), ('ది', 'U'), ('ట్ట', '|'), ('స', '|'), ('ర', '|'), ('సి', '|'), ('జా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>మరుని చేతికటారి మగువకుల్కు మిటారి తలపున బతి గోరి తాళలేకతెమ్మెర గడుదూరి తమ్ముల నటుచేరి కొమ్మలకడ జేరి గొసరి వేగవలపునకే దారి వనజాక్షి యీసారి పిలువరే నా శౌరి ప్రియము దనరకరుణించి యొకసారి కలసెనా వగమీరి తరుణి నా తమి జీరి తలతి చెలుల</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>మరుని చేతికటారి మగువకుల్కు మిటారి తలపున బతి గోరి తాళలేకతెమ్మెర గడుదూరి తమ్ముల నటుచేరి కొమ్మలకడ జేరి గొసరి వేగవలపునకే దారి వనజాక్షి యీసారి పిలువరే నా శౌరి ప్రియము దనరకరుణించి యొకసారి కలసెనా వగమీరి తరుణి నా తమి జీరి తలతి చెలుల</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('రు', '|'), ('ని', '|'), ('చే', 'U'), ('తి', '|'), ('క', '|'), ('టా', 'U'), ('రి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('కు', 'U'), ('ల్కు', '|'), ('మి', '|'), ('టా', 'U'), ('రి', '|'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('బ', '|'), ('తి', '|'), ('గో', 'U'), ('రి', '|'), ('తా', 'U'), ('ళ', '|'), ('లే', 'U'), ('క', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('గ', '|'), ('డు', '|'), ('దూ', 'U'), ('రి', '|'), ('త', 'U'), ('మ్ము', '|'), ('ల', '|'), ('న', '|'), ('టు', '|'), ('చే', 'U'), ('రి', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('క', '|'), ('డ', '|'), ('జే', 'U'), ('రి', '|'), ('గొ', '|'), ('స', '|'), ('రి', '|'), ('వే', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('కే', 'U'), ('దా', 'U'), ('రి', '|'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('యీ', 'U'), ('సా', 'U'), ('రి', '|'), ('పి', '|'), ('లు', '|'), ('వ', '|'), ('రే', 'U'), ('నా', 'U'), ('శౌ', 'U'), ('రి', 'U'), ('ప్రి', '|'), ('య', '|'), ('ము', '|'), ('ద', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('చి', '|'), ('యొ', '|'), ('క', '|'), ('సా', 'U'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('సె', '|'), ('నా', 'U'), ('వ', '|'), ('గ', '|'), ('మీ', 'U'), ('రి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నా', 'U'), ('త', '|'), ('మి', '|'), ('జీ', 'U'), ('రి', '|'), ('త', '|'), ('ల', '|'), ('తి', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ననుచు సఖులతో నేవేళ నలరుబోడి వాదులాడగ జూచి వచ్చి మిమ్ముపిలిచినానింక రావయ్య ప్రేమగల్గి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ననుచు సఖులతో నేవేళ నలరుబోడి వాదులాడగ జూచి వచ్చి మిమ్ముపిలిచినానింక రావయ్య ప్రేమగల్గి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('చు', '|'), ('స', '|'), ('ఖు', '|'), ('ల', '|'), ('తో', 'U'), ('నే', 'U'), ('వే', 'U'), ('ళ', '|'), ('న', '|'), ('ల', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|'), ('వా', 'U'), ('దు', '|'), ('లా', 'U'), ('డ', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మి', 'U'), ('మ్ము', '|'), ('పి', '|'), ('లి', '|'), ('చి', '|'), ('నా', 'U'), ('నిం', 'U'), ('క', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పంకజముఖి వేణి శంకరాభరణంబు చెలియ నగవు పూర్ణచంద్రిక యగుకలికి చూపులసొగసుగా వొప్పు సారంగ ననబోడి నాభి పున్నాగ యనగకాంత నెమ్మెయి తిరుకల్యాణి యనదగు బడతి జఘనంబు భూపాల యగునునింతి ప్రాణేశు లాలింపగా నాయకి విభు పరిచారియై విసర సురటి</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>పంకజముఖి వేణి శంకరాభరణంబు చెలియ నగవు పూర్ణచంద్రిక యగుకలికి చూపులసొగసుగా వొప్పు సారంగ ననబోడి నాభి పున్నాగ యనగకాంత నెమ్మెయి తిరుకల్యాణి యనదగు బడతి జఘనంబు భూపాల యగునునింతి ప్రాణేశు లాలింపగా నాయకి విభు పరిచారియై విసర సురటి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('క', '|'), ('జ', '|'), ('ము', '|'), ('ఖి', '|'), ('వే', 'U'), ('ణి', '|'), ('శం', 'U'), ('క', '|'), ('రా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('న', '|'), ('గ', '|'), ('వు', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('చం', 'U'), ('ద్రి', '|'), ('క', '|'), ('య', '|'), ('గు', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('చూ', 'U'), ('పు', '|'), ('ల', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('గా', 'U'), ('వొ', 'U'), ('ప్పు', '|'), ('సా', 'U'), ('రం', 'U'), ('గ', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('డి', '|'), ('నా', 'U'), ('భి', '|'), ('పు', 'U'), ('న్నా', 'U'), ('గ', '|'), ('య', '|'), ('న', '|'), ('గ', '|'), ('కాం', 'U'), ('త', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('తి', '|'), ('రు', '|'), ('క', 'U'), ('ల్యా', 'U'), ('ణి', '|'), ('య', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('బ', '|'), ('డ', '|'), ('తి', '|'), ('జ', '|'), ('ఘ', '|'), ('నం', 'U'), ('బు', '|'), ('భూ', 'U'), ('పా', 'U'), ('ల', '|'), ('య', '|'), ('గు', '|'), ('ను', '|'), ('నిం', 'U'), ('తి', 'U'), ('ప్రా', 'U'), ('ణే', 'U'), ('శు', '|'), ('లా', 'U'), ('లిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నా', 'U'), ('య', '|'), ('కి', '|'), ('వి', '|'), ('భు', '|'), ('ప', '|'), ('రి', '|'), ('చా', 'U'), ('రి', '|'), ('యై', 'U'), ('వి', '|'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('ర', '|'), ('టి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కలసి మరుకేళి మెప్పించు కనకగౌరి లలితగుణజాల శుభలీల లలన నిన్నుతోడి తెమ్మనె రావయ్య తోయజాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>కలసి మరుకేళి మెప్పించు కనకగౌరి లలితగుణజాల శుభలీల లలన నిన్నుతోడి తెమ్మనె రావయ్య తోయజాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('సి', '|'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('మె', 'U'), ('ప్పిం', 'U'), ('చు', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('గౌ', 'U'), ('రి', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('గు', '|'), ('ణ', '|'), ('జా', 'U'), ('ల', '|'), ('శు', '|'), ('భ', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('ల', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('తో', 'U'), ('డి', '|'), ('తె', 'U'), ('మ్మ', '|'), ('నె', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('తో', 'U'), ('య', '|'), ('జా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పక్క బాయకయుండు ప్రాణేశ్వరుడు నన్ను నెడబాయుటకు నేడు హేతువేమిరవిశశిభౌములు రాహుకేతువులును బుధశుక్రశనిగురుల్ పొలతి నాకుచాలరో గాన గోచారంబు రీతిని యడుగరే విప్రుల నమ్మలారకాకున్న నా భర్త కరుణ యింతయు లేక యిందు రాకుండునా రామలార</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>పక్క బాయకయుండు ప్రాణేశ్వరుడు నన్ను నెడబాయుటకు నేడు హేతువేమిరవిశశిభౌములు రాహుకేతువులును బుధశుక్రశనిగురుల్ పొలతి నాకుచాలరో గాన గోచారంబు రీతిని యడుగరే విప్రుల నమ్మలారకాకున్న నా భర్త కరుణ యింతయు లేక యిందు రాకుండునా రామలార</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('క్క', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('యుం', 'U'), ('డు', 'U'), ('ప్రా', 'U'), ('ణే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('యు', '|'), ('ట', '|'), ('కు', '|'), ('నే', 'U'), ('డు', '|'), ('హే', 'U'), ('తు', '|'), ('వే', 'U'), ('మి', '|'), ('ర', '|'), ('వి', '|'), ('శ', '|'), ('శి', '|'), ('భౌ', 'U'), ('ము', '|'), ('లు', '|'), ('రా', 'U'), ('హు', '|'), ('కే', 'U'), ('తు', '|'), ('వు', '|'), ('లు', '|'), ('ను', '|'), ('బు', '|'), ('ధ', '|'), ('శు', 'U'), ('క్ర', '|'), ('శ', '|'), ('ని', '|'), ('గు', '|'), ('రుల్', 'U'), ('పొ', '|'), ('ల', '|'), ('తి', '|'), ('నా', 'U'), ('కు', '|'), ('చా', 'U'), ('ల', '|'), ('రో', 'U'), ('గా', 'U'), ('న', '|'), ('గో', 'U'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('రీ', 'U'), ('తి', '|'), ('ని', '|'), ('య', '|'), ('డు', '|'), ('గ', '|'), ('రే', 'U'), ('వి', 'U'), ('ప్రు', '|'), ('ల', '|'), ('న', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|'), ('కా', 'U'), ('కు', 'U'), ('న్న', '|'), ('నా', 'U'), ('భ', 'U'), ('ర్త', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('యిం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('క', '|'), ('యిం', 'U'), ('దు', '|'), ('రా', 'U'), ('కుం', 'U'), ('డు', '|'), ('నా', 'U'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యైన నేమాయె వారల కనుదినంబు విప్రవర్యుల రావించి వివిధగతులయొనర తచ్ఛాంతి గావింప నువిద దలచు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>యైన నేమాయె వారల కనుదినంబు విప్రవర్యుల రావించి వివిధగతులయొనర తచ్ఛాంతి గావింప నువిద దలచు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('యై', 'U'), ('న', '|'), ('నే', 'U'), ('మా', 'U'), ('యె', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('క', '|'), ('ను', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('వి', 'U'), ('ప్ర', '|'), ('వ', 'U'), ('ర్యు', '|'), ('ల', '|'), ('రా', 'U'), ('విం', 'U'), ('చి', '|'), ('వి', '|'), ('వి', '|'), ('ధ', '|'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('యొ', '|'), ('న', '|'), ('ర', '|'), ('త', 'U'), ('చ్ఛాం', 'U'), ('తి', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('ను', '|'), ('వి', '|'), ('ద', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>మందగామిని మోముచందంబు జాచిన బొందదే రతికాంక్ష బూని నీకుసోగకన్నుల దృష్టిసొగసు జూచినయంత నిలువనిచ్చునె మది నిముషమైనవనజాక్షి లేజిగివాతెర జూచిన పలుమొన లూరవే పరమపురుషపడతి సంతసమున బలువిచ్చి నవ్విన గనకాభిషేకంబు గాంచినట్టు</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>మందగామిని మోముచందంబు జాచిన బొందదే రతికాంక్ష బూని నీకుసోగకన్నుల దృష్టిసొగసు జూచినయంత నిలువనిచ్చునె మది నిముషమైనవనజాక్షి లేజిగివాతెర జూచిన పలుమొన లూరవే పరమపురుషపడతి సంతసమున బలువిచ్చి నవ్విన గనకాభిషేకంబు గాంచినట్టు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('ద', '|'), ('గా', 'U'), ('మి', '|'), ('ని', '|'), ('మో', 'U'), ('ము', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('జా', 'U'), ('చి', '|'), ('న', '|'), ('బొం', 'U'), ('ద', '|'), ('దే', 'U'), ('ర', '|'), ('తి', '|'), ('కాం', 'U'), ('క్ష', '|'), ('బూ', 'U'), ('ని', '|'), ('నీ', 'U'), ('కు', '|'), ('సో', 'U'), ('గ', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('ని', 'U'), ('చ్చు', '|'), ('నె', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('ము', '|'), ('ష', '|'), ('మై', 'U'), ('న', '|'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('లే', 'U'), ('జి', '|'), ('గి', '|'), ('వా', 'U'), ('తె', '|'), ('ర', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('ప', '|'), ('లు', '|'), ('మొ', '|'), ('న', '|'), ('లూ', 'U'), ('ర', '|'), ('వే', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('న', '|'), ('బ', '|'), ('లు', '|'), ('వి', 'U'), ('చ్చి', '|'), ('న', 'U'), ('వ్వి', '|'), ('న', '|'), ('గ', '|'), ('న', '|'), ('కా', 'U'), ('భి', '|'), ('షే', 'U'), ('కం', 'U'), ('బు', '|'), ('గాం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్టు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>లుండునటు గాన రావయ్య యొనర నీకు | దండమిక జాగుసేయక తరుణి కడకువచ్చి చూడుము నే బల్కు వార్తలన్ని | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>లుండునటు గాన రావయ్య యొనర నీకు | దండమిక జాగుసేయక తరుణి కడకువచ్చి చూడుము నే బల్కు వార్తలన్ని | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('లుం', 'U'), ('డు', '|'), ('న', '|'), ('టు', '|'), ('గా', 'U'), ('న', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('యొ', '|'), ('న', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('దం', 'U'), ('డ', '|'), ('మి', '|'), ('క', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('చూ', 'U'), ('డు', '|'), ('ము', '|'), ('నే', 'U'), ('బ', 'U'), ('ల్కు', '|'), ('వా', 'U'), ('ర్త', '|'), ('ల', 'U'), ('న్ని', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కీరమా నే సేయు నేరమా నా యిల్లు దూరమా విభుడు రాదొడగెనేనినేడు మా యింతిని గూడుమా యని పతి వేడుమా చెలి నీవు వేగ యనుచుగోరి నా విభు డిల్లు జేరునా మరుబారి తీరుగా దెల్పవే తెరవ యనుచుజిఱుతనా మరుదారి మరుతునా గుబ్బల నొరుతునా విభు నెద నో లతాంగి</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>కీరమా నే సేయు నేరమా నా యిల్లు దూరమా విభుడు రాదొడగెనేనినేడు మా యింతిని గూడుమా యని పతి వేడుమా చెలి నీవు వేగ యనుచుగోరి నా విభు డిల్లు జేరునా మరుబారి తీరుగా దెల్పవే తెరవ యనుచుజిఱుతనా మరుదారి మరుతునా గుబ్బల నొరుతునా విభు నెద నో లతాంగి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('కీ', 'U'), ('ర', '|'), ('మా', 'U'), ('నే', 'U'), ('సే', 'U'), ('యు', '|'), ('నే', 'U'), ('ర', '|'), ('మా', 'U'), ('నా', 'U'), ('యి', 'U'), ('ల్లు', '|'), ('దూ', 'U'), ('ర', '|'), ('మా', 'U'), ('వి', '|'), ('భు', '|'), ('డు', '|'), ('రా', 'U'), ('దొ', '|'), ('డ', '|'), ('గె', '|'), ('నే', 'U'), ('ని', '|'), ('నే', 'U'), ('డు', '|'), ('మా', 'U'), ('యిం', 'U'), ('తి', '|'), ('ని', '|'), ('గూ', 'U'), ('డు', '|'), ('మా', 'U'), ('య', '|'), ('ని', '|'), ('ప', '|'), ('తి', '|'), ('వే', 'U'), ('డు', '|'), ('మా', 'U'), ('చె', '|'), ('లి', '|'), ('నీ', 'U'), ('వు', '|'), ('వే', 'U'), ('గ', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('గో', 'U'), ('రి', '|'), ('నా', 'U'), ('వి', '|'), ('భు', '|'), ('డి', 'U'), ('ల్లు', '|'), ('జే', 'U'), ('రు', '|'), ('నా', 'U'), ('మ', '|'), ('రు', '|'), ('బా', 'U'), ('రి', '|'), ('తీ', 'U'), ('రు', '|'), ('గా', 'U'), ('దె', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('జి', '|'), ('ఱు', '|'), ('త', '|'), ('నా', 'U'), ('మ', '|'), ('రు', '|'), ('దా', 'U'), ('రి', '|'), ('మ', '|'), ('రు', '|'), ('తు', '|'), ('నా', 'U'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('నొ', '|'), ('రు', '|'), ('తు', '|'), ('నా', 'U'), ('వి', '|'), ('భు', '|'), ('నె', '|'), ('ద', '|'), ('నో', 'U'), ('ల', '|'), ('తాం', 'U'), ('గి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనుచు బలుమారు చెలులతో నలరుబోడి నిన్ను దలచుచునున్నది నీరజాక్షిజాగుసేయక రావయ్య చపల ముడిగి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>యనుచు బలుమారు చెలులతో నలరుబోడి నిన్ను దలచుచునున్నది నీరజాక్షిజాగుసేయక రావయ్య చపల ముడిగి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|'), ('ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('ది', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్షి', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('చ', '|'), ('ప', '|'), ('ల', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కలికి కీల్జడ సాటి గానోపకను భోగి కాలకంఠుని చేత కట్టుబడియెపద్మంబు చెలి ముఖపద్మంబునకు నోడి హరిణచయంబుల నాదుకొనియెవజ్రంబు చెలి దంతవరరుచులకు నోడి పాకశాసను చేత బట్టువడియెరామతో నడ సరిరా నోడి రాయంచ వనజసంభవునకు వాహమయ్యె</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>కలికి కీల్జడ సాటి గానోపకను భోగి కాలకంఠుని చేత కట్టుబడియెపద్మంబు చెలి ముఖపద్మంబునకు నోడి హరిణచయంబుల నాదుకొనియెవజ్రంబు చెలి దంతవరరుచులకు నోడి పాకశాసను చేత బట్టువడియెరామతో నడ సరిరా నోడి రాయంచ వనజసంభవునకు వాహమయ్యె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('కి', '|'), ('కీ', 'U'), ('ల్జ', '|'), ('డ', '|'), ('సా', 'U'), ('టి', '|'), ('గా', 'U'), ('నో', 'U'), ('ప', '|'), ('క', '|'), ('ను', '|'), ('భో', 'U'), ('గి', '|'), ('కా', 'U'), ('ల', '|'), ('కం', 'U'), ('ఠు', '|'), ('ని', '|'), ('చే', 'U'), ('త', '|'), ('క', 'U'), ('ట్టు', '|'), ('బ', '|'), ('డి', '|'), ('యె', '|'), ('ప', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('చె', '|'), ('లి', '|'), ('ము', '|'), ('ఖ', '|'), ('ప', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('నో', 'U'), ('డి', '|'), ('హ', '|'), ('రి', '|'), ('ణ', '|'), ('చ', '|'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('నా', 'U'), ('దు', '|'), ('కొ', '|'), ('ని', '|'), ('యె', '|'), ('వ', 'U'), ('జ్రం', 'U'), ('బు', '|'), ('చె', '|'), ('లి', '|'), ('దం', 'U'), ('త', '|'), ('వ', '|'), ('ర', '|'), ('రు', '|'), ('చు', '|'), ('ల', '|'), ('కు', '|'), ('నో', 'U'), ('డి', '|'), ('పా', 'U'), ('క', '|'), ('శా', 'U'), ('స', '|'), ('ను', '|'), ('చే', 'U'), ('త', '|'), ('బ', 'U'), ('ట్టు', '|'), ('వ', '|'), ('డి', '|'), ('యె', '|'), ('రా', 'U'), ('మ', '|'), ('తో', 'U'), ('న', '|'), ('డ', '|'), ('స', '|'), ('రి', '|'), ('రా', 'U'), ('నో', 'U'), ('డి', '|'), ('రా', 'U'), ('యం', 'U'), ('చ', '|'), ('వ', '|'), ('న', '|'), ('జ', '|'), ('సం', 'U'), ('భ', '|'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('వా', 'U'), ('హ', '|'), ('మ', 'U'), ('య్యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన జెలి సాటి యెవ్వరి గాన జగతి | దరుణులకు మిన్న దానెన్న దరముగాదుపరమగుణజాల కాంచనభవ్యచేల | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>గాన జెలి సాటి యెవ్వరి గాన జగతి | దరుణులకు మిన్న దానెన్న దరముగాదుపరమగుణజాల కాంచనభవ్యచేల | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('జె', '|'), ('లి', '|'), ('సా', 'U'), ('టి', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('గా', 'U'), ('న', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('ద', '|'), ('రు', '|'), ('ణు', '|'), ('ల', '|'), ('కు', '|'), ('మి', 'U'), ('న్న', '|'), ('దా', 'U'), ('నె', 'U'), ('న్న', '|'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('గు', '|'), ('ణ', '|'), ('జా', 'U'), ('ల', '|'), ('కాం', 'U'), ('చ', '|'), ('న', '|'), ('భ', 'U'), ('వ్య', '|'), ('చే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కెమ్మోవి రుచి చాల బ్రమ్మి ముంగర ముత్తియమ్ము చొక్కంపు కెంపనగ దోచుగనుసోగకాంతుల నెనయ బావిలి పచ్చపండు నీలపు జాయనుండి దనరుపసిమిచెక్కుల కాంతి నెసగు గమ్మల వజ్రకణములు గోమేధికంబులయ్యెతరుణిగుబ్బల రంగునొరసి పైటచెరంగు బంగారుచాయల బర్వి మెరయ</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>కెమ్మోవి రుచి చాల బ్రమ్మి ముంగర ముత్తియమ్ము చొక్కంపు కెంపనగ దోచుగనుసోగకాంతుల నెనయ బావిలి పచ్చపండు నీలపు జాయనుండి దనరుపసిమిచెక్కుల కాంతి నెసగు గమ్మల వజ్రకణములు గోమేధికంబులయ్యెతరుణిగుబ్బల రంగునొరసి పైటచెరంగు బంగారుచాయల బర్వి మెరయ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('రు', '|'), ('చి', '|'), ('చా', 'U'), ('ల', 'U'), ('బ్ర', 'U'), ('మ్మి', '|'), ('ముం', 'U'), ('గ', '|'), ('ర', '|'), ('ము', 'U'), ('త్తి', '|'), ('య', 'U'), ('మ్ము', '|'), ('చొ', 'U'), ('క్కం', 'U'), ('పు', '|'), ('కెం', 'U'), ('ప', '|'), ('న', '|'), ('గ', '|'), ('దో', 'U'), ('చు', '|'), ('గ', '|'), ('ను', '|'), ('సో', 'U'), ('గ', '|'), ('కాం', 'U'), ('తు', '|'), ('ల', '|'), ('నె', '|'), ('న', '|'), ('య', '|'), ('బా', 'U'), ('వి', '|'), ('లి', '|'), ('ప', 'U'), ('చ్చ', '|'), ('పం', 'U'), ('డు', '|'), ('నీ', 'U'), ('ల', '|'), ('పు', '|'), ('జా', 'U'), ('య', '|'), ('నుం', 'U'), ('డి', '|'), ('ద', '|'), ('న', '|'), ('రు', '|'), ('ప', '|'), ('సి', '|'), ('మి', '|'), ('చె', 'U'), ('క్కు', '|'), ('ల', '|'), ('కాం', 'U'), ('తి', '|'), ('నె', '|'), ('స', '|'), ('గు', '|'), ('గ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('వ', 'U'), ('జ్ర', '|'), ('క', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('గో', 'U'), ('మే', 'U'), ('ధి', '|'), ('కం', 'U'), ('బు', '|'), ('ల', 'U'), ('య్యె', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('రం', 'U'), ('గు', '|'), ('నొ', '|'), ('ర', '|'), ('సి', '|'), ('పై', 'U'), ('ట', '|'), ('చె', '|'), ('రం', 'U'), ('గు', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('చా', 'U'), ('య', '|'), ('ల', '|'), ('బ', 'U'), ('ర్వి', '|'), ('మె', '|'), ('ర', '|'), ('య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వెలదియంగాంగముల తళ్కులలరు నిటుల | నీరజాసను డా యింతి నీకు గానుదలచి సృజియించనేమొకో తరుణి నిపుడు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>వెలదియంగాంగముల తళ్కులలరు నిటుల | నీరజాసను డా యింతి నీకు గానుదలచి సృజియించనేమొకో తరుణి నిపుడు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('ది', '|'), ('యం', 'U'), ('గాం', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('త', 'U'), ('ళ్కు', '|'), ('ల', '|'), ('ల', '|'), ('రు', '|'), ('ని', '|'), ('టు', '|'), ('ల', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('స', '|'), ('ను', '|'), ('డా', 'U'), ('యిం', 'U'), ('తి', '|'), ('నీ', 'U'), ('కు', '|'), ('గా', 'U'), ('ను', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('సృ', '|'), ('జి', '|'), ('యిం', 'U'), ('చ', '|'), ('నే', 'U'), ('మొ', '|'), ('కో', 'U'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('ని', '|'), ('పు', '|'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>మరుని కార్ముకములై తెరవ కన్బొమలొప్పు గురుకుచంబులు గెల్చు కోకయుగమునసియాడు లేగౌను హరిమధ్య యనదగు నయ్యింతి నునుదొడ లనటితరులుకలికిజంఘలు పొట్టకరగులై చెన్నొందు నతివపదములు చిగురుటాకులనగచుక్కలకాంతి పెంపెక్కు నఖావళి దంతిరాజముఖము బోలు తరుణినడక</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>మరుని కార్ముకములై తెరవ కన్బొమలొప్పు గురుకుచంబులు గెల్చు కోకయుగమునసియాడు లేగౌను హరిమధ్య యనదగు నయ్యింతి నునుదొడ లనటితరులుకలికిజంఘలు పొట్టకరగులై చెన్నొందు నతివపదములు చిగురుటాకులనగచుక్కలకాంతి పెంపెక్కు నఖావళి దంతిరాజముఖము బోలు తరుణినడక</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('రు', '|'), ('ని', '|'), ('కా', 'U'), ('ర్ము', '|'), ('క', '|'), ('ము', '|'), ('లై', 'U'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('క', 'U'), ('న్బొ', '|'), ('మ', '|'), ('లొ', 'U'), ('ప్పు', '|'), ('గు', '|'), ('రు', '|'), ('కు', '|'), ('చం', 'U'), ('బు', '|'), ('లు', '|'), ('గె', 'U'), ('ల్చు', '|'), ('కో', 'U'), ('క', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('సి', '|'), ('యా', 'U'), ('డు', '|'), ('లే', 'U'), ('గౌ', 'U'), ('ను', '|'), ('హ', '|'), ('రి', '|'), ('మ', 'U'), ('ధ్య', '|'), ('య', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('న', 'U'), ('య్యిం', 'U'), ('తి', '|'), ('ను', '|'), ('ను', '|'), ('దొ', '|'), ('డ', '|'), ('ల', '|'), ('న', '|'), ('టి', '|'), ('త', '|'), ('రు', '|'), ('లు', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('జం', 'U'), ('ఘ', '|'), ('లు', '|'), ('పొ', 'U'), ('ట్ట', '|'), ('క', '|'), ('ర', '|'), ('గు', '|'), ('లై', 'U'), ('చె', 'U'), ('న్నొం', 'U'), ('దు', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('ప', '|'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('చి', '|'), ('గు', '|'), ('రు', '|'), ('టా', 'U'), ('కు', '|'), ('ల', '|'), ('న', '|'), ('గ', '|'), ('చు', 'U'), ('క్క', '|'), ('ల', '|'), ('కాం', 'U'), ('తి', '|'), ('పెం', 'U'), ('పె', 'U'), ('క్కు', '|'), ('న', '|'), ('ఖా', 'U'), ('వ', '|'), ('ళి', '|'), ('దం', 'U'), ('తి', '|'), ('రా', 'U'), ('జ', '|'), ('ము', '|'), ('ఖ', '|'), ('ము', '|'), ('బో', 'U'), ('లు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('న', '|'), ('డ', '|'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>లౌర యా కుందరదన నీవంది మిథున- | మై చెలంగుటకై నొక్కమాట నీకుదెల్పుదును మీకు వేవేగ దెలసి రమ్ము | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>లౌర యా కుందరదన నీవంది మిథున- | మై చెలంగుటకై నొక్కమాట నీకుదెల్పుదును మీకు వేవేగ దెలసి రమ్ము | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
           <t>[('లౌ', 'U'), ('ర', '|'), ('యా', 'U'), ('కుం', 'U'), ('ద', '|'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('నీ', 'U'), ('వం', 'U'), ('ది', '|'), ('మి', '|'), ('థు', '|'), ('న', '|'), ('మై', 'U'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('ట', '|'), ('కై', 'U'), ('నొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('ట', '|'), ('నీ', 'U'), ('కు', '|'), ('దె', 'U'), ('ల్పు', '|'), ('దు', '|'), ('ను', '|'), ('మీ', 'U'), ('కు', '|'), ('వే', 'U'), ('వే', 'U'), ('గ', '|'), ('దె', '|'), ('ల', '|'), ('సి', '|'), ('ర', 'U'), ('మ్ము', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నెలత ఠీవియు సొగసు నేత్రోత్సవము సేయు నింతిమాటలు చెవుల కింపుజేయుగలికి వగలను మనసు కరిగింపగా జేయు కొమ్మ తెల్వియు మది గోరజేయువనజాక్షి వింతలు వలపింపగా జేయు పడతి కనుసైగలు భ్రమయజేయునలివేణి చనులకు నౌసు వుట్టగజేయు వెలది కొసరులెంతొ వేడ్కసేయు</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>నెలత ఠీవియు సొగసు నేత్రోత్సవము సేయు నింతిమాటలు చెవుల కింపుజేయుగలికి వగలను మనసు కరిగింపగా జేయు కొమ్మ తెల్వియు మది గోరజేయువనజాక్షి వింతలు వలపింపగా జేయు పడతి కనుసైగలు భ్రమయజేయునలివేణి చనులకు నౌసు వుట్టగజేయు వెలది కొసరులెంతొ వేడ్కసేయు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('ల', '|'), ('త', '|'), ('ఠీ', 'U'), ('వి', '|'), ('యు', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('నే', 'U'), ('త్రో', 'U'), ('త్స', '|'), ('వ', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('నిం', 'U'), ('తి', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('చె', '|'), ('వు', '|'), ('ల', '|'), ('కిం', 'U'), ('పు', '|'), ('జే', 'U'), ('యు', '|'), ('గ', '|'), ('లి', '|'), ('కి', '|'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('ను', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('క', '|'), ('రి', '|'), ('గిం', 'U'), ('ప', '|'), ('గా', 'U'), ('జే', 'U'), ('యు', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('తె', 'U'), ('ల్వి', '|'), ('యు', '|'), ('మ', '|'), ('ది', '|'), ('గో', 'U'), ('ర', '|'), ('జే', 'U'), ('యు', '|'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('విం', 'U'), ('త', '|'), ('లు', '|'), ('వ', '|'), ('ల', '|'), ('పిం', 'U'), ('ప', '|'), ('గా', 'U'), ('జే', 'U'), ('యు', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('క', '|'), ('ను', '|'), ('సై', 'U'), ('గ', '|'), ('లు', 'U'), ('భ్ర', '|'), ('మ', '|'), ('య', '|'), ('జే', 'U'), ('యు', '|'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('చ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('నౌ', 'U'), ('సు', '|'), ('వు', 'U'), ('ట్ట', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('కొ', '|'), ('స', '|'), ('రు', '|'), ('లెం', 'U'), ('తొ', '|'), ('వే', 'U'), ('డ్క', '|'), ('సే', 'U'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన వగలాడికిని సాటిగలరె భువిని | చాన నీకైన దగు మంచిజాణ గదరమానకిక నేలుకొనవయ్య మదనజనక | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>గాన వగలాడికిని సాటిగలరె భువిని | చాన నీకైన దగు మంచిజాణ గదరమానకిక నేలుకొనవయ్య మదనజనక | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('వ', '|'), ('గ', '|'), ('లా', 'U'), ('డి', '|'), ('కి', '|'), ('ని', '|'), ('సా', 'U'), ('టి', '|'), ('గ', '|'), ('ల', '|'), ('రె', '|'), ('భు', '|'), ('వి', '|'), ('ని', '|'), ('చా', 'U'), ('న', '|'), ('నీ', 'U'), ('కై', 'U'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('మం', 'U'), ('చి', '|'), ('జా', 'U'), ('ణ', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('మా', 'U'), ('న', '|'), ('కి', '|'), ('క', '|'), ('నే', 'U'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('వ', 'U'), ('య్య', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('జ', '|'), ('న', '|'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>వదలని కౌఁగిళ్ళ వాతెరనొక్కులు నెద గుబ్బయొరపుల యా లతాంగిచిరునవ్వు మాటల జిలిబిలి పాటల దురుసుపై కొసరుల దోయజాక్షికొనగోటిమీటుల నెనలేనియాటల మొనసిన బొమముళ్ళ మోహనాంగిగళరవంబుల చాలగానొప్పు సన్నల సైగల తగు ముద్దుచాన గాన</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>వదలని కౌఁగిళ్ళ వాతెరనొక్కులు నెద గుబ్బయొరపుల యా లతాంగిచిరునవ్వు మాటల జిలిబిలి పాటల దురుసుపై కొసరుల దోయజాక్షికొనగోటిమీటుల నెనలేనియాటల మొనసిన బొమముళ్ళ మోహనాంగిగళరవంబుల చాలగానొప్పు సన్నల సైగల తగు ముద్దుచాన గాన</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ద', '|'), ('ల', '|'), ('ని', '|'), ('కౌ', 'U'), ('గి', 'U'), ('ళ్ళ', '|'), ('వా', 'U'), ('తె', '|'), ('ర', '|'), ('నొ', 'U'), ('క్కు', '|'), ('లు', '|'), ('నె', '|'), ('ద', '|'), ('గు', 'U'), ('బ్బ', '|'), ('యొ', '|'), ('ర', '|'), ('పు', '|'), ('ల', '|'), ('యా', 'U'), ('ల', '|'), ('తాం', 'U'), ('గి', '|'), ('చి', '|'), ('రు', '|'), ('న', 'U'), ('వ్వు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('జి', '|'), ('లి', '|'), ('బి', '|'), ('లి', '|'), ('పా', 'U'), ('ట', '|'), ('ల', '|'), ('దు', '|'), ('రు', '|'), ('సు', '|'), ('పై', 'U'), ('కొ', '|'), ('స', '|'), ('రు', '|'), ('ల', '|'), ('దో', 'U'), ('య', '|'), ('జా', 'U'), ('క్షి', '|'), ('కొ', '|'), ('న', '|'), ('గో', 'U'), ('టి', '|'), ('మీ', 'U'), ('టు', '|'), ('ల', '|'), ('నె', '|'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('యా', 'U'), ('ట', '|'), ('ల', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('న', '|'), ('బొ', '|'), ('మ', '|'), ('ము', 'U'), ('ళ్ళ', '|'), ('మో', 'U'), ('హ', '|'), ('నాం', 'U'), ('గి', '|'), ('గ', '|'), ('ళ', '|'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('ల', '|'), ('చా', 'U'), ('ల', '|'), ('గా', 'U'), ('నొ', 'U'), ('ప్పు', '|'), ('స', 'U'), ('న్న', '|'), ('ల', '|'), ('సై', 'U'), ('గ', '|'), ('ల', '|'), ('త', '|'), ('గు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('చా', 'U'), ('న', '|'), ('గా', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వనిత వగనెన్న నెవ్వరి వశముగాదు | మరుని చేచిల్క యనదగు మందయానదాని కెనగాన నియ్యానత గజగాన | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>వనిత వగనెన్న నెవ్వరి వశముగాదు | మరుని చేచిల్క యనదగు మందయానదాని కెనగాన నియ్యానత గజగాన | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ని', '|'), ('త', '|'), ('వ', '|'), ('గ', '|'), ('నె', 'U'), ('న్న', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('చే', 'U'), ('చి', 'U'), ('ల్క', '|'), ('య', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('కె', '|'), ('న', '|'), ('గా', 'U'), ('న', '|'), ('ని', 'U'), ('య్యా', 'U'), ('న', '|'), ('త', '|'), ('గ', '|'), ('జ', '|'), ('గా', 'U'), ('న', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తోయజవదన నీతోను భాషింపక మానునే విరహంబు మదనజనకపణతుక నీపక్క పవ్వళింపక గాని నెమ్మదినుండునే నీరజాక్షయక్కున గదియించి యలమి ముద్దిడక నీ యాస దీరునె యింక జలజనాభకలికి నీతో రతి గలయక పలుమారు భ్రమదీరునా సతికి భవ్యచరిత</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>తోయజవదన నీతోను భాషింపక మానునే విరహంబు మదనజనకపణతుక నీపక్క పవ్వళింపక గాని నెమ్మదినుండునే నీరజాక్షయక్కున గదియించి యలమి ముద్దిడక నీ యాస దీరునె యింక జలజనాభకలికి నీతో రతి గలయక పలుమారు భ్రమదీరునా సతికి భవ్యచరిత</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
           <t>[('తో', 'U'), ('య', '|'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('నీ', 'U'), ('తో', 'U'), ('ను', '|'), ('భా', 'U'), ('షిం', 'U'), ('ప', '|'), ('క', '|'), ('మా', 'U'), ('ను', '|'), ('నే', 'U'), ('వి', '|'), ('ర', '|'), ('హం', 'U'), ('బు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('జ', '|'), ('న', '|'), ('క', '|'), ('ప', '|'), ('ణ', '|'), ('తు', '|'), ('క', '|'), ('నీ', 'U'), ('ప', 'U'), ('క్క', '|'), ('ప', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('ప', '|'), ('క', '|'), ('గా', 'U'), ('ని', '|'), ('నె', 'U'), ('మ్మ', '|'), ('ది', '|'), ('నుం', 'U'), ('డు', '|'), ('నే', 'U'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('య', 'U'), ('క్కు', '|'), ('న', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('య', '|'), ('ల', '|'), ('మి', '|'), ('ము', 'U'), ('ద్ది', '|'), ('డ', '|'), ('క', '|'), ('నీ', 'U'), ('యా', 'U'), ('స', '|'), ('దీ', 'U'), ('రు', '|'), ('నె', '|'), ('యిం', 'U'), ('క', '|'), ('జ', '|'), ('ల', '|'), ('జ', '|'), ('నా', 'U'), ('భ', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('నీ', 'U'), ('తో', 'U'), ('ర', '|'), ('తి', '|'), ('గ', '|'), ('ల', '|'), ('య', '|'), ('క', '|'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', 'U'), ('భ్ర', '|'), ('మ', '|'), ('దీ', 'U'), ('రు', '|'), ('నా', 'U'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('భ', 'U'), ('వ్య', '|'), ('చ', '|'), ('రి', '|'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన నిక చాన నేలుము గలిసి వేగ | పూని యిక నీవు రాకున్న పొలతి మధుర-మైన విషములు ద్రావంగ మదిని దలచు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>గాన నిక చాన నేలుము గలిసి వేగ | పూని యిక నీవు రాకున్న పొలతి మధుర-మైన విషములు ద్రావంగ మదిని దలచు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('ని', '|'), ('క', '|'), ('చా', 'U'), ('న', '|'), ('నే', 'U'), ('లు', '|'), ('ము', '|'), ('గ', '|'), ('లి', '|'), ('సి', '|'), ('వే', 'U'), ('గ', '|'), ('పూ', 'U'), ('ని', '|'), ('యి', '|'), ('క', '|'), ('నీ', 'U'), ('వు', '|'), ('రా', 'U'), ('కు', 'U'), ('న్న', '|'), ('పొ', '|'), ('ల', '|'), ('తి', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('వి', '|'), ('ష', '|'), ('ము', '|'), ('లు', '|'), ('ద్రా', 'U'), ('వం', 'U'), ('గ', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>మితిమీరి కాంక్షతో నతివేగ దన చేతి విరులవీవన చేత విసరి పతికినాకు మడ్పులొసంగి యతివ భర్తను బదులు విడెమిమ్మంచును వెలది ప్రాణ-నాథుని నీక్షించి నవ్వుచు బలుమారు నాశదీరగ మాటలాడుకొనుచునిను జూడకుండిన నిముషమేనియు తాళజాలరా నా ముద్దుసామి యనుచు</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>మితిమీరి కాంక్షతో నతివేగ దన చేతి విరులవీవన చేత విసరి పతికినాకు మడ్పులొసంగి యతివ భర్తను బదులు విడెమిమ్మంచును వెలది ప్రాణ-నాథుని నీక్షించి నవ్వుచు బలుమారు నాశదీరగ మాటలాడుకొనుచునిను జూడకుండిన నిముషమేనియు తాళజాలరా నా ముద్దుసామి యనుచు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
           <t>[('మి', '|'), ('తి', '|'), ('మీ', 'U'), ('రి', '|'), ('కాం', 'U'), ('క్ష', '|'), ('తో', 'U'), ('న', '|'), ('తి', '|'), ('వే', 'U'), ('గ', '|'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('తి', '|'), ('వి', '|'), ('రు', '|'), ('ల', '|'), ('వీ', 'U'), ('వ', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('వి', '|'), ('స', '|'), ('రి', '|'), ('ప', '|'), ('తి', '|'), ('కి', '|'), ('నా', 'U'), ('కు', '|'), ('మ', 'U'), ('డ్పు', '|'), ('లొ', '|'), ('సం', 'U'), ('గి', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('భ', 'U'), ('ర్త', '|'), ('ను', '|'), ('బ', '|'), ('దు', '|'), ('లు', '|'), ('వి', '|'), ('డె', '|'), ('మి', 'U'), ('మ్మం', 'U'), ('చు', '|'), ('ను', '|'), ('వె', '|'), ('ల', '|'), ('ది', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('నా', 'U'), ('శ', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('ని', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('ని', '|'), ('ము', '|'), ('ష', '|'), ('మే', 'U'), ('ని', '|'), ('యు', '|'), ('తా', 'U'), ('ళ', '|'), ('జా', 'U'), ('ల', '|'), ('రా', 'U'), ('నా', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('సా', 'U'), ('మి', '|'), ('య', '|'), ('ను', '|'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జాల మదికింపుమాటల సరసిజాక్షి | మగని వలపింపదగినట్టి మందయాననెలత నేలుట తగునయ్య నెనరుతోడ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>జాల మదికింపుమాటల సరసిజాక్షి | మగని వలపింపదగినట్టి మందయాననెలత నేలుట తగునయ్య నెనరుతోడ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('ల', '|'), ('మ', '|'), ('ది', '|'), ('కిం', 'U'), ('పు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('స', '|'), ('ర', '|'), ('సి', '|'), ('జా', 'U'), ('క్షి', '|'), ('మ', '|'), ('గ', '|'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('పిం', 'U'), ('ప', '|'), ('ద', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('నే', 'U'), ('లు', '|'), ('ట', '|'), ('త', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('తో', 'U'), ('డ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>వనజాక్షి నెరనీటు వగలు చూచిన మది నిలువ నోపగరాదు నీరజాక్షకనకాంగి నెమ్మెయికాంతి జూచినయపుడె తమి నిల్ప వశమౌనె దానవారిమగువ జిలిబిలి ముద్దుమాటలాలించిన నాశ మాన్ప దరంబె యమరవంద్యశిబ్బెంపుగుబ్బల చిత్రంబు జూచిన మోహంబు మానునే మోహనాంగ</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>వనజాక్షి నెరనీటు వగలు చూచిన మది నిలువ నోపగరాదు నీరజాక్షకనకాంగి నెమ్మెయికాంతి జూచినయపుడె తమి నిల్ప వశమౌనె దానవారిమగువ జిలిబిలి ముద్దుమాటలాలించిన నాశ మాన్ప దరంబె యమరవంద్యశిబ్బెంపుగుబ్బల చిత్రంబు జూచిన మోహంబు మానునే మోహనాంగ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('నె', '|'), ('ర', '|'), ('నీ', 'U'), ('టు', '|'), ('వ', '|'), ('గ', '|'), ('లు', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('నో', 'U'), ('ప', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('క', '|'), ('న', '|'), ('కాం', 'U'), ('గి', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('కాం', 'U'), ('తి', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('య', '|'), ('పు', '|'), ('డె', '|'), ('త', '|'), ('మి', '|'), ('ని', 'U'), ('ల్ప', '|'), ('వ', '|'), ('శ', '|'), ('మౌ', 'U'), ('నె', '|'), ('దా', 'U'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('జి', '|'), ('లి', '|'), ('బి', '|'), ('లి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('లిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('శ', '|'), ('మా', 'U'), ('న్ప', '|'), ('ద', '|'), ('రం', 'U'), ('బె', '|'), ('య', '|'), ('మ', '|'), ('ర', '|'), ('వం', 'U'), ('ద్య', '|'), ('శి', 'U'), ('బ్బెం', 'U'), ('పు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('చి', 'U'), ('త్రం', 'U'), ('బు', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('మా', 'U'), ('ను', '|'), ('నే', 'U'), ('మో', 'U'), ('హ', '|'), ('నాం', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన నిక జాగుసేయక కమలనయన | తరుణికడ కిక నతివేగ గదలిరమ్ముఇంతి నీ రాక కేవేళ నెదురుచూచు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>గాన నిక జాగుసేయక కమలనయన | తరుణికడ కిక నతివేగ గదలిరమ్ముఇంతి నీ రాక కేవేళ నెదురుచూచు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('ని', '|'), ('క', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('క', '|'), ('డ', '|'), ('కి', '|'), ('క', '|'), ('న', '|'), ('తి', '|'), ('వే', 'U'), ('గ', '|'), ('గ', '|'), ('ద', '|'), ('లి', '|'), ('ర', 'U'), ('మ్ము', '|'), ('ఇం', 'U'), ('తి', '|'), ('నీ', 'U'), ('రా', 'U'), ('క', '|'), ('కే', 'U'), ('వే', 'U'), ('ళ', '|'), ('నె', '|'), ('దు', '|'), ('రు', '|'), ('చూ', 'U'), ('చు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కాంత నెమ్మెయి సాముగంబము గావించి విభుని పొందుమటంచు వేడుకలరనునుగోటి బాకుల నెనయించి గుబ్బల వదలని చేపట్ల వరుస దెల్పికొమ్మ నునుతొడలను కోణిత నెనయగజేసి మోవిమావుల వింతమొగ్గ నిల్చిచెలి వేణివిసరుల జిరంతసాము ఘటించి సరిబోర దొడరి హెచ్చరిక దెల్పి</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>కాంత నెమ్మెయి సాముగంబము గావించి విభుని పొందుమటంచు వేడుకలరనునుగోటి బాకుల నెనయించి గుబ్బల వదలని చేపట్ల వరుస దెల్పికొమ్మ నునుతొడలను కోణిత నెనయగజేసి మోవిమావుల వింతమొగ్గ నిల్చిచెలి వేణివిసరుల జిరంతసాము ఘటించి సరిబోర దొడరి హెచ్చరిక దెల్పి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
           <t>[('కాం', 'U'), ('త', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('సా', 'U'), ('ము', '|'), ('గం', 'U'), ('బ', '|'), ('ము', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('పొం', 'U'), ('దు', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('ర', '|'), ('ను', '|'), ('ను', '|'), ('గో', 'U'), ('టి', '|'), ('బా', 'U'), ('కు', '|'), ('ల', '|'), ('నె', '|'), ('న', '|'), ('యిం', 'U'), ('చి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('ని', '|'), ('చే', 'U'), ('ప', 'U'), ('ట్ల', '|'), ('వ', '|'), ('రు', '|'), ('స', '|'), ('దె', 'U'), ('ల్పి', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ను', '|'), ('ను', '|'), ('తొ', '|'), ('డ', '|'), ('ల', '|'), ('ను', '|'), ('కో', 'U'), ('ణి', '|'), ('త', '|'), ('నె', '|'), ('న', '|'), ('య', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('మో', 'U'), ('వి', '|'), ('మా', 'U'), ('వు', '|'), ('ల', '|'), ('విం', 'U'), ('త', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('ని', 'U'), ('ల్చి', '|'), ('చె', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('వి', '|'), ('స', '|'), ('రు', '|'), ('ల', '|'), ('జి', '|'), ('రం', 'U'), ('త', '|'), ('సా', 'U'), ('ము', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చి', '|'), ('స', '|'), ('రి', '|'), ('బో', 'U'), ('ర', '|'), ('దొ', '|'), ('డ', '|'), ('రి', '|'), ('హె', 'U'), ('చ్చ', '|'), ('రి', '|'), ('క', '|'), ('దె', 'U'), ('ల్పి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనయ గుబ్బల కుంకుమ యెఱ్ఱమట్టి | మేననంటగ మరునాము మెలత నీకుదెల్ప గోరుచునున్నది దెలసిరమ్ము | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>యనయ గుబ్బల కుంకుమ యెఱ్ఱమట్టి | మేననంటగ మరునాము మెలత నీకుదెల్ప గోరుచునున్నది దెలసిరమ్ము | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('న', '|'), ('య', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('కుం', 'U'), ('కు', '|'), ('మ', '|'), ('యె', 'U'), ('ఱ్ఱ', '|'), ('మ', 'U'), ('ట్టి', '|'), ('మే', 'U'), ('న', '|'), ('నం', 'U'), ('ట', '|'), ('గ', '|'), ('మ', '|'), ('రు', '|'), ('నా', 'U'), ('ము', '|'), ('మె', '|'), ('ల', '|'), ('త', '|'), ('నీ', 'U'), ('కు', '|'), ('దె', 'U'), ('ల్ప', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('ది', '|'), ('దె', '|'), ('ల', '|'), ('సి', '|'), ('ర', 'U'), ('మ్ము', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ధవుని బాసినయట్టి తరి గని నను జూచి వేగ మారుడు చెలరేగు గొమ్మచెలరేగి యదను క్రొంజిగురమ్ము లేసిన గోవెల లటుగూసె మావిగొమ్మమావిగొమ్మ బికాళి మది కలగించిన గల్కిచిల్కలు బల్కె గలివిగొమ్మకలివిమాటలు వినగా నోపకుండిన వెసవీచె దెమ్మెర వేపగొమ్మ</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ధవుని బాసినయట్టి తరి గని నను జూచి వేగ మారుడు చెలరేగు గొమ్మచెలరేగి యదను క్రొంజిగురమ్ము లేసిన గోవెల లటుగూసె మావిగొమ్మమావిగొమ్మ బికాళి మది కలగించిన గల్కిచిల్కలు బల్కె గలివిగొమ్మకలివిమాటలు వినగా నోపకుండిన వెసవీచె దెమ్మెర వేపగొమ్మ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('వు', '|'), ('ని', '|'), ('బా', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('త', '|'), ('రి', '|'), ('గ', '|'), ('ని', '|'), ('న', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('వే', 'U'), ('గ', '|'), ('మా', 'U'), ('రు', '|'), ('డు', '|'), ('చె', '|'), ('ల', '|'), ('రే', 'U'), ('గు', '|'), ('గొ', 'U'), ('మ్మ', '|'), ('చె', '|'), ('ల', '|'), ('రే', 'U'), ('గి', '|'), ('య', '|'), ('ద', '|'), ('ను', 'U'), ('క్రొం', 'U'), ('జి', '|'), ('గు', '|'), ('ర', 'U'), ('మ్ము', '|'), ('లే', 'U'), ('సి', '|'), ('న', '|'), ('గో', 'U'), ('వె', '|'), ('ల', '|'), ('ల', '|'), ('టు', '|'), ('గూ', 'U'), ('సె', '|'), ('మా', 'U'), ('వి', '|'), ('గొ', 'U'), ('మ్మ', '|'), ('మా', 'U'), ('వి', '|'), ('గొ', 'U'), ('మ్మ', '|'), ('బి', '|'), ('కా', 'U'), ('ళి', '|'), ('మ', '|'), ('ది', '|'), ('క', '|'), ('ల', '|'), ('గిం', 'U'), ('చి', '|'), ('న', '|'), ('గ', 'U'), ('ల్కి', '|'), ('చి', 'U'), ('ల్క', '|'), ('లు', '|'), ('బ', 'U'), ('ల్కె', '|'), ('గ', '|'), ('లి', '|'), ('వి', '|'), ('గొ', 'U'), ('మ్మ', '|'), ('క', '|'), ('లి', '|'), ('వి', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('వి', '|'), ('న', '|'), ('గా', 'U'), ('నో', 'U'), ('ప', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('వె', '|'), ('స', '|'), ('వీ', 'U'), ('చె', '|'), ('దె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('వే', 'U'), ('ప', '|'), ('గొ', 'U'), ('మ్మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వెలది యెట్లోర్తు శశిమంట వెలుగ గొమ్మ | పోయెదవె యిప్డు నా పతి బొగడగొమ్మప్రియముతోనని నను బంచె బిల్వగొమ్మ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>వెలది యెట్లోర్తు శశిమంట వెలుగ గొమ్మ | పోయెదవె యిప్డు నా పతి బొగడగొమ్మప్రియముతోనని నను బంచె బిల్వగొమ్మ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('ది', '|'), ('యె', 'U'), ('ట్లో', 'U'), ('ర్తు', '|'), ('శ', '|'), ('శి', '|'), ('మం', 'U'), ('ట', '|'), ('వె', '|'), ('లు', '|'), ('గ', '|'), ('గొ', 'U'), ('మ్మ', '|'), ('పో', 'U'), ('యె', '|'), ('ద', '|'), ('వె', '|'), ('యి', 'U'), ('ప్డు', '|'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('గొ', 'U'), ('మ్మ', 'U'), ('ప్రి', '|'), ('య', '|'), ('ము', '|'), ('తో', 'U'), ('న', '|'), ('ని', '|'), ('న', '|'), ('ను', '|'), ('బం', 'U'), ('చె', '|'), ('బి', 'U'), ('ల్వ', '|'), ('గొ', 'U'), ('మ్మ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కన్నెకు నాల్గింట గల్గును కన్బొమ లందగత్తెల మేటి యా వధూటికన్నెకు నేడింట గల్గును నేత్రముల్ మరుచేతితూపు యా మగువ చూపుకన్నెకు నాఱింట గలుగును కుచములు గొప్పలై పూచెండ్ల యొప్పు దెగడుకన్నెకు బదిరెంట గల్గు నెన్నడు మది యణుమాత్రమగు జాడ నరసి చూడ</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>కన్నెకు నాల్గింట గల్గును కన్బొమ లందగత్తెల మేటి యా వధూటికన్నెకు నేడింట గల్గును నేత్రముల్ మరుచేతితూపు యా మగువ చూపుకన్నెకు నాఱింట గలుగును కుచములు గొప్పలై పూచెండ్ల యొప్పు దెగడుకన్నెకు బదిరెంట గల్గు నెన్నడు మది యణుమాత్రమగు జాడ నరసి చూడ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('నా', 'U'), ('ల్గిం', 'U'), ('ట', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ను', '|'), ('క', 'U'), ('న్బొ', '|'), ('మ', '|'), ('లం', 'U'), ('ద', '|'), ('గ', 'U'), ('త్తె', '|'), ('ల', '|'), ('మే', 'U'), ('టి', '|'), ('యా', 'U'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('నే', 'U'), ('డిం', 'U'), ('ట', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ను', '|'), ('నే', 'U'), ('త్ర', '|'), ('ముల్', 'U'), ('మ', '|'), ('రు', '|'), ('చే', 'U'), ('తి', '|'), ('తూ', 'U'), ('పు', '|'), ('యా', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('చూ', 'U'), ('పు', '|'), ('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('నా', 'U'), ('ఱిం', 'U'), ('ట', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('ను', '|'), ('కు', '|'), ('చ', '|'), ('ము', '|'), ('లు', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('లై', 'U'), ('పూ', 'U'), ('చెం', 'U'), ('డ్ల', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('దె', '|'), ('గ', '|'), ('డు', '|'), ('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('బ', '|'), ('ది', '|'), ('రెం', 'U'), ('ట', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('మ', '|'), ('ది', '|'), ('య', '|'), ('ణు', '|'), ('మా', 'U'), ('త్ర', '|'), ('మ', '|'), ('గు', '|'), ('జా', 'U'), ('డ', '|'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కన్నె కేనిటు బదములు గల్గియుండు కన్నెకును బదియవదియు గలుగు నీకుకన్నెకును రెండవది నీకు కన్యకనుచు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>కన్నె కేనిటు బదములు గల్గియుండు కన్నెకును బదియవదియు గలుగు నీకుకన్నెకును రెండవది నీకు కన్యకనుచు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('న్నె', '|'), ('కే', 'U'), ('ని', '|'), ('టు', '|'), ('బ', '|'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యుం', 'U'), ('డు', '|'), ('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('ను', '|'), ('బ', '|'), ('ది', '|'), ('య', '|'), ('వ', '|'), ('ది', '|'), ('యు', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('ను', '|'), ('రెం', 'U'), ('డ', '|'), ('వ', '|'), ('ది', '|'), ('నీ', 'U'), ('కు', '|'), ('క', 'U'), ('న్య', '|'), ('క', '|'), ('ను', '|'), ('చు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నీవు రావలెనంచు నెమ్మది దా గోరి గౌరీవ్రతము సేయు గంబుకంఠితోడ భాషింప నిజముగా మదిగోరి చెలి సరస్వతిపూజ సేయుచుండునీతోడ రతిగూడ నెలత దా నెదగోరి మదనుని బూజించు మందయాననీవు దయజూడంగ నిజభక్తి వరలక్ష్మినోము గావించు దా నుచితముగను</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>నీవు రావలెనంచు నెమ్మది దా గోరి గౌరీవ్రతము సేయు గంబుకంఠితోడ భాషింప నిజముగా మదిగోరి చెలి సరస్వతిపూజ సేయుచుండునీతోడ రతిగూడ నెలత దా నెదగోరి మదనుని బూజించు మందయాననీవు దయజూడంగ నిజభక్తి వరలక్ష్మినోము గావించు దా నుచితముగను</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('వు', '|'), ('రా', 'U'), ('వ', '|'), ('లె', '|'), ('నం', 'U'), ('చు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('ది', '|'), ('దా', 'U'), ('గో', 'U'), ('రి', '|'), ('గౌ', 'U'), ('రీ', 'U'), ('వ్ర', '|'), ('త', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('కం', 'U'), ('ఠి', '|'), ('తో', 'U'), ('డ', '|'), ('భా', 'U'), ('షిం', 'U'), ('ప', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('గా', 'U'), ('మ', '|'), ('ది', '|'), ('గో', 'U'), ('రి', '|'), ('చె', '|'), ('లి', '|'), ('స', '|'), ('ర', 'U'), ('స్వ', '|'), ('తి', '|'), ('పూ', 'U'), ('జ', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('తో', 'U'), ('డ', '|'), ('ర', '|'), ('తి', '|'), ('గూ', 'U'), ('డ', '|'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('దా', 'U'), ('నె', '|'), ('ద', '|'), ('గో', 'U'), ('రి', '|'), ('మ', '|'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('బూ', 'U'), ('జిం', 'U'), ('చు', '|'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('నీ', 'U'), ('వు', '|'), ('ద', '|'), ('య', '|'), ('జూ', 'U'), ('డం', 'U'), ('గ', '|'), ('ని', '|'), ('జ', '|'), ('భ', 'U'), ('క్తి', '|'), ('వ', '|'), ('ర', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('నో', 'U'), ('ము', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('దా', 'U'), ('ను', '|'), ('చి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>భామ యీ రీతి వ్రతములు భక్తితోడ | జేయుచున్నది యచ్చట సిద్ధముగనుగలికి నీపైని నతిమోహకాంక్ష జెంది | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>భామ యీ రీతి వ్రతములు భక్తితోడ | జేయుచున్నది యచ్చట సిద్ధముగనుగలికి నీపైని నతిమోహకాంక్ష జెంది | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
           <t>[('భా', 'U'), ('మ', '|'), ('యీ', 'U'), ('రీ', 'U'), ('తి', 'U'), ('వ్ర', '|'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('డ', '|'), ('జే', 'U'), ('యు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('య', 'U'), ('చ్చ', '|'), ('ట', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('గ', '|'), ('లి', '|'), ('కి', '|'), ('నీ', 'U'), ('పై', 'U'), ('ని', '|'), ('న', '|'), ('తి', '|'), ('మో', 'U'), ('హ', '|'), ('కాం', 'U'), ('క్ష', '|'), ('జెం', 'U'), ('ది', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చాన నీపై వలపు మానెద నేవేళ బూని చిలుకలతోడ బోరుచుండుబాల నీపై జాల బాళిచే దుమ్మెదరో దలకు దన మది రోయుచుండుకామిని నీయందు కాంక్షను గోర్వంక కలకలంబుల కెదఁ దలకుచుండుభామిని విరహార్తిబాధితయై నెమ్మి కేకలకును మది గనుకచెందు</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>చాన నీపై వలపు మానెద నేవేళ బూని చిలుకలతోడ బోరుచుండుబాల నీపై జాల బాళిచే దుమ్మెదరో దలకు దన మది రోయుచుండుకామిని నీయందు కాంక్షను గోర్వంక కలకలంబుల కెదఁ దలకుచుండుభామిని విరహార్తిబాధితయై నెమ్మి కేకలకును మది గనుకచెందు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('న', '|'), ('నీ', 'U'), ('పై', 'U'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('మా', 'U'), ('నె', '|'), ('ద', '|'), ('నే', 'U'), ('వే', 'U'), ('ళ', '|'), ('బూ', 'U'), ('ని', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('బో', 'U'), ('రు', '|'), ('చుం', 'U'), ('డు', '|'), ('బా', 'U'), ('ల', '|'), ('నీ', 'U'), ('పై', 'U'), ('జా', 'U'), ('ల', '|'), ('బా', 'U'), ('ళి', '|'), ('చే', 'U'), ('దు', 'U'), ('మ్మె', '|'), ('ద', '|'), ('రో', 'U'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('ద', '|'), ('న', '|'), ('మ', '|'), ('ది', '|'), ('రో', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('కాం', 'U'), ('క్ష', '|'), ('ను', '|'), ('గో', 'U'), ('ర్వం', 'U'), ('క', '|'), ('క', '|'), ('ల', '|'), ('క', '|'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('కె', '|'), ('ద', '|'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('చుం', 'U'), ('డు', '|'), ('భా', 'U'), ('మి', '|'), ('ని', '|'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('ర్తి', '|'), ('బా', 'U'), ('ధి', '|'), ('త', '|'), ('యై', 'U'), ('నె', 'U'), ('మ్మి', '|'), ('కే', 'U'), ('క', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('మ', '|'), ('ది', '|'), ('గ', '|'), ('ను', '|'), ('క', '|'), ('చెం', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మగువ యీ రీతి మోహాబ్ధిమగ్న యగుచు | నున్న దాయింతి నెడబాయ నుచితమగునెజాగుసేయక రావయ్య సారసాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>మగువ యీ రీతి మోహాబ్ధిమగ్న యగుచు | నున్న దాయింతి నెడబాయ నుచితమగునెజాగుసేయక రావయ్య సారసాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('గు', '|'), ('వ', '|'), ('యీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('మో', 'U'), ('హా', 'U'), ('బ్ధి', '|'), ('మ', 'U'), ('గ్న', '|'), ('య', '|'), ('గు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('దా', 'U'), ('యిం', 'U'), ('తి', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('ను', '|'), ('చి', '|'), ('త', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('సా', 'U'), ('ర', '|'), ('సా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>విరిబోడి నిను జేరి వింతవింతగ మాటలాడదే ముదమున హవుసుమీరకొమ్మ పైకొని చాల ఘుమఘుమ వాసిల్ల పన్నీరు జల్లదే బాగుమీరయెలనాగ నినుగూడి యెదయెద గదియించి పలుమారు పెనగదే బాళిమీరనలివేణి నిను డాసి యక్కునక్కున జేర్చి గలయదే మరుకేళి ఘనతమీర</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>విరిబోడి నిను జేరి వింతవింతగ మాటలాడదే ముదమున హవుసుమీరకొమ్మ పైకొని చాల ఘుమఘుమ వాసిల్ల పన్నీరు జల్లదే బాగుమీరయెలనాగ నినుగూడి యెదయెద గదియించి పలుమారు పెనగదే బాళిమీరనలివేణి నిను డాసి యక్కునక్కున జేర్చి గలయదే మరుకేళి ఘనతమీర</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('రి', '|'), ('బో', 'U'), ('డి', '|'), ('ని', '|'), ('ను', '|'), ('జే', 'U'), ('రి', '|'), ('విం', 'U'), ('త', '|'), ('విం', 'U'), ('త', '|'), ('గ', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డ', '|'), ('దే', 'U'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('హ', '|'), ('వు', '|'), ('సు', '|'), ('మీ', 'U'), ('ర', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('పై', 'U'), ('కొ', '|'), ('ని', '|'), ('చా', 'U'), ('ల', '|'), ('ఘు', '|'), ('మ', '|'), ('ఘు', '|'), ('మ', '|'), ('వా', 'U'), ('సి', 'U'), ('ల్ల', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('జ', 'U'), ('ల్ల', '|'), ('దే', 'U'), ('బా', 'U'), ('గు', '|'), ('మీ', 'U'), ('ర', '|'), ('యె', '|'), ('ల', '|'), ('నా', 'U'), ('గ', '|'), ('ని', '|'), ('ను', '|'), ('గూ', 'U'), ('డి', '|'), ('యె', '|'), ('ద', '|'), ('యె', '|'), ('ద', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('పె', '|'), ('న', '|'), ('గ', '|'), ('దే', 'U'), ('బా', 'U'), ('ళి', '|'), ('మీ', 'U'), ('ర', '|'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('ని', '|'), ('ను', '|'), ('డా', 'U'), ('సి', '|'), ('య', 'U'), ('క్కు', '|'), ('న', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్చి', '|'), ('గ', '|'), ('ల', '|'), ('య', '|'), ('దే', 'U'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('మీ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన నా యింతి నేలుము గారవమున | చాన నిను వలచియున్నది జాగువలదుపూని యిక వేగ రావయ్య పొలతి కడకు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>గాన నా యింతి నేలుము గారవమున | చాన నిను వలచియున్నది జాగువలదుపూని యిక వేగ రావయ్య పొలతి కడకు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('నా', 'U'), ('యిం', 'U'), ('తి', '|'), ('నే', 'U'), ('లు', '|'), ('ము', '|'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('చా', 'U'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('జా', 'U'), ('గు', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('పూ', 'U'), ('ని', '|'), ('యి', '|'), ('క', '|'), ('వే', 'U'), ('గ', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('పొ', '|'), ('ల', '|'), ('తి', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ముదమున నీ ముద్దుమోము చూడక గాని విరహంబు మానునే తరుణికిపుడుమనమార నిను గూడి మరుకేళి గలయక యాశలు దీరునే యతివకిపుడుకోర్కెతో నుపరతి గూడి మెప్పింపక మానునే వ్యసనంబు మగువకిపుడు... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ...</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ముదమున నీ ముద్దుమోము చూడక గాని విరహంబు మానునే తరుణికిపుడుమనమార నిను గూడి మరుకేళి గలయక యాశలు దీరునే యతివకిపుడుకోర్కెతో నుపరతి గూడి మెప్పింపక మానునే వ్యసనంబు మగువకిపుడు... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ... ...</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('నీ', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('మో', 'U'), ('ము', '|'), ('చూ', 'U'), ('డ', '|'), ('క', '|'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('ర', '|'), ('హం', 'U'), ('బు', '|'), ('మా', 'U'), ('ను', '|'), ('నే', 'U'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('కి', '|'), ('పు', '|'), ('డు', '|'), ('మ', '|'), ('న', '|'), ('మా', 'U'), ('ర', '|'), ('ని', '|'), ('ను', '|'), ('గూ', 'U'), ('డి', '|'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('గ', '|'), ('ల', '|'), ('య', '|'), ('క', '|'), ('యా', 'U'), ('శ', '|'), ('లు', '|'), ('దీ', 'U'), ('రు', '|'), ('నే', 'U'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('కి', '|'), ('పు', '|'), ('డు', '|'), ('కో', 'U'), ('ర్కె', '|'), ('తో', 'U'), ('ను', '|'), ('ప', '|'), ('ర', '|'), ('తి', '|'), ('గూ', 'U'), ('డి', '|'), ('మె', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('క', '|'), ('మా', 'U'), ('ను', '|'), ('నే', 'U'), ('వ్య', '|'), ('స', '|'), ('నం', 'U'), ('బు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('కి', '|'), ('పు', '|'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కలికి యీ రీతి మదిలోన కలక జెంది | యున్న దా యింతి నతివేగ నూరడించిజాగుసేయక నేలుము జలరుహాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>కలికి యీ రీతి మదిలోన కలక జెంది | యున్న దా యింతి నతివేగ నూరడించిజాగుసేయక నేలుము జలరుహాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('కి', '|'), ('యీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('న', '|'), ('క', '|'), ('ల', '|'), ('క', '|'), ('జెం', 'U'), ('ది', '|'), ('యు', 'U'), ('న్న', '|'), ('దా', 'U'), ('యిం', 'U'), ('తి', '|'), ('న', '|'), ('తి', '|'), ('వే', 'U'), ('గ', '|'), ('నూ', 'U'), ('ర', '|'), ('డిం', 'U'), ('చి', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('నే', 'U'), ('లు', '|'), ('ము', '|'), ('జ', '|'), ('ల', '|'), ('రు', '|'), ('హా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కనకాంగి నీ బిగికౌఁగిట జేరను దలచదా మరుబారి తాళలేకకొమ్మ నీ యెద కుల్కుగుబ్బల గదియింప మది గోరదా తమి మానలేకముదిత నీ చెక్కులు ముద్దాడ దలవదా నిండిన మోహంబు నిలుపలేకకాంత నీతో రతి కలయగా నెంచదా విరహానలముచేత వేగలేక</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>కనకాంగి నీ బిగికౌఁగిట జేరను దలచదా మరుబారి తాళలేకకొమ్మ నీ యెద కుల్కుగుబ్బల గదియింప మది గోరదా తమి మానలేకముదిత నీ చెక్కులు ముద్దాడ దలవదా నిండిన మోహంబు నిలుపలేకకాంత నీతో రతి కలయగా నెంచదా విరహానలముచేత వేగలేక</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('న', '|'), ('కాం', 'U'), ('గి', '|'), ('నీ', 'U'), ('బి', '|'), ('గి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర', '|'), ('ను', '|'), ('ద', '|'), ('ల', '|'), ('చ', '|'), ('దా', 'U'), ('మ', '|'), ('రు', '|'), ('బా', 'U'), ('రి', '|'), ('తా', 'U'), ('ళ', '|'), ('లే', 'U'), ('క', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('నీ', 'U'), ('యె', '|'), ('ద', '|'), ('కు', 'U'), ('ల్కు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('ప', '|'), ('మ', '|'), ('ది', '|'), ('గో', 'U'), ('ర', '|'), ('దా', 'U'), ('త', '|'), ('మి', '|'), ('మా', 'U'), ('న', '|'), ('లే', 'U'), ('క', '|'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('నీ', 'U'), ('చె', 'U'), ('క్కు', '|'), ('లు', '|'), ('ము', 'U'), ('ద్దా', 'U'), ('డ', '|'), ('ద', '|'), ('ల', '|'), ('వ', '|'), ('దా', 'U'), ('నిం', 'U'), ('డి', '|'), ('న', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('కాం', 'U'), ('త', '|'), ('నీ', 'U'), ('తో', 'U'), ('ర', '|'), ('తి', '|'), ('క', '|'), ('ల', '|'), ('య', '|'), ('గా', 'U'), ('నెం', 'U'), ('చ', '|'), ('దా', 'U'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('న', '|'), ('ల', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('వే', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కలికి నీయందు నతిమోహకాంక్ష జెంది నిన్నే దలచుచునున్నది నీరజాక్షవేడ్కతోడను రావయ్య వనితకడకు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>కలికి నీయందు నతిమోహకాంక్ష జెంది నిన్నే దలచుచునున్నది నీరజాక్షవేడ్కతోడను రావయ్య వనితకడకు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('కి', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('న', '|'), ('తి', '|'), ('మో', 'U'), ('హ', '|'), ('కాం', 'U'), ('క్ష', '|'), ('జెం', 'U'), ('ది', '|'), ('ని', 'U'), ('న్నే', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('ది', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('వే', 'U'), ('డ్క', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నీటుమీరగ దళ్కు నిడువాలుగన్నుల గాటపు వగ గుల్క కాటుకలదియందమౌ మోమున పొందుగా కస్తూరితిలకంబు కొనగోట దిద్ది వేగనెరివేణి పొదవున విరిసరంబులు దాల్చి నరరత్నభూషణావళులు మెరయరంగుబుటేదారి రవికె యొప్పుగ దొడగి చెంగావిసరిగంచు చీర గట్టి</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>నీటుమీరగ దళ్కు నిడువాలుగన్నుల గాటపు వగ గుల్క కాటుకలదియందమౌ మోమున పొందుగా కస్తూరితిలకంబు కొనగోట దిద్ది వేగనెరివేణి పొదవున విరిసరంబులు దాల్చి నరరత్నభూషణావళులు మెరయరంగుబుటేదారి రవికె యొప్పుగ దొడగి చెంగావిసరిగంచు చీర గట్టి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('టు', '|'), ('మీ', 'U'), ('ర', '|'), ('గ', '|'), ('ద', 'U'), ('ళ్కు', '|'), ('ని', '|'), ('డు', '|'), ('వా', 'U'), ('లు', '|'), ('గ', 'U'), ('న్ను', '|'), ('ల', '|'), ('గా', 'U'), ('ట', '|'), ('పు', '|'), ('వ', '|'), ('గ', '|'), ('గు', 'U'), ('ల్క', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('ల', '|'), ('ది', '|'), ('యం', 'U'), ('ద', '|'), ('మౌ', 'U'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('పొం', 'U'), ('దు', '|'), ('గా', 'U'), ('క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('తి', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('కొ', '|'), ('న', '|'), ('గో', 'U'), ('ట', '|'), ('ది', 'U'), ('ద్ది', '|'), ('వే', 'U'), ('గ', '|'), ('నె', '|'), ('రి', '|'), ('వే', 'U'), ('ణి', '|'), ('పొ', '|'), ('ద', '|'), ('వు', '|'), ('న', '|'), ('వి', '|'), ('రి', '|'), ('స', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('దా', 'U'), ('ల్చి', '|'), ('న', '|'), ('ర', '|'), ('ర', 'U'), ('త్న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణా', 'U'), ('వ', '|'), ('ళు', '|'), ('లు', '|'), ('మె', '|'), ('ర', '|'), ('య', '|'), ('రం', 'U'), ('గు', '|'), ('బు', '|'), ('టే', 'U'), ('దా', 'U'), ('రి', '|'), ('ర', '|'), ('వి', '|'), ('కె', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('గ', '|'), ('దొ', '|'), ('డ', '|'), ('గి', '|'), ('చెం', 'U'), ('గా', 'U'), ('వి', '|'), ('స', '|'), ('రి', '|'), ('గం', 'U'), ('చు', '|'), ('చీ', 'U'), ('ర', '|'), ('గ', 'U'), ('ట్టి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వెడలి యారామమెల్లను వెతకి నిన్ను | గాన కిటు నన్ను బంపెను గమలనాభకరుణగల్గియు నా ఇంతికడకు రమ్ము | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>వెడలి యారామమెల్లను వెతకి నిన్ను | గాన కిటు నన్ను బంపెను గమలనాభకరుణగల్గియు నా ఇంతికడకు రమ్ము | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('డ', '|'), ('లి', '|'), ('యా', 'U'), ('రా', 'U'), ('మ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('వె', '|'), ('త', '|'), ('కి', '|'), ('ని', 'U'), ('న్ను', '|'), ('గా', 'U'), ('న', '|'), ('కి', '|'), ('టు', '|'), ('న', 'U'), ('న్ను', '|'), ('బం', 'U'), ('పె', '|'), ('ను', '|'), ('గ', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భ', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యు', '|'), ('నా', 'U'), ('ఇం', 'U'), ('తి', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('ర', 'U'), ('మ్ము', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కనకాంగిపై నీకు గడుమోహమగుటకు వనిత కొప్పున దాల్చు వకుళసరమునానవాలుగ నిచ్చి యంపెను గైకొమ్ము మనమున సంతోషమంది వేగవలనొప్ప మదనాగ్ని వనితకు జల్లార్చి కడుప్రియంబున ఇంతి గలసిమెలసిశుకవాణికడ జేరి సుఖలీల నుండుట కిది సమయము నీకు నింపుతోడ</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>కనకాంగిపై నీకు గడుమోహమగుటకు వనిత కొప్పున దాల్చు వకుళసరమునానవాలుగ నిచ్చి యంపెను గైకొమ్ము మనమున సంతోషమంది వేగవలనొప్ప మదనాగ్ని వనితకు జల్లార్చి కడుప్రియంబున ఇంతి గలసిమెలసిశుకవాణికడ జేరి సుఖలీల నుండుట కిది సమయము నీకు నింపుతోడ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('న', '|'), ('కాం', 'U'), ('గి', '|'), ('పై', 'U'), ('నీ', 'U'), ('కు', '|'), ('గ', '|'), ('డు', '|'), ('మో', 'U'), ('హ', '|'), ('మ', '|'), ('గు', '|'), ('ట', '|'), ('కు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('న', '|'), ('దా', 'U'), ('ల్చు', '|'), ('వ', '|'), ('కు', '|'), ('ళ', '|'), ('స', '|'), ('ర', '|'), ('ము', '|'), ('నా', 'U'), ('న', '|'), ('వా', 'U'), ('లు', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('యం', 'U'), ('పె', '|'), ('ను', '|'), ('గై', 'U'), ('కొ', 'U'), ('మ్ము', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('మం', 'U'), ('ది', '|'), ('వే', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('మ', '|'), ('ద', '|'), ('నా', 'U'), ('గ్ని', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('కు', '|'), ('జ', 'U'), ('ల్లా', 'U'), ('ర్చి', '|'), ('క', '|'), ('డు', 'U'), ('ప్రి', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('ఇం', 'U'), ('తి', '|'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('మె', '|'), ('ల', '|'), ('సి', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('క', '|'), ('డ', '|'), ('జే', 'U'), ('రి', '|'), ('సు', '|'), ('ఖ', '|'), ('లీ', 'U'), ('ల', '|'), ('నుం', 'U'), ('డు', '|'), ('ట', '|'), ('కి', '|'), ('ది', '|'), ('స', '|'), ('మ', '|'), ('య', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('నిం', 'U'), ('పు', '|'), ('తో', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన నిను బిల్వవచ్చితి గమలనాభ | తామసించిన నా యింతి తాళదింకకరుణతోడను రావయ్య కమలనాభ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>గాన నిను బిల్వవచ్చితి గమలనాభ | తామసించిన నా యింతి తాళదింకకరుణతోడను రావయ్య కమలనాభ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('గ', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భ', '|'), ('తా', 'U'), ('మ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('యిం', 'U'), ('తి', '|'), ('తా', 'U'), ('ళ', '|'), ('దిం', 'U'), ('క', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చెలియ పాలిండ్లు నీ చేతులకబ్బెనా దుర్గాధిపత్యంబు దొరికినట్లుకనకాంగి నక్కున గదియింపగల్గిన యతనుసామ్రాజ్యము నందినట్లుఘనవేణి విపులజఘన మెక్కగలిగిన భూమండలమునెల్ల బూనినట్లుకలికి యూరువు నంటగలిగిన నిచటనె కొమరొప్పగా రంభ గూడినట్లు</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>చెలియ పాలిండ్లు నీ చేతులకబ్బెనా దుర్గాధిపత్యంబు దొరికినట్లుకనకాంగి నక్కున గదియింపగల్గిన యతనుసామ్రాజ్యము నందినట్లుఘనవేణి విపులజఘన మెక్కగలిగిన భూమండలమునెల్ల బూనినట్లుకలికి యూరువు నంటగలిగిన నిచటనె కొమరొప్పగా రంభ గూడినట్లు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లి', '|'), ('య', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్లు', '|'), ('నీ', 'U'), ('చే', 'U'), ('తు', '|'), ('ల', '|'), ('క', 'U'), ('బ్బె', '|'), ('నా', 'U'), ('దు', 'U'), ('ర్గా', 'U'), ('ధి', '|'), ('ప', 'U'), ('త్యం', 'U'), ('బు', '|'), ('దొ', '|'), ('రి', '|'), ('కి', '|'), ('న', 'U'), ('ట్లు', '|'), ('క', '|'), ('న', '|'), ('కాం', 'U'), ('గి', '|'), ('న', 'U'), ('క్కు', '|'), ('న', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('ప', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('య', '|'), ('త', '|'), ('ను', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('నం', 'U'), ('ది', '|'), ('న', 'U'), ('ట్లు', '|'), ('ఘ', '|'), ('న', '|'), ('వే', 'U'), ('ణి', '|'), ('వి', '|'), ('పు', '|'), ('ల', '|'), ('జ', '|'), ('ఘ', '|'), ('న', '|'), ('మె', 'U'), ('క్క', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('భూ', 'U'), ('మం', 'U'), ('డ', '|'), ('ల', '|'), ('ము', '|'), ('నె', 'U'), ('ల్ల', '|'), ('బూ', 'U'), ('ని', '|'), ('న', 'U'), ('ట్లు', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('యూ', 'U'), ('రు', '|'), ('వు', '|'), ('నం', 'U'), ('ట', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('ని', '|'), ('చ', '|'), ('ట', '|'), ('నె', '|'), ('కొ', '|'), ('మ', '|'), ('రొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('రం', 'U'), ('భ', '|'), ('గూ', 'U'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన నా యింతితో గూడగలిగెనేని | నెల్లభోగంబులును నీకు నెలమి గల్గుతరుణమిప్పుడు రావయ్య తరుణి కడకు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>గాన నా యింతితో గూడగలిగెనేని | నెల్లభోగంబులును నీకు నెలమి గల్గుతరుణమిప్పుడు రావయ్య తరుణి కడకు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('నా', 'U'), ('యిం', 'U'), ('తి', '|'), ('తో', 'U'), ('గూ', 'U'), ('డ', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('నే', 'U'), ('ని', '|'), ('నె', 'U'), ('ల్ల', '|'), ('భో', 'U'), ('గం', 'U'), ('బు', '|'), ('లు', '|'), ('ను', '|'), ('నీ', 'U'), ('కు', '|'), ('నె', '|'), ('ల', '|'), ('మి', '|'), ('గ', 'U'), ('ల్గు', '|'), ('త', '|'), ('రు', '|'), ('ణ', '|'), ('మి', 'U'), ('ప్పు', '|'), ('డు', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పూర్ణచంద్రుని సరిబోల్పవచ్చును కాంత మోమున కకలంకమూర్తియైనబంధుజీవముదొర భామ కెమ్మోవికి వికసించి కడువిఱ్ఱవీగకున్నదరమెన యనదగు తరుణి కంఠమునకు కఠినత్వమందున గలుగకున్నతమ్మిమొగ్గలు సాటి తరుణి పాలిండ్లకు బొసగ పంకంబున బుట్టకున్న</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>పూర్ణచంద్రుని సరిబోల్పవచ్చును కాంత మోమున కకలంకమూర్తియైనబంధుజీవముదొర భామ కెమ్మోవికి వికసించి కడువిఱ్ఱవీగకున్నదరమెన యనదగు తరుణి కంఠమునకు కఠినత్వమందున గలుగకున్నతమ్మిమొగ్గలు సాటి తరుణి పాలిండ్లకు బొసగ పంకంబున బుట్టకున్న</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
           <t>[('పూ', 'U'), ('ర్ణ', '|'), ('చం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('స', '|'), ('రి', '|'), ('బో', 'U'), ('ల్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('కాం', 'U'), ('త', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('క', '|'), ('క', '|'), ('లం', 'U'), ('క', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('యై', 'U'), ('న', '|'), ('బం', 'U'), ('ధు', '|'), ('జీ', 'U'), ('వ', '|'), ('ము', '|'), ('దొ', '|'), ('ర', '|'), ('భా', 'U'), ('మ', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('కి', '|'), ('వి', '|'), ('క', '|'), ('సిం', 'U'), ('చి', '|'), ('క', '|'), ('డు', '|'), ('వి', 'U'), ('ఱ్ఱ', '|'), ('వీ', 'U'), ('గ', '|'), ('కు', 'U'), ('న్న', '|'), ('ద', '|'), ('ర', '|'), ('మె', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('కం', 'U'), ('ఠ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('క', '|'), ('ఠి', '|'), ('న', 'U'), ('త్వ', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('కు', 'U'), ('న్న', '|'), ('త', 'U'), ('మ్మి', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('లు', '|'), ('సా', 'U'), ('టి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('బొ', '|'), ('స', '|'), ('గ', '|'), ('పం', 'U'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('బు', 'U'), ('ట్ట', '|'), ('కు', 'U'), ('న్న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిన్ని సరిగాకనే కదా యెలమి క్షీణమొందె నొక్కటి వేసవి గందె నొకటిజలధి బడె నొండు నీటిలో జారె నొండు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>నిన్ని సరిగాకనే కదా యెలమి క్షీణమొందె నొక్కటి వేసవి గందె నొకటిజలధి బడె నొండు నీటిలో జారె నొండు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్ని', '|'), ('స', '|'), ('రి', '|'), ('గా', 'U'), ('క', '|'), ('నే', 'U'), ('క', '|'), ('దా', 'U'), ('యె', '|'), ('ల', '|'), ('మి', 'U'), ('క్షీ', 'U'), ('ణ', '|'), ('మొం', 'U'), ('దె', '|'), ('నొ', 'U'), ('క్క', '|'), ('టి', '|'), ('వే', 'U'), ('స', '|'), ('వి', '|'), ('గం', 'U'), ('దె', '|'), ('నొ', '|'), ('క', '|'), ('టి', '|'), ('జ', '|'), ('ల', '|'), ('ధి', '|'), ('బ', '|'), ('డె', '|'), ('నొం', 'U'), ('డు', '|'), ('నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('జా', 'U'), ('రె', '|'), ('నొం', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తంబుర సుతిగూర్చి తరుణి తా జిలిబిలిపాటలు పాడెడి ఫణితి వినరస్వరకల్పనంబుల సరి నెమ్మిగా వజక్రౌంచపికతురంగగజనినాద-ముల యొప్పిదములను ముద్దుగుల్కెడి తాళలయపద్ధతుల నింపు లలర మదినిసర్వవర్జిత మెరింగి కరిరాగాలాప మొనరించు హాయిగా ముద్దుగుమ్మ</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>తంబుర సుతిగూర్చి తరుణి తా జిలిబిలిపాటలు పాడెడి ఫణితి వినరస్వరకల్పనంబుల సరి నెమ్మిగా వజక్రౌంచపికతురంగగజనినాద-ముల యొప్పిదములను ముద్దుగుల్కెడి తాళలయపద్ధతుల నింపు లలర మదినిసర్వవర్జిత మెరింగి కరిరాగాలాప మొనరించు హాయిగా ముద్దుగుమ్మ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
           <t>[('తం', 'U'), ('బు', '|'), ('ర', '|'), ('సు', '|'), ('తి', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('తా', 'U'), ('జి', '|'), ('లి', '|'), ('బి', '|'), ('లి', '|'), ('పా', 'U'), ('ట', '|'), ('లు', '|'), ('పా', 'U'), ('డె', '|'), ('డి', '|'), ('ఫ', '|'), ('ణి', '|'), ('తి', '|'), ('వి', '|'), ('న', '|'), ('ర', 'U'), ('స్వ', '|'), ('ర', '|'), ('క', 'U'), ('ల్ప', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('స', '|'), ('రి', '|'), ('నె', 'U'), ('మ్మి', '|'), ('గా', 'U'), ('వ', '|'), ('జ', 'U'), ('క్రౌం', 'U'), ('చ', '|'), ('పి', '|'), ('క', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('గ', '|'), ('జ', '|'), ('ని', '|'), ('నా', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('యొ', 'U'), ('ప్పి', '|'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('ల్కె', '|'), ('డి', '|'), ('తా', 'U'), ('ళ', '|'), ('ల', '|'), ('య', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తు', '|'), ('ల', '|'), ('నిం', 'U'), ('పు', '|'), ('ల', '|'), ('ల', '|'), ('ర', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('స', 'U'), ('ర్వ', '|'), ('వ', 'U'), ('ర్జి', '|'), ('త', '|'), ('మె', '|'), ('రిం', 'U'), ('గి', '|'), ('క', '|'), ('రి', '|'), ('రా', 'U'), ('గా', 'U'), ('లా', 'U'), ('ప', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('హా', 'U'), ('యి', '|'), ('గా', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('మ్మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దానితో సరి యెవ్వరి గాన జగతి | నీకె దగినట్టి వగగల నేర్పులాడిచాన నేలుట తగునట్టి జాణవీవు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>దానితో సరి యెవ్వరి గాన జగతి | నీకె దగినట్టి వగగల నేర్పులాడిచాన నేలుట తగునట్టి జాణవీవు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('ని', '|'), ('తో', 'U'), ('స', '|'), ('రి', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('గా', 'U'), ('న', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('నీ', 'U'), ('కె', '|'), ('ద', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('వ', '|'), ('గ', '|'), ('గ', '|'), ('ల', '|'), ('నే', 'U'), ('ర్పు', '|'), ('లా', 'U'), ('డి', '|'), ('చా', 'U'), ('న', '|'), ('నే', 'U'), ('లు', '|'), ('ట', '|'), ('త', '|'), ('గు', '|'), ('న', 'U'), ('ట్టి', '|'), ('జా', 'U'), ('ణ', '|'), ('వీ', 'U'), ('వు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>వగలాడి నగుమోము నిగనిగల్ చూచిన బంగారుచాయల పర్వు గదరననబోడి నునుజెక్కులను జూడ దళతళ మించుటద్దంబులై మెఱయు గదరకొమ్మ జిగికెమ్మోవి నెమ్మిడాల్ చూచిన నీలవిద్రుమచ్ఛయ వెసగు గదరచెలి దంతముల కాంతు లెలమితో జూచిన దాడింబవిత్తులై తనరు గదర</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>వగలాడి నగుమోము నిగనిగల్ చూచిన బంగారుచాయల పర్వు గదరననబోడి నునుజెక్కులను జూడ దళతళ మించుటద్దంబులై మెఱయు గదరకొమ్మ జిగికెమ్మోవి నెమ్మిడాల్ చూచిన నీలవిద్రుమచ్ఛయ వెసగు గదరచెలి దంతముల కాంతు లెలమితో జూచిన దాడింబవిత్తులై తనరు గదర</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('గ', '|'), ('లా', 'U'), ('డి', '|'), ('న', '|'), ('గు', '|'), ('మో', 'U'), ('ము', '|'), ('ని', '|'), ('గ', '|'), ('ని', '|'), ('గల్', 'U'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('చా', 'U'), ('య', '|'), ('ల', '|'), ('ప', 'U'), ('ర్వు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('డి', '|'), ('ను', '|'), ('ను', '|'), ('జె', 'U'), ('క్కు', '|'), ('ల', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('ద', '|'), ('ళ', '|'), ('త', '|'), ('ళ', '|'), ('మిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ద్దం', 'U'), ('బు', '|'), ('లై', 'U'), ('మె', '|'), ('ఱ', '|'), ('యు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('జి', '|'), ('గి', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నె', 'U'), ('మ్మి', '|'), ('డాల్', 'U'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('ల', '|'), ('వి', '|'), ('ద్రు', '|'), ('మ', 'U'), ('చ్ఛ', '|'), ('య', '|'), ('వె', '|'), ('స', '|'), ('గు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('చె', '|'), ('లి', '|'), ('దం', 'U'), ('త', '|'), ('ము', '|'), ('ల', '|'), ('కాం', 'U'), ('తు', '|'), ('లె', '|'), ('ల', '|'), ('మి', '|'), ('తో', 'U'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('డిం', 'U'), ('బ', '|'), ('వి', 'U'), ('త్తు', '|'), ('లై', 'U'), ('త', '|'), ('న', '|'), ('రు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యతివ సౌందర్య మెన్నుట కలవిగాదు | వనిత వగలెన్న నెవ్వరి వశముగాదుఇంతి ప్రాయము పదియురెండేండ్లు గదర | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>యతివ సౌందర్య మెన్నుట కలవిగాదు | వనిత వగలెన్న నెవ్వరి వశముగాదుఇంతి ప్రాయము పదియురెండేండ్లు గదర | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('తి', '|'), ('వ', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('మె', 'U'), ('న్ను', '|'), ('ట', '|'), ('క', '|'), ('ల', '|'), ('వి', '|'), ('గా', 'U'), ('దు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('వ', '|'), ('గ', '|'), ('లె', 'U'), ('న్న', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('ఇం', 'U'), ('తి', 'U'), ('ప్రా', 'U'), ('య', '|'), ('ము', '|'), ('ప', '|'), ('ది', '|'), ('యు', '|'), ('రెం', 'U'), ('డేం', 'U'), ('డ్లు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>వెలది నవ్వుల తేటవెన్నెల హరియించు గల్కి పల్కుల దేనెలొల్కజేయుకలకంఠి కన్నులు కలువల నిరసించు మోము చందురుతోడ మొనయుచుండుగామిని నాసిక కనకసూనము గేరు జెక్కు లద్దంబుల జెనకజూచుఘనవేణి కంఠంబు గడగి శంఖము గెల్చు చన్నులు పూచెండ్ల సరకు గొనవు</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>వెలది నవ్వుల తేటవెన్నెల హరియించు గల్కి పల్కుల దేనెలొల్కజేయుకలకంఠి కన్నులు కలువల నిరసించు మోము చందురుతోడ మొనయుచుండుగామిని నాసిక కనకసూనము గేరు జెక్కు లద్దంబుల జెనకజూచుఘనవేణి కంఠంబు గడగి శంఖము గెల్చు చన్నులు పూచెండ్ల సరకు గొనవు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('ది', '|'), ('న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('తే', 'U'), ('ట', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('హ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('గ', 'U'), ('ల్కి', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('దే', 'U'), ('నె', '|'), ('లొ', 'U'), ('ల్క', '|'), ('జే', 'U'), ('యు', '|'), ('క', '|'), ('ల', '|'), ('కం', 'U'), ('ఠి', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('వ', '|'), ('ల', '|'), ('ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చు', '|'), ('మో', 'U'), ('ము', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('తో', 'U'), ('డ', '|'), ('మొ', '|'), ('న', '|'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('గా', 'U'), ('మి', '|'), ('ని', '|'), ('నా', 'U'), ('సి', '|'), ('క', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('సూ', 'U'), ('న', '|'), ('ము', '|'), ('గే', 'U'), ('రు', '|'), ('జె', 'U'), ('క్కు', '|'), ('ల', 'U'), ('ద్దం', 'U'), ('బు', '|'), ('ల', '|'), ('జె', '|'), ('న', '|'), ('క', '|'), ('జూ', 'U'), ('చు', '|'), ('ఘ', '|'), ('న', '|'), ('వే', 'U'), ('ణి', '|'), ('కం', 'U'), ('ఠం', 'U'), ('బు', '|'), ('గ', '|'), ('డ', '|'), ('గి', '|'), ('శం', 'U'), ('ఖ', '|'), ('ము', '|'), ('గె', 'U'), ('ల్చు', '|'), ('చ', 'U'), ('న్ను', '|'), ('లు', '|'), ('పూ', 'U'), ('చెం', 'U'), ('డ్ల', '|'), ('స', '|'), ('ర', '|'), ('కు', '|'), ('గొ', '|'), ('న', '|'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పదర నిను కోరియున్నది బాళిమీర | మదవతిని గూడి లాలింప ముదముతోడజాగుసేయక రావయ్య జలరుహాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>పదర నిను కోరియున్నది బాళిమీర | మదవతిని గూడి లాలింప ముదముతోడజాగుసేయక రావయ్య జలరుహాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ద', '|'), ('ర', '|'), ('ని', '|'), ('ను', '|'), ('కో', 'U'), ('రి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('బా', 'U'), ('ళి', '|'), ('మీ', 'U'), ('ర', '|'), ('మ', '|'), ('ద', '|'), ('వ', '|'), ('తి', '|'), ('ని', '|'), ('గూ', 'U'), ('డి', '|'), ('లా', 'U'), ('లిం', 'U'), ('ప', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('జ', '|'), ('ల', '|'), ('రు', '|'), ('హా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఠీకు కీల్కావిబుటేదారు పావడపై జరీచేలంబు బాగుమీరహురుమంజి ముత్యాలసరులు గన్పడ బట్టు కనకపు మొగ్గల కంచుకంబుబవిరెలు బొగడలు బావిలీల్ వజ్రంపు బలుకులచే నొప్పు పాపటయునునందెలు మువ్వలు హస్తకడియములు సందిదండలు గుండ్లసరులు దూగ</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ఠీకు కీల్కావిబుటేదారు పావడపై జరీచేలంబు బాగుమీరహురుమంజి ముత్యాలసరులు గన్పడ బట్టు కనకపు మొగ్గల కంచుకంబుబవిరెలు బొగడలు బావిలీల్ వజ్రంపు బలుకులచే నొప్పు పాపటయునునందెలు మువ్వలు హస్తకడియములు సందిదండలు గుండ్లసరులు దూగ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
           <t>[('ఠీ', 'U'), ('కు', '|'), ('కీ', 'U'), ('ల్కా', 'U'), ('వి', '|'), ('బు', '|'), ('టే', 'U'), ('దా', 'U'), ('రు', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('పై', 'U'), ('జ', '|'), ('రీ', 'U'), ('చే', 'U'), ('లం', 'U'), ('బు', '|'), ('బా', 'U'), ('గు', '|'), ('మీ', 'U'), ('ర', '|'), ('హు', '|'), ('రు', '|'), ('మం', 'U'), ('జి', '|'), ('ము', 'U'), ('త్యా', 'U'), ('ల', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('గ', 'U'), ('న్ప', '|'), ('డ', '|'), ('బ', 'U'), ('ట్టు', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('కం', 'U'), ('చు', '|'), ('కం', 'U'), ('బు', '|'), ('బ', '|'), ('వి', '|'), ('రె', '|'), ('లు', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('లు', '|'), ('బా', 'U'), ('వి', '|'), ('లీల్', 'U'), ('వ', 'U'), ('జ్రం', 'U'), ('పు', '|'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('ల', '|'), ('చే', 'U'), ('నొ', 'U'), ('ప్పు', '|'), ('పా', 'U'), ('ప', '|'), ('ట', '|'), ('యు', '|'), ('ను', '|'), ('నం', 'U'), ('దె', '|'), ('లు', '|'), ('ము', 'U'), ('వ్వ', '|'), ('లు', '|'), ('హ', 'U'), ('స్త', '|'), ('క', '|'), ('డి', '|'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('సం', 'U'), ('ది', '|'), ('దం', 'U'), ('డ', '|'), ('లు', '|'), ('గుం', 'U'), ('డ్ల', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('దూ', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ముంగరయు నత్తు బేసరి ముదిత తనదు | నాసమున గీలుకొల్పి విలాసముగనుసుదతి నీ రాక కెదురు దా చూచుచుండు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ముంగరయు నత్తు బేసరి ముదిత తనదు | నాసమున గీలుకొల్పి విలాసముగనుసుదతి నీ రాక కెదురు దా చూచుచుండు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
           <t>[('ముం', 'U'), ('గ', '|'), ('ర', '|'), ('యు', '|'), ('న', 'U'), ('త్తు', '|'), ('బే', 'U'), ('స', '|'), ('రి', '|'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('త', '|'), ('న', '|'), ('దు', '|'), ('నా', 'U'), ('స', '|'), ('ము', '|'), ('న', '|'), ('గీ', 'U'), ('లు', '|'), ('కొ', 'U'), ('ల్పి', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('నీ', 'U'), ('రా', 'U'), ('క', '|'), ('కె', '|'), ('దు', '|'), ('రు', '|'), ('దా', 'U'), ('చూ', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పదివన్నె బంగారుపడతి నెమ్మెయి కాంతి యలరు చందురుని హసించు మోమువెలలేని వజ్రాల వెలసేయు రదనముల్ పచ్చివిద్రుమకాంతి సుదతి మోవిముకురసన్నిభములు శుకవాణి చెక్కులు ముంగుర్లు తేటుల రంగు దెగడుకనకకలశములు కామిని పాలిండ్లు నలినాక్షి నాభి పున్నాగకుసుమ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>పదివన్నె బంగారుపడతి నెమ్మెయి కాంతి యలరు చందురుని హసించు మోమువెలలేని వజ్రాల వెలసేయు రదనముల్ పచ్చివిద్రుమకాంతి సుదతి మోవిముకురసన్నిభములు శుకవాణి చెక్కులు ముంగుర్లు తేటుల రంగు దెగడుకనకకలశములు కామిని పాలిండ్లు నలినాక్షి నాభి పున్నాగకుసుమ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ది', '|'), ('వ', 'U'), ('న్నె', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('కాం', 'U'), ('తి', '|'), ('య', '|'), ('ల', '|'), ('రు', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('ని', '|'), ('హ', '|'), ('సిం', 'U'), ('చు', '|'), ('మో', 'U'), ('ము', '|'), ('వె', '|'), ('ల', '|'), ('లే', 'U'), ('ని', '|'), ('వ', 'U'), ('జ్రా', 'U'), ('ల', '|'), ('వె', '|'), ('ల', '|'), ('సే', 'U'), ('యు', '|'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('ముల్', 'U'), ('ప', 'U'), ('చ్చి', '|'), ('వి', '|'), ('ద్రు', '|'), ('మ', '|'), ('కాం', 'U'), ('తి', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('మో', 'U'), ('వి', '|'), ('ము', '|'), ('కు', '|'), ('ర', '|'), ('స', 'U'), ('న్ని', '|'), ('భ', '|'), ('ము', '|'), ('లు', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('చె', 'U'), ('క్కు', '|'), ('లు', '|'), ('ముం', 'U'), ('గు', 'U'), ('ర్లు', '|'), ('తే', 'U'), ('టు', '|'), ('ల', '|'), ('రం', 'U'), ('గు', '|'), ('దె', '|'), ('గ', '|'), ('డు', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('క', '|'), ('ల', '|'), ('శ', '|'), ('ము', '|'), ('లు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్లు', '|'), ('న', '|'), ('లి', '|'), ('నా', 'U'), ('క్షి', '|'), ('నా', 'U'), ('భి', '|'), ('పు', 'U'), ('న్నా', 'U'), ('గ', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మతివ యూరు లనంటుల నపహసించు నెలత పదములు తాబేళ్ళ నేలజాలుకాము చేకైదువన నొప్పు కాంత నేలు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>మతివ యూరు లనంటుల నపహసించు నెలత పదములు తాబేళ్ళ నేలజాలుకాము చేకైదువన నొప్పు కాంత నేలు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('తి', '|'), ('వ', '|'), ('యూ', 'U'), ('రు', '|'), ('ల', '|'), ('నం', 'U'), ('టు', '|'), ('ల', '|'), ('న', '|'), ('ప', '|'), ('హ', '|'), ('సిం', 'U'), ('చు', '|'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('ప', '|'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('తా', 'U'), ('బే', 'U'), ('ళ్ళ', '|'), ('నే', 'U'), ('ల', '|'), ('జా', 'U'), ('లు', '|'), ('కా', 'U'), ('ము', '|'), ('చే', 'U'), ('కై', 'U'), ('దు', '|'), ('వ', '|'), ('న', '|'), ('నొ', 'U'), ('ప్పు', '|'), ('కాం', 'U'), ('త', '|'), ('నే', 'U'), ('లు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పలుమారు నే వచ్చి ప్రార్థించి పిలిచిన పలుకవదేమిరా పంకజాక్షయలివేణి మీయింతి యాడిన మాటలు మరుతునా యిక నేను మందయానఇంతుల మాటల కెగ్గులెంతురె దయాపరుడవై ఇటు బల్క బాడియగునెవలపెఱుంగక విభుని వాదుకు దీసుట రమణికి దగునే యో రామ చెపుమ</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>పలుమారు నే వచ్చి ప్రార్థించి పిలిచిన పలుకవదేమిరా పంకజాక్షయలివేణి మీయింతి యాడిన మాటలు మరుతునా యిక నేను మందయానఇంతుల మాటల కెగ్గులెంతురె దయాపరుడవై ఇటు బల్క బాడియగునెవలపెఱుంగక విభుని వాదుకు దీసుట రమణికి దగునే యో రామ చెపుమ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('నే', 'U'), ('వ', 'U'), ('చ్చి', 'U'), ('ప్రా', 'U'), ('ర్థిం', 'U'), ('చి', '|'), ('పి', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('వ', '|'), ('దే', 'U'), ('మి', '|'), ('రా', 'U'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('క్ష', '|'), ('య', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('మీ', 'U'), ('యిం', 'U'), ('తి', '|'), ('యా', 'U'), ('డి', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('మ', '|'), ('రు', '|'), ('తు', '|'), ('నా', 'U'), ('యి', '|'), ('క', '|'), ('నే', 'U'), ('ను', '|'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('ఇం', 'U'), ('తు', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('కె', 'U'), ('గ్గు', '|'), ('లెం', 'U'), ('తు', '|'), ('రె', '|'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('రు', '|'), ('డ', '|'), ('వై', 'U'), ('ఇ', '|'), ('టు', '|'), ('బ', 'U'), ('ల్క', '|'), ('బా', 'U'), ('డి', '|'), ('య', '|'), ('గు', '|'), ('నె', '|'), ('వ', '|'), ('ల', '|'), ('పె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('వా', 'U'), ('దు', '|'), ('కు', '|'), ('దీ', 'U'), ('సు', '|'), ('ట', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('కి', '|'), ('ద', '|'), ('గు', '|'), ('నే', 'U'), ('యో', 'U'), ('రా', 'U'), ('మ', '|'), ('చె', '|'), ('పు', '|'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యైన నేమాయె నిను గోరి యంబుజాక్షి | పిలువనంపెను రావయ్య ప్రేమగల్గివెలది సాష్టాంగమొనరించి వేడుకొనియె | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>యైన నేమాయె నిను గోరి యంబుజాక్షి | పిలువనంపెను రావయ్య ప్రేమగల్గివెలది సాష్టాంగమొనరించి వేడుకొనియె | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
           <t>[('యై', 'U'), ('న', '|'), ('నే', 'U'), ('మా', 'U'), ('యె', '|'), ('ని', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('యం', 'U'), ('బు', '|'), ('జా', 'U'), ('క్షి', '|'), ('పి', '|'), ('లు', '|'), ('వ', '|'), ('నం', 'U'), ('పె', '|'), ('ను', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('సా', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('వే', 'U'), ('డు', '|'), ('కొ', '|'), ('ని', '|'), ('యె', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చెలియరో పో పొమ్ము క్షేమంబులగు నీకు దలపున మీ ఇంతి దలప నేనుదలపకుండగ నీకు దప్పేమి చేసెను వివరింపవలెనది వేదవేద్యవివరింపగానేల వెలది నే గోరిన కోర్కె దీర్చక పాయె కువలయాక్షికోర్కెలీడేర్చను కోమలి నీ పొందు గోరియున్నది రార కోమలాంగ</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>చెలియరో పో పొమ్ము క్షేమంబులగు నీకు దలపున మీ ఇంతి దలప నేనుదలపకుండగ నీకు దప్పేమి చేసెను వివరింపవలెనది వేదవేద్యవివరింపగానేల వెలది నే గోరిన కోర్కె దీర్చక పాయె కువలయాక్షికోర్కెలీడేర్చను కోమలి నీ పొందు గోరియున్నది రార కోమలాంగ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('పో', 'U'), ('పొ', 'U'), ('మ్ము', 'U'), ('క్షే', 'U'), ('మం', 'U'), ('బు', '|'), ('ల', '|'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('ద', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('మీ', 'U'), ('ఇం', 'U'), ('తి', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('నే', 'U'), ('ను', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('కుం', 'U'), ('డ', '|'), ('గ', '|'), ('నీ', 'U'), ('కు', '|'), ('ద', 'U'), ('ప్పే', 'U'), ('మి', '|'), ('చే', 'U'), ('సె', '|'), ('ను', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('ది', '|'), ('వే', 'U'), ('ద', '|'), ('వే', 'U'), ('ద్య', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('నే', 'U'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('కో', 'U'), ('ర్కె', '|'), ('దీ', 'U'), ('ర్చ', '|'), ('క', '|'), ('పా', 'U'), ('యె', '|'), ('కు', '|'), ('వ', '|'), ('ల', '|'), ('యా', 'U'), ('క్షి', '|'), ('కో', 'U'), ('ర్కె', '|'), ('లీ', 'U'), ('డే', 'U'), ('ర్చ', '|'), ('ను', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('నీ', 'U'), ('పొం', 'U'), ('దు', '|'), ('గో', 'U'), ('రి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('రా', 'U'), ('ర', '|'), ('కో', 'U'), ('మ', '|'), ('లాం', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నయము నెరుగని స్త్రీలను నమ్మదగునె | వినయములు పెక్కు వల్కెద వెలది నీవునమ్మదగునయ్య నా మాట నలిననాభ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>నయము నెరుగని స్త్రీలను నమ్మదగునె | వినయములు పెక్కు వల్కెద వెలది నీవునమ్మదగునయ్య నా మాట నలిననాభ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('య', '|'), ('ము', '|'), ('నె', '|'), ('రు', '|'), ('గ', '|'), ('ని', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('ను', '|'), ('న', 'U'), ('మ్మ', '|'), ('ద', '|'), ('గు', '|'), ('నె', '|'), ('వి', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('పె', 'U'), ('క్కు', '|'), ('వ', 'U'), ('ల్కె', '|'), ('ద', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('నీ', 'U'), ('వు', '|'), ('న', 'U'), ('మ్మ', '|'), ('ద', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('నా', 'U'), ('మా', 'U'), ('ట', '|'), ('న', '|'), ('లి', '|'), ('న', '|'), ('నా', 'U'), ('భ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>బంధూక సహకార పాటల కురువక ఫలపూర జంబీర పనస తరులుచందన ఖర్జూర చంపక బదరిక మాలూర మన్మథ మహిరుహములుభల్లాతకామ్లాత భద్ర కేతకి నింబ పారిజాతాశోక పాదపములుమాతులుంగ లవంగ మందారములు గల్గి జాతిప్రముఖ లతాసముదయముల</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>బంధూక సహకార పాటల కురువక ఫలపూర జంబీర పనస తరులుచందన ఖర్జూర చంపక బదరిక మాలూర మన్మథ మహిరుహములుభల్లాతకామ్లాత భద్ర కేతకి నింబ పారిజాతాశోక పాదపములుమాతులుంగ లవంగ మందారములు గల్గి జాతిప్రముఖ లతాసముదయముల</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
           <t>[('బం', 'U'), ('ధూ', 'U'), ('క', '|'), ('స', '|'), ('హ', '|'), ('కా', 'U'), ('ర', '|'), ('పా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('రు', '|'), ('వ', '|'), ('క', '|'), ('ఫ', '|'), ('ల', '|'), ('పూ', 'U'), ('ర', '|'), ('జం', 'U'), ('బీ', 'U'), ('ర', '|'), ('ప', '|'), ('న', '|'), ('స', '|'), ('త', '|'), ('రు', '|'), ('లు', '|'), ('చం', 'U'), ('ద', '|'), ('న', '|'), ('ఖ', 'U'), ('ర్జూ', 'U'), ('ర', '|'), ('చం', 'U'), ('ప', '|'), ('క', '|'), ('బ', '|'), ('ద', '|'), ('రి', '|'), ('క', '|'), ('మా', 'U'), ('లూ', 'U'), ('ర', '|'), ('మ', 'U'), ('న్మ', '|'), ('థ', '|'), ('మ', '|'), ('హి', '|'), ('రు', '|'), ('హ', '|'), ('ము', '|'), ('లు', '|'), ('భ', 'U'), ('ల్లా', 'U'), ('త', '|'), ('కా', 'U'), ('మ్లా', 'U'), ('త', '|'), ('భ', '|'), ('ద్ర', '|'), ('కే', 'U'), ('త', '|'), ('కి', '|'), ('నిం', 'U'), ('బ', '|'), ('పా', 'U'), ('రి', '|'), ('జా', 'U'), ('తా', 'U'), ('శో', 'U'), ('క', '|'), ('పా', 'U'), ('ద', '|'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('మా', 'U'), ('తు', '|'), ('లుం', 'U'), ('గ', '|'), ('ల', '|'), ('వం', 'U'), ('గ', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('జా', 'U'), ('తి', 'U'), ('ప్ర', '|'), ('ము', '|'), ('ఖ', '|'), ('ల', '|'), ('తా', 'U'), ('స', '|'), ('ము', '|'), ('ద', '|'), ('య', '|'), ('ము', '|'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వెలయు నారామమున జేరి వెలది మదన | తాపమున నిన్ను దలచుచు దాళలేకయున్నదిక వేగ రావయ్య యూరడింప | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>వెలయు నారామమున జేరి వెలది మదన | తాపమున నిన్ను దలచుచు దాళలేకయున్నదిక వేగ రావయ్య యూరడింప | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('యు', '|'), ('నా', 'U'), ('రా', 'U'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('రి', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('తా', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('చు', '|'), ('దా', 'U'), ('ళ', '|'), ('లే', 'U'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('క', '|'), ('వే', 'U'), ('గ', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('యూ', 'U'), ('ర', '|'), ('డిం', 'U'), ('ప', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కనకాంగి విరహాగ్ని గ్రాగుచు నొకపొన్నమ్రాని పొంతను జేరి మగువ నిన్నుదలచి దా నతిమోహతాపంబు నొందిన చెలులెల్ల శైత్యోపచార మొదవ-జేయగా మిన్నంది జలజారి యతివపై పండువెన్నెలచిచ్చు బరుప వేడిసైచక నను జూచి జలజాక్షి నిను వేగ దోడి తెమ్మనె రమ్ము తోయజాక్ష</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>కనకాంగి విరహాగ్ని గ్రాగుచు నొకపొన్నమ్రాని పొంతను జేరి మగువ నిన్నుదలచి దా నతిమోహతాపంబు నొందిన చెలులెల్ల శైత్యోపచార మొదవ-జేయగా మిన్నంది జలజారి యతివపై పండువెన్నెలచిచ్చు బరుప వేడిసైచక నను జూచి జలజాక్షి నిను వేగ దోడి తెమ్మనె రమ్ము తోయజాక్ష</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('న', '|'), ('కాం', 'U'), ('గి', '|'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('గ్ని', 'U'), ('గ్రా', 'U'), ('గు', '|'), ('చు', '|'), ('నొ', '|'), ('క', '|'), ('పొ', 'U'), ('న్న', '|'), ('మ్రా', 'U'), ('ని', '|'), ('పొం', 'U'), ('త', '|'), ('ను', '|'), ('జే', 'U'), ('రి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('దా', 'U'), ('న', '|'), ('తి', '|'), ('మో', 'U'), ('హ', '|'), ('తా', 'U'), ('పం', 'U'), ('బు', '|'), ('నొం', 'U'), ('ది', '|'), ('న', '|'), ('చె', '|'), ('లు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('శై', 'U'), ('త్యో', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('మొ', '|'), ('ద', '|'), ('వ', '|'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('మి', 'U'), ('న్నం', 'U'), ('ది', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('రి', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('పై', 'U'), ('పం', 'U'), ('డు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('చి', 'U'), ('చ్చు', '|'), ('బ', '|'), ('రు', '|'), ('ప', '|'), ('వే', 'U'), ('డి', '|'), ('సై', 'U'), ('చ', '|'), ('క', '|'), ('న', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('క్షి', '|'), ('ని', '|'), ('ను', '|'), ('వే', 'U'), ('గ', '|'), ('దో', 'U'), ('డి', '|'), ('తె', 'U'), ('మ్మ', '|'), ('నె', '|'), ('ర', 'U'), ('మ్ము', '|'), ('తో', 'U'), ('య', '|'), ('జా', 'U'), ('క్ష', '|')]</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జాగు చేసిన నా ఇంతి తాళదికను చాల నిను నమ్మియున్న యా చానతోడమోడి సేయుట దగునయ్య మోహనాంగ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>జాగు చేసిన నా ఇంతి తాళదికను చాల నిను నమ్మియున్న యా చానతోడమోడి సేయుట దగునయ్య మోహనాంగ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('గు', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('నా', 'U'), ('ఇం', 'U'), ('తి', '|'), ('తా', 'U'), ('ళ', '|'), ('ది', '|'), ('క', '|'), ('ను', '|'), ('చా', 'U'), ('ల', '|'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('న్న', '|'), ('యా', 'U'), ('చా', 'U'), ('న', '|'), ('తో', 'U'), ('డ', '|'), ('మో', 'U'), ('డి', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('ద', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('మో', 'U'), ('హ', '|'), ('నాం', 'U'), ('గ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>వలరాజుమామ జక్కులరేనిచెలికానితలపువ్వు కలువల చెలిమికాడుఱిక్కలగమికాడు జక్కులపగవాడు వారధిపట్టి భావజునిమామతిమిరబృందంబుల దెగటార్చు మగవాడు వలమురిదాల్పుముద్దులమరందిగగనేభ మెక్కి వేగ చరించు రేరాజు విరహులపాలిటి వెడదచిచ్చు</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>వలరాజుమామ జక్కులరేనిచెలికానితలపువ్వు కలువల చెలిమికాడుఱిక్కలగమికాడు జక్కులపగవాడు వారధిపట్టి భావజునిమామతిమిరబృందంబుల దెగటార్చు మగవాడు వలమురిదాల్పుముద్దులమరందిగగనేభ మెక్కి వేగ చరించు రేరాజు విరహులపాలిటి వెడదచిచ్చు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('మా', 'U'), ('మ', '|'), ('జ', 'U'), ('క్కు', '|'), ('ల', '|'), ('రే', 'U'), ('ని', '|'), ('చె', '|'), ('లి', '|'), ('కా', 'U'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('పు', 'U'), ('వ్వు', '|'), ('క', '|'), ('లు', '|'), ('వ', '|'), ('ల', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('కా', 'U'), ('డు', '|'), ('ఱి', 'U'), ('క్క', '|'), ('ల', '|'), ('గ', '|'), ('మి', '|'), ('కా', 'U'), ('డు', '|'), ('జ', 'U'), ('క్కు', '|'), ('ల', '|'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('డు', '|'), ('వా', 'U'), ('ర', '|'), ('ధి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('వ', '|'), ('జు', '|'), ('ని', '|'), ('మా', 'U'), ('మ', '|'), ('తి', '|'), ('మి', '|'), ('ర', '|'), ('బృం', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('దె', '|'), ('గ', '|'), ('టా', 'U'), ('ర్చు', '|'), ('మ', '|'), ('గ', '|'), ('వా', 'U'), ('డు', '|'), ('వ', '|'), ('ల', '|'), ('ము', '|'), ('రి', '|'), ('దా', 'U'), ('ల్పు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ల', '|'), ('మ', '|'), ('రం', 'U'), ('ది', '|'), ('గ', '|'), ('గ', '|'), ('నే', 'U'), ('భ', '|'), ('మె', 'U'), ('క్కి', '|'), ('వే', 'U'), ('గ', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('రే', 'U'), ('రా', 'U'), ('జు', '|'), ('వి', '|'), ('ర', '|'), ('హు', '|'), ('ల', '|'), ('పా', 'U'), ('లి', '|'), ('టి', '|'), ('వె', '|'), ('డ', '|'), ('ద', '|'), ('చి', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చందురుడు వేగ మిన్నంది చెలియ నేఁచ | దలచినంతనె విరహంబు తాళ వశమెగాన రావయ్య నీవిక కరుణగల్గి | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>చందురుడు వేగ మిన్నంది చెలియ నేఁచ | దలచినంతనె విరహంబు తాళ వశమెగాన రావయ్య నీవిక కరుణగల్గి | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
           <t>[('చం', 'U'), ('దు', '|'), ('రు', '|'), ('డు', '|'), ('వే', 'U'), ('గ', '|'), ('మి', 'U'), ('న్నం', 'U'), ('ది', '|'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('నే', 'U'), ('చ', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('నం', 'U'), ('త', '|'), ('నె', '|'), ('వి', '|'), ('ర', '|'), ('హం', 'U'), ('బు', '|'), ('తా', 'U'), ('ళ', '|'), ('వ', '|'), ('శ', '|'), ('మె', '|'), ('గా', 'U'), ('న', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('నీ', 'U'), ('వి', '|'), ('క', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>జాబిల్లివేడికి సైరింపజాలునా కరుణించి మా చెలి గావకున్నకోవెలరొదలకు గుండెలు దాళునా యలివేణి యెద చేతనంటకున్నచలువతెమ్మెర వీవ సారెకు వణకదా చెలిని నీ కౌఁగిట జేర్పకున్నతేటిఝంకృతులకు దెరవ దిగులొందదా యేకాంతమున దాని నేలకున్న</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>జాబిల్లివేడికి సైరింపజాలునా కరుణించి మా చెలి గావకున్నకోవెలరొదలకు గుండెలు దాళునా యలివేణి యెద చేతనంటకున్నచలువతెమ్మెర వీవ సారెకు వణకదా చెలిని నీ కౌఁగిట జేర్పకున్నతేటిఝంకృతులకు దెరవ దిగులొందదా యేకాంతమున దాని నేలకున్న</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('బి', 'U'), ('ల్లి', '|'), ('వే', 'U'), ('డి', '|'), ('కి', '|'), ('సై', 'U'), ('రిం', 'U'), ('ప', '|'), ('జా', 'U'), ('లు', '|'), ('నా', 'U'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('చి', '|'), ('మా', 'U'), ('చె', '|'), ('లి', '|'), ('గా', 'U'), ('వ', '|'), ('కు', 'U'), ('న్న', '|'), ('కో', 'U'), ('వె', '|'), ('ల', '|'), ('రొ', '|'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('గుం', 'U'), ('డె', '|'), ('లు', '|'), ('దా', 'U'), ('ళు', '|'), ('నా', 'U'), ('య', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('యె', '|'), ('ద', '|'), ('చే', 'U'), ('త', '|'), ('నం', 'U'), ('ట', '|'), ('కు', 'U'), ('న్న', '|'), ('చ', '|'), ('లు', '|'), ('వ', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('వీ', 'U'), ('వ', '|'), ('సా', 'U'), ('రె', '|'), ('కు', '|'), ('వ', '|'), ('ణ', '|'), ('క', '|'), ('దా', 'U'), ('చె', '|'), ('లి', '|'), ('ని', '|'), ('నీ', 'U'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్ప', '|'), ('కు', 'U'), ('న్న', '|'), ('తే', 'U'), ('టి', '|'), ('ఝం', 'U'), ('కృ', '|'), ('తు', '|'), ('ల', '|'), ('కు', '|'), ('దె', '|'), ('ర', '|'), ('వ', '|'), ('ది', '|'), ('గు', '|'), ('లొం', 'U'), ('ద', '|'), ('దా', 'U'), ('యే', 'U'), ('కాం', 'U'), ('త', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('నే', 'U'), ('ల', '|'), ('కు', 'U'), ('న్న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తరుణి నిప్పుడు రతిగూడి తనుపకున్న | మదనతాపంబు మానునా మదనజనకజాగుసేయక రావయ్య చానకడకు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>తరుణి నిప్పుడు రతిగూడి తనుపకున్న | మదనతాపంబు మానునా మదనజనకజాగుసేయక రావయ్య చానకడకు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('రు', '|'), ('ణి', '|'), ('ని', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ర', '|'), ('తి', '|'), ('గూ', 'U'), ('డి', '|'), ('త', '|'), ('ను', '|'), ('ప', '|'), ('కు', 'U'), ('న్న', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('తా', 'U'), ('పం', 'U'), ('బు', '|'), ('మా', 'U'), ('ను', '|'), ('నా', 'U'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('జ', '|'), ('న', '|'), ('క', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('చా', 'U'), ('న', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>శుకతురంగము పౌజు యొక లక్ష చనుదేర తేటికాల్బల మొక్క కోటి గొల్వగోర్వంక బలములు గొల్చి కైవారంబు సేయ నెమ్ములును హెచ్చరికె దెల్పతెమ్మెరరథమెక్కి కమ్మవిల్తుడు చెరుకువింటను సంధించి విరుల సరముతరుణిపై వడిదాక గురుకుచంబుల సందు గురుతుగా నేసిన కొమ్మ యెటుల</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>శుకతురంగము పౌజు యొక లక్ష చనుదేర తేటికాల్బల మొక్క కోటి గొల్వగోర్వంక బలములు గొల్చి కైవారంబు సేయ నెమ్ములును హెచ్చరికె దెల్పతెమ్మెరరథమెక్కి కమ్మవిల్తుడు చెరుకువింటను సంధించి విరుల సరముతరుణిపై వడిదాక గురుకుచంబుల సందు గురుతుగా నేసిన కొమ్మ యెటుల</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
           <t>[('శు', '|'), ('క', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('పౌ', 'U'), ('జు', '|'), ('యొ', '|'), ('క', '|'), ('ల', 'U'), ('క్ష', '|'), ('చ', '|'), ('ను', '|'), ('దే', 'U'), ('ర', '|'), ('తే', 'U'), ('టి', '|'), ('కా', 'U'), ('ల్బ', '|'), ('ల', '|'), ('మొ', 'U'), ('క్క', '|'), ('కో', 'U'), ('టి', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గో', 'U'), ('ర్వం', 'U'), ('క', '|'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('కై', 'U'), ('వా', 'U'), ('రం', 'U'), ('బు', '|'), ('సే', 'U'), ('య', '|'), ('నె', 'U'), ('మ్ము', '|'), ('లు', '|'), ('ను', '|'), ('హె', 'U'), ('చ్చ', '|'), ('రి', '|'), ('కె', '|'), ('దె', 'U'), ('ల్ప', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('ర', '|'), ('థ', '|'), ('మె', 'U'), ('క్కి', '|'), ('క', 'U'), ('మ్మ', '|'), ('వి', 'U'), ('ల్తు', '|'), ('డు', '|'), ('చె', '|'), ('రు', '|'), ('కు', '|'), ('విం', 'U'), ('ట', '|'), ('ను', '|'), ('సం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('వి', '|'), ('రు', '|'), ('ల', '|'), ('స', '|'), ('ర', '|'), ('ము', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('పై', 'U'), ('వ', '|'), ('డి', '|'), ('దా', 'U'), ('క', '|'), ('గు', '|'), ('రు', '|'), ('కు', '|'), ('చం', 'U'), ('బు', '|'), ('ల', '|'), ('సం', 'U'), ('దు', '|'), ('గు', '|'), ('రు', '|'), ('తు', '|'), ('గా', 'U'), ('నే', 'U'), ('సి', '|'), ('న', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('యె', '|'), ('టు', '|'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సైచు విరిబోడి దా నోర్వజాల దికను | గాన వేగమె రావయ్య కరుణగల్గిసుదతి నేలుట తగునయ్య సుందరాంగ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>సైచు విరిబోడి దా నోర్వజాల దికను | గాన వేగమె రావయ్య కరుణగల్గిసుదతి నేలుట తగునయ్య సుందరాంగ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
           <t>[('సై', 'U'), ('చు', '|'), ('వి', '|'), ('రి', '|'), ('బో', 'U'), ('డి', '|'), ('దా', 'U'), ('నో', 'U'), ('ర్వ', '|'), ('జా', 'U'), ('ల', '|'), ('ది', '|'), ('క', '|'), ('ను', '|'), ('గా', 'U'), ('న', '|'), ('వే', 'U'), ('గ', '|'), ('మె', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('నే', 'U'), ('లు', '|'), ('ట', '|'), ('త', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>అతనుడు చలపట్టి యతివపై దండెత్తి యనిలరథంబెక్కి యళులగములుచేరి కొల్వగ మేటిచిలుకగుర్రపుపౌజు తఱుచుగా వెనువెంట దగిలి నడువగోర్వంక లిరుగడ కొల్చి భటావళి కైవారములు సేయగాను మందుతమ్మిఫిరంగుల దమ్మున పుప్పొడిమందు వెట్టుడు బొండుమల్లెగుండ్లు</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>అతనుడు చలపట్టి యతివపై దండెత్తి యనిలరథంబెక్కి యళులగములుచేరి కొల్వగ మేటిచిలుకగుర్రపుపౌజు తఱుచుగా వెనువెంట దగిలి నడువగోర్వంక లిరుగడ కొల్చి భటావళి కైవారములు సేయగాను మందుతమ్మిఫిరంగుల దమ్మున పుప్పొడిమందు వెట్టుడు బొండుమల్లెగుండ్లు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('త', '|'), ('ను', '|'), ('డు', '|'), ('చ', '|'), ('ల', '|'), ('ప', 'U'), ('ట్టి', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('పై', 'U'), ('దం', 'U'), ('డె', 'U'), ('త్తి', '|'), ('య', '|'), ('ని', '|'), ('ల', '|'), ('ర', '|'), ('థం', 'U'), ('బె', 'U'), ('క్కి', '|'), ('య', '|'), ('ళు', '|'), ('ల', '|'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('రి', '|'), ('కొ', 'U'), ('ల్వ', '|'), ('గ', '|'), ('మే', 'U'), ('టి', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('గు', 'U'), ('ర్ర', '|'), ('పు', '|'), ('పౌ', 'U'), ('జు', '|'), ('త', '|'), ('ఱు', '|'), ('చు', '|'), ('గా', 'U'), ('వె', '|'), ('ను', '|'), ('వెం', 'U'), ('ట', '|'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('న', '|'), ('డు', '|'), ('వ', '|'), ('గో', 'U'), ('ర్వం', 'U'), ('క', '|'), ('లి', '|'), ('రు', '|'), ('గ', '|'), ('డ', '|'), ('కొ', 'U'), ('ల్చి', '|'), ('భ', '|'), ('టా', 'U'), ('వ', '|'), ('ళి', '|'), ('కై', 'U'), ('వా', 'U'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('సే', 'U'), ('య', '|'), ('గా', 'U'), ('ను', '|'), ('మం', 'U'), ('దు', '|'), ('త', 'U'), ('మ్మి', '|'), ('ఫి', '|'), ('రం', 'U'), ('గు', '|'), ('ల', '|'), ('ద', 'U'), ('మ్ము', '|'), ('న', '|'), ('పు', 'U'), ('ప్పొ', '|'), ('డి', '|'), ('మం', 'U'), ('దు', '|'), ('వె', 'U'), ('ట్టు', '|'), ('డు', '|'), ('బొం', 'U'), ('డు', '|'), ('మ', 'U'), ('ల్లె', '|'), ('గుం', 'U'), ('డ్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గలిగి యా ఇంతిపై దాడి కదల మరుడు | చూచి వచ్చితినిక నెట్లు సుందరాంగగాన వేగమే రావయ్య కనకచేల | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>గలిగి యా ఇంతిపై దాడి కదల మరుడు | చూచి వచ్చితినిక నెట్లు సుందరాంగగాన వేగమే రావయ్య కనకచేల | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('లి', '|'), ('గి', '|'), ('యా', 'U'), ('ఇం', 'U'), ('తి', '|'), ('పై', 'U'), ('దా', 'U'), ('డి', '|'), ('క', '|'), ('ద', '|'), ('ల', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('చూ', 'U'), ('చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('ని', '|'), ('క', '|'), ('నె', 'U'), ('ట్లు', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('గా', 'U'), ('న', '|'), ('వే', 'U'), ('గ', '|'), ('మే', 'U'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('చే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పండువెన్నెలచిచ్చు పయినిండ బర్విన నిముసమైనను తాళ నేర్చునటరయళులు ఝుమ్మని మ్రోయ జిలుకలు రొదసేయ సతి కింపుగా వినగ నౌనటరముమ్మరమ్మై చల్వతెమ్మెర వీచిన నతివ నెమ్మెయి సారె కళుకదటరమరుడు కోపించి చిగురుపువ్వుటమ్ముల బదరి వ్రేసిన కొమ్మ బ్రతుకునటర</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>పండువెన్నెలచిచ్చు పయినిండ బర్విన నిముసమైనను తాళ నేర్చునటరయళులు ఝుమ్మని మ్రోయ జిలుకలు రొదసేయ సతి కింపుగా వినగ నౌనటరముమ్మరమ్మై చల్వతెమ్మెర వీచిన నతివ నెమ్మెయి సారె కళుకదటరమరుడు కోపించి చిగురుపువ్వుటమ్ముల బదరి వ్రేసిన కొమ్మ బ్రతుకునటర</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('డు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('చి', 'U'), ('చ్చు', '|'), ('ప', '|'), ('యి', '|'), ('నిం', 'U'), ('డ', '|'), ('బ', 'U'), ('ర్వి', '|'), ('న', '|'), ('ని', '|'), ('ము', '|'), ('స', '|'), ('మై', 'U'), ('న', '|'), ('ను', '|'), ('తా', 'U'), ('ళ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('న', '|'), ('ట', '|'), ('ర', '|'), ('య', '|'), ('ళు', '|'), ('లు', '|'), ('ఝు', 'U'), ('మ్మ', '|'), ('ని', '|'), ('మ్రో', 'U'), ('య', '|'), ('జి', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('రొ', '|'), ('ద', '|'), ('సే', 'U'), ('య', '|'), ('స', '|'), ('తి', '|'), ('కిం', 'U'), ('పు', '|'), ('గా', 'U'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('నౌ', 'U'), ('న', '|'), ('ట', '|'), ('ర', '|'), ('ము', 'U'), ('మ్మ', '|'), ('ర', 'U'), ('మ్మై', 'U'), ('చ', 'U'), ('ల్వ', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('వీ', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('సా', 'U'), ('రె', '|'), ('క', '|'), ('ళు', '|'), ('క', '|'), ('ద', '|'), ('ట', '|'), ('ర', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('కో', 'U'), ('పిం', 'U'), ('చి', '|'), ('చి', '|'), ('గు', '|'), ('రు', '|'), ('పు', 'U'), ('వ్వు', '|'), ('ట', 'U'), ('మ్ము', '|'), ('ల', '|'), ('బ', '|'), ('ద', '|'), ('రి', 'U'), ('వ్రే', 'U'), ('సి', '|'), ('న', '|'), ('కొ', 'U'), ('మ్మ', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('న', '|'), ('ట', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన నా సుందరాంగిని గారవమున | ... ... ... ... నదగు నీకైన యింతి నిపుడుచలముడిగి వేగ రావయ్య సారసాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>గాన నా సుందరాంగిని గారవమున | ... ... ... ... నదగు నీకైన యింతి నిపుడుచలముడిగి వేగ రావయ్య సారసాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('నా', 'U'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గి', '|'), ('ని', '|'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('నీ', 'U'), ('కై', 'U'), ('న', '|'), ('యిం', 'U'), ('తి', '|'), ('ని', '|'), ('పు', '|'), ('డు', '|'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('వే', 'U'), ('గ', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('సా', 'U'), ('ర', '|'), ('సా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నిముషంబు నొకకడ నిల్వనోపదు మారుతాపంబుచేతను తాళలేకనించుకేనియు నన్నమింపుగాకను మోహపరవశయై యుండు బాళిమీరక్షణమైన నిదురింపజాలదు వలపున చిత్తంబులో గడుచింతనొందగడియకు బలుమారు కడువడి భ్రమజెంది నిను దలంచుచునుండు నీరజాక్ష</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>నిముషంబు నొకకడ నిల్వనోపదు మారుతాపంబుచేతను తాళలేకనించుకేనియు నన్నమింపుగాకను మోహపరవశయై యుండు బాళిమీరక్షణమైన నిదురింపజాలదు వలపున చిత్తంబులో గడుచింతనొందగడియకు బలుమారు కడువడి భ్రమజెంది నిను దలంచుచునుండు నీరజాక్ష</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ము', '|'), ('షం', 'U'), ('బు', '|'), ('నొ', '|'), ('క', '|'), ('క', '|'), ('డ', '|'), ('ని', 'U'), ('ల్వ', '|'), ('నో', 'U'), ('ప', '|'), ('దు', '|'), ('మా', 'U'), ('రు', '|'), ('తా', 'U'), ('పం', 'U'), ('బు', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('తా', 'U'), ('ళ', '|'), ('లే', 'U'), ('క', '|'), ('నిం', 'U'), ('చు', '|'), ('కే', 'U'), ('ని', '|'), ('యు', '|'), ('న', 'U'), ('న్న', '|'), ('మిం', 'U'), ('పు', '|'), ('గా', 'U'), ('క', '|'), ('ను', '|'), ('మో', 'U'), ('హ', '|'), ('ప', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('యై', 'U'), ('యుం', 'U'), ('డు', '|'), ('బా', 'U'), ('ళి', '|'), ('మీ', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మై', 'U'), ('న', '|'), ('ని', '|'), ('దు', '|'), ('రిం', 'U'), ('ప', '|'), ('జా', 'U'), ('ల', '|'), ('దు', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లో', 'U'), ('గ', '|'), ('డు', '|'), ('చిం', 'U'), ('త', '|'), ('నొం', 'U'), ('ద', '|'), ('గ', '|'), ('డి', '|'), ('య', '|'), ('కు', '|'), ('బ', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('క', '|'), ('డు', '|'), ('వ', '|'), ('డి', 'U'), ('భ్ర', '|'), ('మ', '|'), ('జెం', 'U'), ('ది', '|'), ('ని', '|'), ('ను', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|')]</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాననిక జాగు సేయక కరుణగల్గి | యింతికడ కేగుదెమ్ము నీ వింపుమీరతామసించిన మరు బాళి తాళదింక | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>గాననిక జాగు సేయక కరుణగల్గి | యింతికడ కేగుదెమ్ము నీ వింపుమీరతామసించిన మరు బాళి తాళదింక | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('ని', '|'), ('క', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యిం', 'U'), ('తి', '|'), ('క', '|'), ('డ', '|'), ('కే', 'U'), ('గు', '|'), ('దె', 'U'), ('మ్ము', '|'), ('నీ', 'U'), ('విం', 'U'), ('పు', '|'), ('మీ', 'U'), ('ర', '|'), ('తా', 'U'), ('మ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('రు', '|'), ('బా', 'U'), ('ళి', '|'), ('తా', 'U'), ('ళ', '|'), ('దిం', 'U'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చౌసీతిబంధముల్ సరిబొంద బెనగెడి కొమరు ప్రాయపు ముద్దుగుమ్మ గదరసదమదంబున విభు నెదనంట గుబ్బలనదిమి కౌఁగిట జేర్చు నతివ గదరఅసియాడు గౌనున నెసగు ఘంటల మ్రోత నెడపక గావించు నింతి గదరబాళిచే గెమ్మోవి గ్రోలించి కడుమంచిమాటలచే ...ంచు మగువ గదర</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>చౌసీతిబంధముల్ సరిబొంద బెనగెడి కొమరు ప్రాయపు ముద్దుగుమ్మ గదరసదమదంబున విభు నెదనంట గుబ్బలనదిమి కౌఁగిట జేర్చు నతివ గదరఅసియాడు గౌనున నెసగు ఘంటల మ్రోత నెడపక గావించు నింతి గదరబాళిచే గెమ్మోవి గ్రోలించి కడుమంచిమాటలచే ...ంచు మగువ గదర</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
           <t>[('చౌ', 'U'), ('సీ', 'U'), ('తి', '|'), ('బం', 'U'), ('ధ', '|'), ('ముల్', 'U'), ('స', '|'), ('రి', '|'), ('బొం', 'U'), ('ద', '|'), ('బె', '|'), ('న', '|'), ('గె', '|'), ('డి', '|'), ('కొ', '|'), ('మ', '|'), ('రు', 'U'), ('ప్రా', 'U'), ('య', '|'), ('పు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('మ్మ', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('స', '|'), ('ద', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('వి', '|'), ('భు', '|'), ('నె', '|'), ('ద', '|'), ('నం', 'U'), ('ట', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('న', '|'), ('ది', '|'), ('మి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్చు', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('అ', '|'), ('సి', '|'), ('యా', 'U'), ('డు', '|'), ('గౌ', 'U'), ('ను', '|'), ('న', '|'), ('నె', '|'), ('స', '|'), ('గు', '|'), ('ఘం', 'U'), ('ట', '|'), ('ల', '|'), ('మ్రో', 'U'), ('త', '|'), ('నె', '|'), ('డ', '|'), ('ప', '|'), ('క', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('నిం', 'U'), ('తి', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('బా', 'U'), ('ళి', '|'), ('చే', 'U'), ('గె', 'U'), ('మ్మో', 'U'), ('వి', 'U'), ('గ్రో', 'U'), ('లిం', 'U'), ('చి', '|'), ('క', '|'), ('డు', '|'), ('మం', 'U'), ('చి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('చే', 'U'), ('.ం', 'U'), ('చు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దాని సొగసెంత వగలెంత దలప వశమె | యెన్నదగినట్టి వెలదులమిన్న యగురనన్నె మదిగోరి యున్నది నీరజాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>దాని సొగసెంత వగలెంత దలప వశమె | యెన్నదగినట్టి వెలదులమిన్న యగురనన్నె మదిగోరి యున్నది నీరజాక్ష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('ని', '|'), ('సొ', '|'), ('గ', '|'), ('సెం', 'U'), ('త', '|'), ('వ', '|'), ('గ', '|'), ('లెం', 'U'), ('త', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మె', '|'), ('యె', 'U'), ('న్న', '|'), ('ద', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('వె', '|'), ('ల', '|'), ('దు', '|'), ('ల', '|'), ('మి', 'U'), ('న్న', '|'), ('య', '|'), ('గు', '|'), ('ర', '|'), ('న', 'U'), ('న్నె', '|'), ('మ', '|'), ('ది', '|'), ('గో', 'U'), ('రి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఏణాక్షి నీకేమి యెగ్గు జేసిన గాని తప్పు మన్నించరా దానవారిపతితోడ కలహించు భామినితో పొందు చేయంగవచ్చునే జలజపాణిచిరుత ప్రాయమునాటి చెలిమిని యా యింతి వాదించె గాబోలు వనజనాభపతిభక్తి గలిగిన పడతి తా విభునితోడ నెదిరింపదగునే యెమ్మెలాడి</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ఏణాక్షి నీకేమి యెగ్గు జేసిన గాని తప్పు మన్నించరా దానవారిపతితోడ కలహించు భామినితో పొందు చేయంగవచ్చునే జలజపాణిచిరుత ప్రాయమునాటి చెలిమిని యా యింతి వాదించె గాబోలు వనజనాభపతిభక్తి గలిగిన పడతి తా విభునితోడ నెదిరింపదగునే యెమ్మెలాడి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('ణా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('కే', 'U'), ('మి', '|'), ('యె', 'U'), ('గ్గు', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('త', 'U'), ('ప్పు', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చ', '|'), ('రా', 'U'), ('దా', 'U'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('ప', '|'), ('తి', '|'), ('తో', 'U'), ('డ', '|'), ('క', '|'), ('ల', '|'), ('హిం', 'U'), ('చు', '|'), ('భా', 'U'), ('మి', '|'), ('ని', '|'), ('తో', 'U'), ('పొం', 'U'), ('దు', '|'), ('చే', 'U'), ('యం', 'U'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నే', 'U'), ('జ', '|'), ('ల', '|'), ('జ', '|'), ('పా', 'U'), ('ణి', '|'), ('చి', '|'), ('రు', '|'), ('త', 'U'), ('ప్రా', 'U'), ('య', '|'), ('ము', '|'), ('నా', 'U'), ('టి', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('ని', '|'), ('యా', 'U'), ('యిం', 'U'), ('తి', '|'), ('వా', 'U'), ('దిం', 'U'), ('చె', '|'), ('గా', 'U'), ('బో', 'U'), ('లు', '|'), ('వ', '|'), ('న', '|'), ('జ', '|'), ('నా', 'U'), ('భ', '|'), ('ప', '|'), ('తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('తా', 'U'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('ది', '|'), ('రిం', 'U'), ('ప', '|'), ('ద', '|'), ('గు', '|'), ('నే', 'U'), ('యె', 'U'), ('మ్మె', '|'), ('లా', 'U'), ('డి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యైన నీ తప్పు సైరించి యతివ కడకు | రమ్ము పదివేల జోతలు రమణ నీకుజేయ మది గోరియున్నది జాలమేల | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>యైన నీ తప్పు సైరించి యతివ కడకు | రమ్ము పదివేల జోతలు రమణ నీకుజేయ మది గోరియున్నది జాలమేల | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
           <t>[('యై', 'U'), ('న', '|'), ('నీ', 'U'), ('త', 'U'), ('ప్పు', '|'), ('సై', 'U'), ('రిం', 'U'), ('చి', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('ర', 'U'), ('మ్ము', '|'), ('ప', '|'), ('ది', '|'), ('వే', 'U'), ('ల', '|'), ('జో', 'U'), ('త', '|'), ('లు', '|'), ('ర', '|'), ('మ', '|'), ('ణ', '|'), ('నీ', 'U'), ('కు', '|'), ('జే', 'U'), ('య', '|'), ('మ', '|'), ('ది', '|'), ('గో', 'U'), ('రి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('జా', 'U'), ('ల', '|'), ('మే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చెలియ సాష్టాంగంబు చేసి వేడితివని నెనరుంతు నీపైని నెలత పోవెనెనరుంచి మా యింతి నెమ్మది నేలుటకిది తరుణంబన్న నేచదగునెతగువుల పుట్నిల్లు తరుణి మీ సతిమాట లెఱుగమా పో పోవె యింతి నీవుపరసతితోడను భాషింపరాదని తగవొనరించె మా తరుణి మొన్న</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>చెలియ సాష్టాంగంబు చేసి వేడితివని నెనరుంతు నీపైని నెలత పోవెనెనరుంచి మా యింతి నెమ్మది నేలుటకిది తరుణంబన్న నేచదగునెతగువుల పుట్నిల్లు తరుణి మీ సతిమాట లెఱుగమా పో పోవె యింతి నీవుపరసతితోడను భాషింపరాదని తగవొనరించె మా తరుణి మొన్న</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లి', '|'), ('య', '|'), ('సా', 'U'), ('ష్టాం', 'U'), ('గం', 'U'), ('బు', '|'), ('చే', 'U'), ('సి', '|'), ('వే', 'U'), ('డి', '|'), ('తి', '|'), ('వ', '|'), ('ని', '|'), ('నె', '|'), ('న', '|'), ('రుం', 'U'), ('తు', '|'), ('నీ', 'U'), ('పై', 'U'), ('ని', '|'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('పో', 'U'), ('వె', '|'), ('నె', '|'), ('న', '|'), ('రుం', 'U'), ('చి', '|'), ('మా', 'U'), ('యిం', 'U'), ('తి', '|'), ('నె', 'U'), ('మ్మ', '|'), ('ది', '|'), ('నే', 'U'), ('లు', '|'), ('ట', '|'), ('కి', '|'), ('ది', '|'), ('త', '|'), ('రు', '|'), ('ణం', 'U'), ('బ', 'U'), ('న్న', '|'), ('నే', 'U'), ('చ', '|'), ('ద', '|'), ('గు', '|'), ('నె', '|'), ('త', '|'), ('గు', '|'), ('వు', '|'), ('ల', '|'), ('పు', 'U'), ('ట్ని', 'U'), ('ల్లు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('మీ', 'U'), ('స', '|'), ('తి', '|'), ('మా', 'U'), ('ట', '|'), ('లె', '|'), ('ఱు', '|'), ('గ', '|'), ('మా', 'U'), ('పో', 'U'), ('పో', 'U'), ('వె', '|'), ('యిం', 'U'), ('తి', '|'), ('నీ', 'U'), ('వు', '|'), ('ప', '|'), ('ర', '|'), ('స', '|'), ('తి', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('భా', 'U'), ('షిం', 'U'), ('ప', '|'), ('రా', 'U'), ('ద', '|'), ('ని', '|'), ('త', '|'), ('గ', '|'), ('వొ', '|'), ('న', '|'), ('రిం', 'U'), ('చె', '|'), ('మా', 'U'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('మొ', 'U'), ('న్న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నెన్ని నేర్చినదానవే యింతి నీవు | వనిత వెనువెంట నిదిగొ నే వత్తు బోవెరమ్ము వేవేగ నిక నింత రవ్వలేల | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>నెన్ని నేర్చినదానవే యింతి నీవు | వనిత వెనువెంట నిదిగొ నే వత్తు బోవెరమ్ము వేవేగ నిక నింత రవ్వలేల | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
           <t>[('నె', 'U'), ('న్ని', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('వే', 'U'), ('యిం', 'U'), ('తి', '|'), ('నీ', 'U'), ('వు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('వె', '|'), ('ను', '|'), ('వెం', 'U'), ('ట', '|'), ('ని', '|'), ('ది', '|'), ('గొ', '|'), ('నే', 'U'), ('వ', 'U'), ('త్తు', '|'), ('బో', 'U'), ('వె', '|'), ('ర', 'U'), ('మ్ము', '|'), ('వే', 'U'), ('వే', 'U'), ('గ', '|'), ('ని', '|'), ('క', '|'), ('నిం', 'U'), ('త', '|'), ('ర', 'U'), ('వ్వ', '|'), ('లే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పదవె భామిని కడకు బయినమై వచ్చెదనని లేచి శ్రీకృష్ణు డతిముదమునమహనియ్యమగు దివ్యమణికిరీటము దాల్చి వరరత్నభూషణావళులు మెఱయకర్ణశోభితమగు కనకకుండలములు పాదనూపురములు ప్రబలి మ్రోయపసిడిబంగారుదుప్పటివల్లెవాటుతో వెడలిన హరి జూచి వేగ జెలియ</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>పదవె భామిని కడకు బయినమై వచ్చెదనని లేచి శ్రీకృష్ణు డతిముదమునమహనియ్యమగు దివ్యమణికిరీటము దాల్చి వరరత్నభూషణావళులు మెఱయకర్ణశోభితమగు కనకకుండలములు పాదనూపురములు ప్రబలి మ్రోయపసిడిబంగారుదుప్పటివల్లెవాటుతో వెడలిన హరి జూచి వేగ జెలియ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ద', '|'), ('వె', '|'), ('భా', 'U'), ('మి', '|'), ('ని', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('బ', '|'), ('యి', '|'), ('న', '|'), ('మై', 'U'), ('వ', 'U'), ('చ్చె', '|'), ('ద', '|'), ('న', '|'), ('ని', '|'), ('లే', 'U'), ('చి', 'U'), ('శ్రీ', 'U'), ('కృ', 'U'), ('ష్ణు', '|'), ('డ', '|'), ('తి', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('మ', '|'), ('హ', '|'), ('ని', 'U'), ('య్య', '|'), ('మ', '|'), ('గు', '|'), ('ది', 'U'), ('వ్య', '|'), ('మ', '|'), ('ణి', '|'), ('కి', '|'), ('రీ', 'U'), ('ట', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చి', '|'), ('వ', '|'), ('ర', '|'), ('ర', 'U'), ('త్న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణా', 'U'), ('వ', '|'), ('ళు', '|'), ('లు', '|'), ('మె', '|'), ('ఱ', '|'), ('య', '|'), ('క', 'U'), ('ర్ణ', '|'), ('శో', 'U'), ('భి', '|'), ('త', '|'), ('మ', '|'), ('గు', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('కుం', 'U'), ('డ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('పా', 'U'), ('ద', '|'), ('నూ', 'U'), ('పు', '|'), ('ర', '|'), ('ము', '|'), ('లు', 'U'), ('ప్ర', '|'), ('బ', '|'), ('లి', '|'), ('మ్రో', 'U'), ('య', '|'), ('ప', '|'), ('సి', '|'), ('డి', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('దు', 'U'), ('ప్ప', '|'), ('టి', '|'), ('వ', 'U'), ('ల్లె', '|'), ('వా', 'U'), ('టు', '|'), ('తో', 'U'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('న', '|'), ('హ', '|'), ('రి', '|'), ('జూ', 'U'), ('చి', '|'), ('వే', 'U'), ('గ', '|'), ('జె', '|'), ('లి', '|'), ('య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>స్వామి మీ దయ నేడు మా సఖియకోర్కె | దీరగా గల్గె నీ శుభదినమునందుభవ్యగుణజాల శుభలీల భక్తపాల | మదనగోపాల సత్యభామావిలోలా!</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>స్వామి మీ దయ నేడు మా సఖియకోర్కె | దీరగా గల్గె నీ శుభదినమునందుభవ్యగుణజాల శుభలీల భక్తపాల | మదనగోపాల సత్యభామావిలోలా!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
           <t>[('స్వా', 'U'), ('మి', '|'), ('మీ', 'U'), ('ద', '|'), ('య', '|'), ('నే', 'U'), ('డు', '|'), ('మా', 'U'), ('స', '|'), ('ఖి', '|'), ('య', '|'), ('కో', 'U'), ('ర్కె', '|'), ('దీ', 'U'), ('ర', '|'), ('గా', 'U'), ('గ', 'U'), ('ల్గె', '|'), ('నీ', 'U'), ('శు', '|'), ('భ', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('భ', 'U'), ('వ్య', '|'), ('గు', '|'), ('ణ', '|'), ('జా', 'U'), ('ల', '|'), ('శు', '|'), ('భ', '|'), ('లీ', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('పా', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('లా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>సరసిజాక్షుడు ప్రాణసఖిమందిరము జేరవచ్చిన నెదురేగి వనిత విభునినర్ఘ్యపాద్యాదుల నతివేగ నర్చించి దండప్రణామంబు దగ నొనర్చికనకాంగి ప్రాణేశు గౌఁగిట దగ జేర్చి పరగెడి తన కేళిభవనమునకువేగ దోడ్కొనిపోయి వెలది పచ్చలగద్దెపయి నునిచి యా సతి బాగుమీర</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>సరసిజాక్షుడు ప్రాణసఖిమందిరము జేరవచ్చిన నెదురేగి వనిత విభునినర్ఘ్యపాద్యాదుల నతివేగ నర్చించి దండప్రణామంబు దగ నొనర్చికనకాంగి ప్రాణేశు గౌఁగిట దగ జేర్చి పరగెడి తన కేళిభవనమునకువేగ దోడ్కొనిపోయి వెలది పచ్చలగద్దెపయి నునిచి యా సతి బాగుమీర</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('సి', '|'), ('జా', 'U'), ('క్షు', '|'), ('డు', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('స', '|'), ('ఖి', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('జే', 'U'), ('ర', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('నె', '|'), ('దు', '|'), ('రే', 'U'), ('గి', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('న', 'U'), ('ర్ఘ్య', '|'), ('పా', 'U'), ('ద్యా', 'U'), ('దు', '|'), ('ల', '|'), ('న', '|'), ('తి', '|'), ('వే', 'U'), ('గ', '|'), ('న', 'U'), ('ర్చిం', 'U'), ('చి', '|'), ('దం', 'U'), ('డ', 'U'), ('ప్ర', '|'), ('ణా', 'U'), ('మం', 'U'), ('బు', '|'), ('ద', '|'), ('గ', '|'), ('నొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('క', '|'), ('న', '|'), ('కాం', 'U'), ('గి', 'U'), ('ప్రా', 'U'), ('ణే', 'U'), ('శు', '|'), ('గౌ', 'U'), ('గి', '|'), ('ట', '|'), ('ద', '|'), ('గ', '|'), ('జే', 'U'), ('ర్చి', '|'), ('ప', '|'), ('ర', '|'), ('గె', '|'), ('డి', '|'), ('త', '|'), ('న', '|'), ('కే', 'U'), ('ళి', '|'), ('భ', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('వే', 'U'), ('గ', '|'), ('దో', 'U'), ('డ్కొ', '|'), ('ని', '|'), ('పో', 'U'), ('యి', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('ప', 'U'), ('చ్చ', '|'), ('ల', '|'), ('గ', 'U'), ('ద్దె', '|'), ('ప', '|'), ('యి', '|'), ('ను', '|'), ('ని', '|'), ('చి', '|'), ('యా', 'U'), ('స', '|'), ('తి', '|'), ('బా', 'U'), ('గు', '|'), ('మీ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>విభుని సన్నిధిలోనుండి వెలది బలికె | నన్ను నెడబాసి యిట్లుండ న్యాయమటరమరుని బారికి నెటులోర్తు మగువ నేను | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>విభుని సన్నిధిలోనుండి వెలది బలికె | నన్ను నెడబాసి యిట్లుండ న్యాయమటరమరుని బారికి నెటులోర్తు మగువ నేను | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('భు', '|'), ('ని', '|'), ('స', 'U'), ('న్ని', '|'), ('ధి', '|'), ('లో', 'U'), ('నుం', 'U'), ('డి', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('బ', '|'), ('లి', '|'), ('కె', '|'), ('న', 'U'), ('న్ను', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('యి', 'U'), ('ట్లుం', 'U'), ('డ', 'U'), ('న్యా', 'U'), ('య', '|'), ('మ', '|'), ('ట', '|'), ('ర', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('బా', 'U'), ('రి', '|'), ('కి', '|'), ('నె', '|'), ('టు', '|'), ('లో', 'U'), ('ర్తు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('నే', 'U'), ('ను', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తన ప్రాణవిభునకు దడయక పన్నీట మజ్జనం బొనరించి మగువ కనకపళ్లెరంబున మంచిపస గల యన్నంబు గోఘృతపక్వమౌ కూరలమరనప్పడంబులు కందిపప్పును నొబ్బట్లు పాలుచక్కెర వెన్న పాయసంబుఘమ్మని వాసింపగా చారువడియముల్ పసిడిచెంబుల నీరు బాగుమీర</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>తన ప్రాణవిభునకు దడయక పన్నీట మజ్జనం బొనరించి మగువ కనకపళ్లెరంబున మంచిపస గల యన్నంబు గోఘృతపక్వమౌ కూరలమరనప్పడంబులు కందిపప్పును నొబ్బట్లు పాలుచక్కెర వెన్న పాయసంబుఘమ్మని వాసింపగా చారువడియముల్ పసిడిచెంబుల నీరు బాగుమీర</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కు', '|'), ('ద', '|'), ('డ', '|'), ('య', '|'), ('క', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('ట', '|'), ('మ', 'U'), ('జ్జ', '|'), ('నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('ప', 'U'), ('ళ్లె', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('మం', 'U'), ('చి', '|'), ('ప', '|'), ('స', '|'), ('గ', '|'), ('ల', '|'), ('య', 'U'), ('న్నం', 'U'), ('బు', '|'), ('గో', 'U'), ('ఘృ', '|'), ('త', '|'), ('ప', 'U'), ('క్వ', '|'), ('మౌ', 'U'), ('కూ', 'U'), ('ర', '|'), ('ల', '|'), ('మ', '|'), ('ర', '|'), ('న', 'U'), ('ప్ప', '|'), ('డం', 'U'), ('బు', '|'), ('లు', '|'), ('కం', 'U'), ('ది', '|'), ('ప', 'U'), ('ప్పు', '|'), ('ను', '|'), ('నొ', 'U'), ('బ్బ', 'U'), ('ట్లు', '|'), ('పా', 'U'), ('లు', '|'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('వె', 'U'), ('న్న', '|'), ('పా', 'U'), ('య', '|'), ('సం', 'U'), ('బు', '|'), ('ఘ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వా', 'U'), ('సిం', 'U'), ('ప', '|'), ('గా', 'U'), ('చా', 'U'), ('రు', '|'), ('వ', '|'), ('డి', '|'), ('య', '|'), ('ముల్', 'U'), ('ప', '|'), ('సి', '|'), ('డి', '|'), ('చెం', 'U'), ('బు', '|'), ('ల', '|'), ('నీ', 'U'), ('రు', '|'), ('బా', 'U'), ('గు', '|'), ('మీ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>విభుని ముందటనిడి వేగ వెలది విరుల | సురటి వీవంగ భుజియింప సుదతి విభునిజూచి నను బాయకిక నేలు సుందరాంగ | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>విభుని ముందటనిడి వేగ వెలది విరుల | సురటి వీవంగ భుజియింప సుదతి విభునిజూచి నను బాయకిక నేలు సుందరాంగ | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('భు', '|'), ('ని', '|'), ('ముం', 'U'), ('ద', '|'), ('ట', '|'), ('ని', '|'), ('డి', '|'), ('వే', 'U'), ('గ', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('వి', '|'), ('రు', '|'), ('ల', '|'), ('సు', '|'), ('ర', '|'), ('టి', '|'), ('వీ', 'U'), ('వం', 'U'), ('గ', '|'), ('భు', '|'), ('జి', '|'), ('యిం', 'U'), ('ప', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('కి', '|'), ('క', '|'), ('నే', 'U'), ('లు', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నవరత్నకాంతు లున్నతమైన కేళికాభవనంబులో విరిపాన్పు జేరిపరగ గందము మంచిపన్నీరు జవ్వాది బంగారుగిన్నెల బాగుపరచివిరిసరంబులు మంచిమరువంబు కురువేరు నపరంజితట్టల నమరజేర్చిప్రాణనాథుని జేరి పడతుక కడుమంచియాకుమడ్పు లొసంగి యతివ మరుని</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>నవరత్నకాంతు లున్నతమైన కేళికాభవనంబులో విరిపాన్పు జేరిపరగ గందము మంచిపన్నీరు జవ్వాది బంగారుగిన్నెల బాగుపరచివిరిసరంబులు మంచిమరువంబు కురువేరు నపరంజితట్టల నమరజేర్చిప్రాణనాథుని జేరి పడతుక కడుమంచియాకుమడ్పు లొసంగి యతివ మరుని</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('వ', '|'), ('ర', 'U'), ('త్న', '|'), ('కాం', 'U'), ('తు', '|'), ('లు', 'U'), ('న్న', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('కే', 'U'), ('ళి', '|'), ('కా', 'U'), ('భ', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('వి', '|'), ('రి', '|'), ('పా', 'U'), ('న్పు', '|'), ('జే', 'U'), ('రి', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('గం', 'U'), ('ద', '|'), ('ము', '|'), ('మం', 'U'), ('చి', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('జ', 'U'), ('వ్వా', 'U'), ('ది', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('గి', 'U'), ('న్నె', '|'), ('ల', '|'), ('బా', 'U'), ('గు', '|'), ('ప', '|'), ('ర', '|'), ('చి', '|'), ('వి', '|'), ('రి', '|'), ('స', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('మం', 'U'), ('చి', '|'), ('మ', '|'), ('రు', '|'), ('వం', 'U'), ('బు', '|'), ('కు', '|'), ('రు', '|'), ('వే', 'U'), ('రు', '|'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('త', 'U'), ('ట్ట', '|'), ('ల', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('జే', 'U'), ('ర్చి', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('జే', 'U'), ('రి', '|'), ('ప', '|'), ('డ', '|'), ('తు', '|'), ('క', '|'), ('క', '|'), ('డు', '|'), ('మం', 'U'), ('చి', '|'), ('యా', 'U'), ('కు', '|'), ('మ', 'U'), ('డ్పు', '|'), ('లొ', '|'), ('సం', 'U'), ('గి', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కేళి దేలుచు సుఖియించి కీరవాణి | మమత బాయక విభు చెంత మగువ జేరియవుర నా సామి నను బాయకనుచు బొగడె | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>కేళి దేలుచు సుఖియించి కీరవాణి | మమత బాయక విభు చెంత మగువ జేరియవుర నా సామి నను బాయకనుచు బొగడె | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
           <t>[('కే', 'U'), ('ళి', '|'), ('దే', 'U'), ('లు', '|'), ('చు', '|'), ('సు', '|'), ('ఖి', '|'), ('యిం', 'U'), ('చి', '|'), ('కీ', 'U'), ('ర', '|'), ('వా', 'U'), ('ణి', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('వి', '|'), ('భు', '|'), ('చెం', 'U'), ('త', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('జే', 'U'), ('రి', '|'), ('య', '|'), ('వు', '|'), ('ర', '|'), ('నా', 'U'), ('సా', 'U'), ('మి', '|'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('ను', '|'), ('చు', '|'), ('బొ', '|'), ('గ', '|'), ('డె', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>అంత శ్రీకృష్ణుడా యలివేణితో గూడి మెరయ మిద్దెలయందు మేడలందుకేళివనములందును కృతాద్రులందును పొదరిండ్ల దగు సురపొన్నలందునిసుకదిన్నెలయందు శశికాంతశిలలందు మదనోత్సవములను మగువ గూడిసుఖలీల నెదుకులసోముడై చెన్నొంది పరగ భక్తుల బ్రోవ భవ్యమతిని</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>అంత శ్రీకృష్ణుడా యలివేణితో గూడి మెరయ మిద్దెలయందు మేడలందుకేళివనములందును కృతాద్రులందును పొదరిండ్ల దగు సురపొన్నలందునిసుకదిన్నెలయందు శశికాంతశిలలందు మదనోత్సవములను మగువ గూడిసుఖలీల నెదుకులసోముడై చెన్నొంది పరగ భక్తుల బ్రోవ భవ్యమతిని</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('త', 'U'), ('శ్రీ', 'U'), ('కృ', 'U'), ('ష్ణు', '|'), ('డా', 'U'), ('య', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('తో', 'U'), ('గూ', 'U'), ('డి', '|'), ('మె', '|'), ('ర', '|'), ('య', '|'), ('మి', 'U'), ('ద్దె', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('మే', 'U'), ('డ', '|'), ('లం', 'U'), ('దు', '|'), ('కే', 'U'), ('ళి', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('ను', '|'), ('కృ', '|'), ('తా', 'U'), ('ద్రు', '|'), ('లం', 'U'), ('దు', '|'), ('ను', '|'), ('పొ', '|'), ('ద', '|'), ('రిం', 'U'), ('డ్ల', '|'), ('ద', '|'), ('గు', '|'), ('సు', '|'), ('ర', '|'), ('పొ', 'U'), ('న్న', '|'), ('లం', 'U'), ('దు', '|'), ('ని', '|'), ('సు', '|'), ('క', '|'), ('ది', 'U'), ('న్నె', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('శ', '|'), ('శి', '|'), ('కాం', 'U'), ('త', '|'), ('శి', '|'), ('ల', '|'), ('లం', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('నో', 'U'), ('త్స', '|'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('గూ', 'U'), ('డి', '|'), ('సు', '|'), ('ఖ', '|'), ('లీ', 'U'), ('ల', '|'), ('నె', '|'), ('దు', '|'), ('కు', '|'), ('ల', '|'), ('సో', 'U'), ('ము', '|'), ('డై', 'U'), ('చె', 'U'), ('న్నొం', 'U'), ('ది', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('భ', 'U'), ('క్తు', '|'), ('ల', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('భ', 'U'), ('వ్య', '|'), ('మ', '|'), ('తి', '|'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నున్న దేవుని ... ... ... ... న్ని పూజ సేయదలచిన వారికి సిరులొసంగికోర్కెలొడగూర్తు గదవయ్య కోవలంక(?) | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>నున్న దేవుని ... ... ... ... న్ని పూజ సేయదలచిన వారికి సిరులొసంగికోర్కెలొడగూర్తు గదవయ్య కోవలంక(?) | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
           <t>[('ను', 'U'), ('న్న', '|'), ('దే', 'U'), ('వు', '|'), ('ని', 'U'), ('న్ని', '|'), ('పూ', 'U'), ('జ', '|'), ('సే', 'U'), ('య', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('సి', '|'), ('రు', '|'), ('లొ', '|'), ('సం', 'U'), ('గి', '|'), ('కో', 'U'), ('ర్కె', '|'), ('లొ', '|'), ('డ', '|'), ('గూ', 'U'), ('ర్తు', '|'), ('గ', '|'), ('ద', '|'), ('వ', 'U'), ('య్య', '|'), ('కో', 'U'), ('వ', '|'), ('లం', 'U'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>వసుధ విజయనగవంశాబ్ధిచంద్రుడౌ వెలయ వెంకటగిరి విభున కెలమివరపుత్ర ... ... ... రివరమున బహువిధకృతులు గావించి సత్కీర్తి వెలసిరాజిల్లు చెంగల్వరాయాహ్వయంబున దేజమొప్ప నృసింహదేవు పాదకమలముల్ మదినుంచి గరిమ శ్రీహరిపేర నంకితంబుగ కబ్బమమరజెప్పి</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>వసుధ విజయనగవంశాబ్ధిచంద్రుడౌ వెలయ వెంకటగిరి విభున కెలమివరపుత్ర ... ... ... రివరమున బహువిధకృతులు గావించి సత్కీర్తి వెలసిరాజిల్లు చెంగల్వరాయాహ్వయంబున దేజమొప్ప నృసింహదేవు పాదకమలముల్ మదినుంచి గరిమ శ్రీహరిపేర నంకితంబుగ కబ్బమమరజెప్పి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('సు', '|'), ('ధ', '|'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('న', '|'), ('గ', '|'), ('వం', 'U'), ('శా', 'U'), ('బ్ధి', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డౌ', 'U'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('వెం', 'U'), ('క', '|'), ('ట', '|'), ('గి', '|'), ('రి', '|'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కె', '|'), ('ల', '|'), ('మి', '|'), ('వ', '|'), ('ర', '|'), ('పు', 'U'), ('త్ర', '|'), ('రి', '|'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('బ', '|'), ('హు', '|'), ('వి', '|'), ('ధ', '|'), ('కృ', '|'), ('తు', '|'), ('లు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('స', 'U'), ('త్కీ', 'U'), ('ర్తి', '|'), ('వె', '|'), ('ల', '|'), ('సి', '|'), ('రా', 'U'), ('జి', 'U'), ('ల్లు', '|'), ('చెం', 'U'), ('గ', 'U'), ('ల్వ', '|'), ('రా', 'U'), ('యా', 'U'), ('హ్వ', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('దే', 'U'), ('జ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('దే', 'U'), ('వు', '|'), ('పా', 'U'), ('ద', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('ముల్', 'U'), ('మ', '|'), ('ది', '|'), ('నుం', 'U'), ('చి', '|'), ('గ', '|'), ('రి', '|'), ('మ', 'U'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', '|'), ('పే', 'U'), ('ర', '|'), ('నం', 'U'), ('కి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('క', 'U'), ('బ్బ', '|'), ('మ', '|'), ('మ', '|'), ('ర', '|'), ('జె', 'U'), ('ప్పి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యబ్జనేత్రుని బదముల కర్పణంబు | చేసి విఖ్యాతి మైనుండ జెలగి నాదువాంఛలెల్లను సమకూర్చి వరములొసగు | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>యబ్జనేత్రుని బదముల కర్పణంబు | చేసి విఖ్యాతి మైనుండ జెలగి నాదువాంఛలెల్లను సమకూర్చి వరములొసగు | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
           <t>[('య', 'U'), ('బ్జ', '|'), ('నే', 'U'), ('త్రు', '|'), ('ని', '|'), ('బ', '|'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('క', 'U'), ('ర్ప', '|'), ('ణం', 'U'), ('బు', '|'), ('చే', 'U'), ('సి', '|'), ('వి', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('మై', 'U'), ('నుం', 'U'), ('డ', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('నా', 'U'), ('దు', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('స', '|'), ('మ', '|'), ('కూ', 'U'), ('ర్చి', '|'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('లొ', '|'), ('స', '|'), ('గు', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>దండంబు యదువంశమండన గోవింద దండంబు నీకు వేదండవరదదండంబు చంద్రమార్తాండ సులోచన దండంబు నీకు బ్రహ్మాండపోషదండంబు పద్మజాఖండలసన్నుత దండంబు కుండలగండయుగళదండంబు భండనోద్దండపరాక్రమ దండంబు సద్గుణకాండ నీకు</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>దండంబు యదువంశమండన గోవింద దండంబు నీకు వేదండవరదదండంబు చంద్రమార్తాండ సులోచన దండంబు నీకు బ్రహ్మాండపోషదండంబు పద్మజాఖండలసన్నుత దండంబు కుండలగండయుగళదండంబు భండనోద్దండపరాక్రమ దండంబు సద్గుణకాండ నీకు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('య', '|'), ('దు', '|'), ('వం', 'U'), ('శ', '|'), ('మం', 'U'), ('డ', '|'), ('న', '|'), ('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కు', '|'), ('వే', 'U'), ('దం', 'U'), ('డ', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('చం', 'U'), ('ద్ర', '|'), ('మా', 'U'), ('ర్తాం', 'U'), ('డ', '|'), ('సు', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కు', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('పో', 'U'), ('ష', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('ప', 'U'), ('ద్మ', '|'), ('జా', 'U'), ('ఖం', 'U'), ('డ', '|'), ('ల', '|'), ('స', 'U'), ('న్ను', '|'), ('త', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('కుం', 'U'), ('డ', '|'), ('ల', '|'), ('గం', 'U'), ('డ', '|'), ('యు', '|'), ('గ', '|'), ('ళ', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('భం', 'U'), ('డ', '|'), ('నో', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('కాం', 'U'), ('డ', '|'), ('నీ', 'U'), ('కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దండ మహిరాజశయన నీ దండ నమ్మి | యున్నవాడను నన్నేలుకొమ్ము తండ్రిప్రియజనోల్లాసభక్తమనోభిలాష | మదనగోపాల సత్యభామావిలోల!</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>దండ మహిరాజశయన నీ దండ నమ్మి | యున్నవాడను నన్నేలుకొమ్ము తండ్రిప్రియజనోల్లాసభక్తమనోభిలాష | మదనగోపాల సత్యభామావిలోల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>madanagopala</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
-        <is>
-          <t>madanagopala</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
         <is>
           <t>[('దం', 'U'), ('డ', '|'), ('మ', '|'), ('హి', '|'), ('రా', 'U'), ('జ', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('నీ', 'U'), ('దం', 'U'), ('డ', '|'), ('న', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('న్న', '|'), ('వా', 'U'), ('డ', '|'), ('ను', '|'), ('న', 'U'), ('న్నే', 'U'), ('లు', '|'), ('కొ', 'U'), ('మ్ము', '|'), ('తం', 'U'), ('డ్రి', 'U'), ('ప్రి', '|'), ('య', '|'), ('జ', '|'), ('నో', 'U'), ('ల్లా', 'U'), ('స', '|'), ('భ', 'U'), ('క్త', '|'), ('మ', '|'), ('నో', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|')]</t>
         </is>

--- a/dataset/lg/madanagopala.xlsx
+++ b/dataset/lg/madanagopala.xlsx
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('నె', '|'), ('ఱి', '|'), ('కు', '|'), ('రుల్', 'U'), ('నీ', 'U'), ('లా', 'U'), ('ల', '|'), ('ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చు', '|'), ('మో', 'U'), ('ము', '|'), ('తో', 'U'), ('స', '|'), ('రి', '|'), ('యౌ', 'U'), ('నె', '|'), ('పు', 'U'), ('న్న', '|'), ('మ', '|'), ('చం', 'U'), ('ద', '|'), ('మా', 'U'), ('మ', '|'), ('ని', 'U'), ('ద్దం', 'U'), ('పు', '|'), ('ను', '|'), ('ను', '|'), ('జె', 'U'), ('క్కు', '|'), ('ట', 'U'), ('ద్దం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('గె', 'U'), ('ల్చు', '|'), ('ము', 'U'), ('ద్ది', '|'), ('య', '|'), ('యో', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('మొ', '|'), ('న', '|'), ('య', '|'), ('కెం', 'U'), ('పు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('సో', 'U'), ('గ', '|'), ('లు', '|'), ('క', 'U'), ('ల్వ', '|'), ('రే', 'U'), ('కు', '|'), ('ల', '|'), ('మీ', 'U'), ('ఱు', '|'), ('జ', 'U'), ('న్ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('స', '|'), ('రి', '|'), ('జ', 'U'), ('క్క', '|'), ('వ', '|'), ('ల', '|'), ('కు', '|'), ('తి', '|'), ('ల', '|'), ('పు', 'U'), ('ష్ప', '|'), ('ము', '|'), ('ల', '|'), ('గే', 'U'), ('రు', '|'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('నా', 'U'), ('శి', '|'), ('క', '|'), ('తీ', 'U'), ('రు', '|'), ('చె', '|'), ('లి', '|'), ('హ', 'U'), ('స్త', '|'), ('మ', '|'), ('బా', 'U'), ('ళి', '|'), ('జె', '|'), ('న', '|'), ('క', '|'), ('జూ', 'U'), ('చు', '|')]</t>
+          <t>[('నె', '|'), ('ఱి', '|'), ('కు', '|'), ('రు', 'U'), ('ల్నీ', 'U'), ('లా', 'U'), ('ల', '|'), ('ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చు', '|'), ('మో', 'U'), ('ము', '|'), ('తో', 'U'), ('స', '|'), ('రి', '|'), ('యౌ', 'U'), ('నె', '|'), ('పు', 'U'), ('న్న', '|'), ('మ', '|'), ('చం', 'U'), ('ద', '|'), ('మా', 'U'), ('మ', '|'), ('ని', 'U'), ('ద్దం', 'U'), ('పు', '|'), ('ను', '|'), ('ను', '|'), ('జె', 'U'), ('క్కు', '|'), ('ట', 'U'), ('ద్దం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('గె', 'U'), ('ల్చు', '|'), ('ము', 'U'), ('ద్ది', '|'), ('య', '|'), ('యో', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('మొ', '|'), ('న', '|'), ('య', '|'), ('కెం', 'U'), ('పు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('సో', 'U'), ('గ', '|'), ('లు', '|'), ('క', 'U'), ('ల్వ', '|'), ('రే', 'U'), ('కు', '|'), ('ల', '|'), ('మీ', 'U'), ('ఱు', '|'), ('జ', 'U'), ('న్ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('స', '|'), ('రి', '|'), ('జ', 'U'), ('క్క', '|'), ('వ', '|'), ('ల', '|'), ('కు', '|'), ('తి', '|'), ('ల', '|'), ('పు', 'U'), ('ష్ప', '|'), ('ము', '|'), ('ల', '|'), ('గే', 'U'), ('రు', '|'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('నా', 'U'), ('శి', '|'), ('క', '|'), ('తీ', 'U'), ('రు', '|'), ('చె', '|'), ('లి', '|'), ('హ', 'U'), ('స్త', '|'), ('మ', '|'), ('బా', 'U'), ('ళి', '|'), ('జె', '|'), ('న', '|'), ('క', '|'), ('జూ', 'U'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('వ', '|'), ('నూ', 'U'), ('నె', '|'), ('మె', '|'), ('రు', '|'), ('గి', '|'), ('డి', '|'), ('రా', 'U'), ('ణిం', 'U'), ('చు', '|'), ('నె', '|'), ('రి', '|'), ('కు', '|'), ('రుల్', 'U'), ('దు', 'U'), ('వ్వి', '|'), ('కొ', 'U'), ('ప్ప', '|'), ('మ', '|'), ('రిం', 'U'), ('చి', '|'), ('తో', 'U'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('గి', '|'), ('డి', '|'), ('మే', 'U'), ('టి', '|'), ('యొ', 'U'), ('ప్పై', 'U'), ('న', '|'), ('కు', 'U'), ('ప్పె', '|'), ('యు', '|'), ('స', '|'), ('వ', '|'), ('రిం', 'U'), ('చి', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('మీ', 'U'), ('ర', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('కెం', 'U'), ('పు', '|'), ('లు', '|'), ('చె', 'U'), ('క్క', '|'), ('బ', '|'), ('డి', '|'), ('న', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('ప', '|'), ('ట', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('పై', 'U'), ('శ', '|'), ('శి', '|'), ('పు', 'U'), ('వ్వు', '|'), ('పొ', '|'), ('స', '|'), ('గ', '|'), ('దా', 'U'), ('ల్చి', '|'), ('ని', 'U'), ('ద్దం', 'U'), ('పు', '|'), ('చె', 'U'), ('క్కు', '|'), ('ల', '|'), ('వ', 'U'), ('ద్ది', '|'), ('క', '|'), ('గా', 'U'), ('వ', '|'), ('జ్ర', '|'), ('తా', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('ధా', 'U'), ('ళ', '|'), ('ధ', 'U'), ('ళ్య', '|'), ('మ', '|'), ('మ', '|'), ('ర', '|')]</t>
+          <t>[('ర', '|'), ('వ', '|'), ('నూ', 'U'), ('నె', '|'), ('మె', '|'), ('రు', '|'), ('గి', '|'), ('డి', '|'), ('రా', 'U'), ('ణిం', 'U'), ('చు', '|'), ('నె', '|'), ('రి', '|'), ('కు', '|'), ('రు', 'U'), ('ల్దు', 'U'), ('వ్వి', '|'), ('కొ', 'U'), ('ప్ప', '|'), ('మ', '|'), ('రిం', 'U'), ('చి', '|'), ('తో', 'U'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('గి', '|'), ('డి', '|'), ('మే', 'U'), ('టి', '|'), ('యొ', 'U'), ('ప్పై', 'U'), ('న', '|'), ('కు', 'U'), ('ప్పె', '|'), ('యు', '|'), ('స', '|'), ('వ', '|'), ('రిం', 'U'), ('చి', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('మీ', 'U'), ('ర', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('కెం', 'U'), ('పు', '|'), ('లు', '|'), ('చె', 'U'), ('క్క', '|'), ('బ', '|'), ('డి', '|'), ('న', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('ప', '|'), ('ట', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('పై', 'U'), ('శ', '|'), ('శి', '|'), ('పు', 'U'), ('వ్వు', '|'), ('పొ', '|'), ('స', '|'), ('గ', '|'), ('దా', 'U'), ('ల్చి', '|'), ('ని', 'U'), ('ద్దం', 'U'), ('పు', '|'), ('చె', 'U'), ('క్కు', '|'), ('ల', '|'), ('వ', 'U'), ('ద్ది', '|'), ('క', '|'), ('గా', 'U'), ('వ', '|'), ('జ్ర', '|'), ('తా', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('ధా', 'U'), ('ళ', '|'), ('ధ', 'U'), ('ళ్య', '|'), ('మ', '|'), ('మ', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('గ', '|'), ('డం', 'U'), ('పు', '|'), ('గో', 'U'), ('డ', '|'), ('ల', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('ప', 'U'), ('ట్టె', '|'), ('ల', '|'), ('చ', 'U'), ('ప్ప', '|'), ('రం', 'U'), ('బొ', 'U'), ('ప్పు', '|'), ('మం', 'U'), ('చం', 'U'), ('బ', '|'), ('మ', 'U'), ('ర్చి', '|'), ('క్రొ', 'U'), ('త్త', '|'), ('తా', 'U'), ('ప్తా', 'U'), ('దూ', 'U'), ('ది', '|'), ('మె', 'U'), ('త్త', '|'), ('పై', 'U'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('జ', '|'), ('రి', '|'), ('త', '|'), ('ల', '|'), ('గ', '|'), ('డ', '|'), ('దిం', 'U'), ('డ్లు', '|'), ('చ', 'U'), ('క్క', '|'), ('బ', '|'), ('ర', '|'), ('చి', '|'), ('ప', '|'), ('రి', '|'), ('మ', '|'), ('ళ', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('ముల్', 'U'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('ర', 'U'), ('త్నా', 'U'), ('ల', '|'), ('గి', 'U'), ('న్నె', '|'), ('ను', '|'), ('జ', '|'), ('త', '|'), ('ను', '|'), ('ప', '|'), ('ర', '|'), ('చి', '|'), ('య', '|'), ('ర', '|'), ('వి', '|'), ('రి', '|'), ('బం', 'U'), ('తు', '|'), ('లు', '|'), ('మ', '|'), ('రు', '|'), ('వం', 'U'), ('బు', '|'), ('కు', '|'), ('రు', '|'), ('వే', 'U'), ('రు', '|'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('త', 'U'), ('ట్ట', '|'), ('ల', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('జే', 'U'), ('ర్చి', '|')]</t>
+          <t>[('ప', '|'), ('గ', '|'), ('డం', 'U'), ('పు', '|'), ('గో', 'U'), ('డ', '|'), ('ల', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('ప', 'U'), ('ట్టె', '|'), ('ల', '|'), ('చ', 'U'), ('ప్ప', '|'), ('రం', 'U'), ('బొ', 'U'), ('ప్పు', '|'), ('మం', 'U'), ('చం', 'U'), ('బ', '|'), ('మ', 'U'), ('ర్చి', '|'), ('క్రొ', 'U'), ('త్త', '|'), ('తా', 'U'), ('ప్తా', 'U'), ('దూ', 'U'), ('ది', '|'), ('మె', 'U'), ('త్త', '|'), ('పై', 'U'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('జ', '|'), ('రి', '|'), ('త', '|'), ('ల', '|'), ('గ', '|'), ('డ', '|'), ('దిం', 'U'), ('డ్లు', '|'), ('చ', 'U'), ('క్క', '|'), ('బ', '|'), ('ర', '|'), ('చి', '|'), ('ప', '|'), ('రి', '|'), ('మ', '|'), ('ళ', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('ము', 'U'), ('ల్ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('ర', 'U'), ('త్నా', 'U'), ('ల', '|'), ('గి', 'U'), ('న్నె', '|'), ('ను', '|'), ('జ', '|'), ('త', '|'), ('ను', '|'), ('ప', '|'), ('ర', '|'), ('చి', '|'), ('య', '|'), ('ర', '|'), ('వి', '|'), ('రి', '|'), ('బం', 'U'), ('తు', '|'), ('లు', '|'), ('మ', '|'), ('రు', '|'), ('వం', 'U'), ('బు', '|'), ('కు', '|'), ('రు', '|'), ('వే', 'U'), ('రు', '|'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('త', 'U'), ('ట్ట', '|'), ('ల', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('జే', 'U'), ('ర్చి', '|')]</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('తు', 'U'), ('మ్మె', '|'), ('ద', '|'), ('రొ', '|'), ('ద', '|'), ('సే', 'U'), ('య', '|'), ('తొ', '|'), ('డ', '|'), ('రి', '|'), ('న', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('వీ', 'U'), ('చె', '|'), ('నే', 'U'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('లా', 'U'), ('ర', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('వీ', 'U'), ('చె', '|'), ('నే', 'U'), ('తె', '|'), ('ర', '|'), ('గిం', 'U'), ('క', '|'), ('న', '|'), ('ను', '|'), ('చుం', 'U'), ('డ', '|'), ('గ్ర', 'U'), ('మ్మె', '|'), ('చి', 'U'), ('ల్క', '|'), ('ల', '|'), ('గ', '|'), ('ముల్', 'U'), ('కాం', 'U'), ('త', '|'), ('లా', 'U'), ('ర', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('ల', '|'), ('గ', '|'), ('ము', '|'), ('లే', 'U'), ('ల', '|'), ('చే', 'U'), ('రె', '|'), ('నో', 'U'), ('య', '|'), ('ను', '|'), ('చుం', 'U'), ('డ', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('కో', 'U'), ('యి', '|'), ('ల', '|'), ('గూ', 'U'), ('సె', '|'), ('జె', '|'), ('లి', '|'), ('య', '|'), ('లా', 'U'), ('ర', '|'), ('కో', 'U'), ('య', '|'), ('ల', '|'), ('లీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('గూ', 'U'), ('సె', '|'), ('నే', 'U'), ('మొ', '|'), ('కొ', '|'), ('య', '|'), ('ని', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('మ', '|'), ('రు', '|'), ('డ', '|'), ('దె', '|'), ('భా', 'U'), ('మ', '|'), ('లా', 'U'), ('ర', '|')]</t>
+          <t>[('తు', 'U'), ('మ్మె', '|'), ('ద', '|'), ('రొ', '|'), ('ద', '|'), ('సే', 'U'), ('య', '|'), ('తొ', '|'), ('డ', '|'), ('రి', '|'), ('న', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('వీ', 'U'), ('చె', '|'), ('నే', 'U'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('లా', 'U'), ('ర', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('వీ', 'U'), ('చె', '|'), ('నే', 'U'), ('తె', '|'), ('ర', '|'), ('గిం', 'U'), ('క', '|'), ('న', '|'), ('ను', '|'), ('చుం', 'U'), ('డ', '|'), ('గ్ర', 'U'), ('మ్మె', '|'), ('చి', 'U'), ('ల్క', '|'), ('ల', '|'), ('గ', '|'), ('ము', 'U'), ('ల్కాం', 'U'), ('త', '|'), ('లా', 'U'), ('ర', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('ల', '|'), ('గ', '|'), ('ము', '|'), ('లే', 'U'), ('ల', '|'), ('చే', 'U'), ('రె', '|'), ('నో', 'U'), ('య', '|'), ('ను', '|'), ('చుం', 'U'), ('డ', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('కో', 'U'), ('యి', '|'), ('ల', '|'), ('గూ', 'U'), ('సె', '|'), ('జె', '|'), ('లి', '|'), ('య', '|'), ('లా', 'U'), ('ర', '|'), ('కో', 'U'), ('య', '|'), ('ల', '|'), ('లీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('గూ', 'U'), ('సె', '|'), ('నే', 'U'), ('మొ', '|'), ('కొ', '|'), ('య', '|'), ('ని', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('మ', '|'), ('రు', '|'), ('డ', '|'), ('దె', '|'), ('భా', 'U'), ('మ', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('దా', 'U'), ('డా', 'U'), ('యె', '|'), ('మ', '|'), ('రు', '|'), ('డి', '|'), ('దే', 'U'), ('వే', 'U'), ('డా', 'U'), ('యె', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('వా', 'U'), ('డా', 'U'), ('యె', '|'), ('నే', 'U'), ('వి', '|'), ('రుల్', 'U'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('లా', 'U'), ('ర', '|'), ('చె', '|'), ('లు', '|'), ('వ', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('డా', 'U'), ('య', '|'), ('న', '|'), ('ళు', '|'), ('లు', '|'), ('జు', 'U'), ('మ్మ', '|'), ('ని', '|'), ('మ్రో', 'U'), ('య', '|'), ('జి', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('రొ', '|'), ('ద', '|'), ('సే', 'U'), ('య', '|'), ('జె', '|'), ('లి', '|'), ('య', '|'), ('లా', 'U'), ('ర', '|'), ('వి', '|'), ('ర', '|'), ('హ', '|'), ('మ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('మా', 'U'), ('యె', '|'), ('వె', '|'), ('ఱ', '|'), ('పొం', 'U'), ('ద', '|'), ('గా', 'U'), ('నా', 'U'), ('యె', '|'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('డు', '|'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('స', '|'), ('ఖు', '|'), ('లా', 'U'), ('ర', '|'), ('న', '|'), ('ను', '|'), ('జే', 'U'), ('ర', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('మె', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('కూ', 'U'), ('డు', '|'), ('నా', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('లా', 'U'), ('ర', '|')]</t>
+          <t>[('దా', 'U'), ('డా', 'U'), ('యె', '|'), ('మ', '|'), ('రు', '|'), ('డి', '|'), ('దే', 'U'), ('వే', 'U'), ('డా', 'U'), ('యె', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('వా', 'U'), ('డా', 'U'), ('యె', '|'), ('నే', 'U'), ('వి', '|'), ('రు', 'U'), ('ల్వ', '|'), ('ని', '|'), ('త', '|'), ('లా', 'U'), ('ర', '|'), ('చె', '|'), ('లు', '|'), ('వ', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('డా', 'U'), ('య', '|'), ('న', '|'), ('ళు', '|'), ('లు', '|'), ('జు', 'U'), ('మ్మ', '|'), ('ని', '|'), ('మ్రో', 'U'), ('య', '|'), ('జి', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('రొ', '|'), ('ద', '|'), ('సే', 'U'), ('య', '|'), ('జె', '|'), ('లి', '|'), ('య', '|'), ('లా', 'U'), ('ర', '|'), ('వి', '|'), ('ర', '|'), ('హ', '|'), ('మ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('మా', 'U'), ('యె', '|'), ('వె', '|'), ('ఱ', '|'), ('పొం', 'U'), ('ద', '|'), ('గా', 'U'), ('నా', 'U'), ('యె', '|'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('డు', '|'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('స', '|'), ('ఖు', '|'), ('లా', 'U'), ('ర', '|'), ('న', '|'), ('ను', '|'), ('జే', 'U'), ('ర', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('మె', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('కూ', 'U'), ('డు', '|'), ('నా', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('ది', '|'), ('మొ', '|'), ('దల్', 'U'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('కం', 'U'), ('టి', '|'), ('కి', '|'), ('రా', 'U'), ('క', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('ది', '|'), ('గు', '|'), ('లొం', 'U'), ('ది', '|'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('వ', '|'), ('ర', '|'), ('ల', '|'), ('వి', '|'), ('ర', '|'), ('హ', '|'), ('మ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('మా', 'U'), ('యె', '|'), ('వి', '|'), ('భు', '|'), ('డే', 'U'), ('ల', '|'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('వే', 'U'), ('య', '|'), ('ని', '|'), ('న', 'U'), ('న్ను', '|'), ('బి', '|'), ('లి', '|'), ('చి', '|'), ('ప', '|'), ('ని', '|'), ('చె', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('డి', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('వి', '|'), ('ని', '|'), ('నే', 'U'), ('ను', '|'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('కెం', 'U'), ('దు', '|'), ('ని', '|'), ('క', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('క', '|'), ('డ', '|'), ('జే', 'U'), ('రి', '|'), ('య', '|'), ('క', '|'), ('లం', 'U'), ('క', '|'), ('ము', '|'), ('గ', '|'), ('నే', 'U'), ('లు', '|'), ('మం', 'U'), ('బు', '|'), ('జా', 'U'), ('క్షి', '|')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('ది', '|'), ('మొ', '|'), ('ద', 'U'), ('ల్ని', '|'), ('దు', '|'), ('ర', '|'), ('కం', 'U'), ('టి', '|'), ('కి', '|'), ('రా', 'U'), ('క', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('ది', '|'), ('గు', '|'), ('లొం', 'U'), ('ది', '|'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('వ', '|'), ('ర', '|'), ('ల', '|'), ('వి', '|'), ('ర', '|'), ('హ', '|'), ('మ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('మా', 'U'), ('యె', '|'), ('వి', '|'), ('భు', '|'), ('డే', 'U'), ('ల', '|'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('వే', 'U'), ('య', '|'), ('ని', '|'), ('న', 'U'), ('న్ను', '|'), ('బి', '|'), ('లి', '|'), ('చి', '|'), ('ప', '|'), ('ని', '|'), ('చె', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('డి', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('వి', '|'), ('ని', '|'), ('నే', 'U'), ('ను', '|'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('కెం', 'U'), ('దు', '|'), ('ని', '|'), ('క', '|'), ('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('క', '|'), ('డ', '|'), ('జే', 'U'), ('రి', '|'), ('య', '|'), ('క', '|'), ('లం', 'U'), ('క', '|'), ('ము', '|'), ('గ', '|'), ('నే', 'U'), ('లు', '|'), ('మం', 'U'), ('బు', '|'), ('జా', 'U'), ('క్షి', '|')]</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('ర', '|'), ('త', '|'), ('చ', '|'), ('మ', 'U'), ('త్క్రి', '|'), ('యల్', 'U'), ('సూ', 'U'), ('పిం', 'U'), ('చి', '|'), ('చూ', 'U'), ('పిం', 'U'), ('చి', '|'), ('మే', 'U'), ('లి', '|'), ('మి', '|'), ('నీ', 'U'), ('పొం', 'U'), ('దు', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మో', 'U'), ('ము', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('ర్చి', '|'), ('ము', 'U'), ('ద్దా', 'U'), ('డి', '|'), ('ము', 'U'), ('ద్దా', 'U'), ('డి', '|'), ('గొ', '|'), ('స', '|'), ('బు', '|'), ('లి', 'U'), ('య్య', '|'), ('ని', '|'), ('మో', 'U'), ('వి', '|'), ('గ్రో', 'U'), ('లి', '|'), ('గ్రో', 'U'), ('లి', '|'), ('గ', 'U'), ('బ్బి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('నె', '|'), ('ద', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('బి', '|'), ('గు', '|'), ('వు', '|'), ('కౌ', 'U'), ('గి', 'U'), ('ళ్ళ', '|'), ('ను', '|'), ('బె', '|'), ('న', '|'), ('గి', '|'), ('పె', '|'), ('న', '|'), ('గి', '|'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('గ', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('గౌ', 'U'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('క', '|'), ('ల', '|'), ('సి', '|')]</t>
+          <t>[('సు', '|'), ('ర', '|'), ('త', '|'), ('చ', '|'), ('మ', 'U'), ('త్క్రి', '|'), ('య', 'U'), ('ల్సూ', 'U'), ('పిం', 'U'), ('చి', '|'), ('చూ', 'U'), ('పిం', 'U'), ('చి', '|'), ('మే', 'U'), ('లి', '|'), ('మి', '|'), ('నీ', 'U'), ('పొం', 'U'), ('దు', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మో', 'U'), ('ము', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('ర్చి', '|'), ('ము', 'U'), ('ద్దా', 'U'), ('డి', '|'), ('ము', 'U'), ('ద్దా', 'U'), ('డి', '|'), ('గొ', '|'), ('స', '|'), ('బు', '|'), ('లి', 'U'), ('య్య', '|'), ('ని', '|'), ('మో', 'U'), ('వి', '|'), ('గ్రో', 'U'), ('లి', '|'), ('గ్రో', 'U'), ('లి', '|'), ('గ', 'U'), ('బ్బి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('నె', '|'), ('ద', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('బి', '|'), ('గు', '|'), ('వు', '|'), ('కౌ', 'U'), ('గి', 'U'), ('ళ్ళ', '|'), ('ను', '|'), ('బె', '|'), ('న', '|'), ('గి', '|'), ('పె', '|'), ('న', '|'), ('గి', '|'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('గ', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('గౌ', 'U'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('క', '|'), ('ల', '|'), ('సి', '|')]</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('ద', '|'), ('తి', '|'), ('దా', 'U'), ('ద', '|'), ('శ', '|'), ('వి', '|'), ('ధ', '|'), ('చుం', 'U'), ('బ', '|'), ('న', '|'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('ద', '|'), ('న', '|'), ('భ', 'U'), ('ర్త', '|'), ('కు', '|'), ('ను', '|'), ('దె', 'U'), ('ల్పు', '|'), ('దా', 'U'), ('వు', '|'), ('ల', '|'), ('ర', '|'), ('య', '|'), ('గు', '|'), ('చ', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('భి', '|'), ('గొ', '|'), ('న', '|'), ('బై', 'U'), ('న', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('హ', 'U'), ('స్త', '|'), ('ముల్', 'U'), ('చె', 'U'), ('క్కు', '|'), ('లు', '|'), ('మ', 'U'), ('స్త', '|'), ('కం', 'U'), ('బు', '|'), ('క', 'U'), ('క్షం', 'U'), ('బు', '|'), ('ను', '|'), ('దు', '|'), ('రు', '|'), ('ను', '|'), ('కం', 'U'), ('ఠం', 'U'), ('బు', '|'), ('మ', '|'), ('రు', '|'), ('ని', 'U'), ('ల్లు', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('ప', '|'), ('ది', '|'), ('చో', 'U'), ('ట్ల', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('మీ', 'U'), ('ర', '|'), ('క', '|'), ('రి', '|'), ('క', '|'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('ఖ', '|'), ('ము', '|'), ('ల', '|'), ('ము', 'U'), ('ద్దు', '|'), ('లా', 'U'), ('డ', '|'), ('గ', '|'), ('గొం', 'U'), ('త', '|'), ('మొ', '|'), ('న', '|'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|')]</t>
+          <t>[('సు', '|'), ('ద', '|'), ('తి', '|'), ('దా', 'U'), ('ద', '|'), ('శ', '|'), ('వి', '|'), ('ధ', '|'), ('చుం', 'U'), ('బ', '|'), ('న', '|'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('ద', '|'), ('న', '|'), ('భ', 'U'), ('ర్త', '|'), ('కు', '|'), ('ను', '|'), ('దె', 'U'), ('ల్పు', '|'), ('దా', 'U'), ('వు', '|'), ('ల', '|'), ('ర', '|'), ('య', '|'), ('గు', '|'), ('చ', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('భి', '|'), ('గొ', '|'), ('న', '|'), ('బై', 'U'), ('న', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('హ', 'U'), ('స్త', '|'), ('ము', 'U'), ('ల్చె', 'U'), ('క్కు', '|'), ('లు', '|'), ('మ', 'U'), ('స్త', '|'), ('కం', 'U'), ('బు', '|'), ('క', 'U'), ('క్షం', 'U'), ('బు', '|'), ('ను', '|'), ('దు', '|'), ('రు', '|'), ('ను', '|'), ('కం', 'U'), ('ఠం', 'U'), ('బు', '|'), ('మ', '|'), ('రు', '|'), ('ని', 'U'), ('ల్లు', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('ప', '|'), ('ది', '|'), ('చో', 'U'), ('ట్ల', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('మీ', 'U'), ('ర', '|'), ('క', '|'), ('రి', '|'), ('క', '|'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('ఖ', '|'), ('ము', '|'), ('ల', '|'), ('ము', 'U'), ('ద్దు', '|'), ('లా', 'U'), ('డ', '|'), ('గ', '|'), ('గొం', 'U'), ('త', '|'), ('మొ', '|'), ('న', '|'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('బా', 'U'), ('సి', '|'), ('న', '|'), ('ది', '|'), ('మొ', '|'), ('దల్', 'U'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('తా', 'U'), ('క్షి', '|'), ('కి', '|'), ('నా', 'U'), ('హా', 'U'), ('ర', '|'), ('ని', '|'), ('ద్ర', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('చా', 'U'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('ను', '|'), ('బ', '|'), ('రి', '|'), ('తా', 'U'), ('ప', '|'), ('ము', '|'), ('ను', '|'), ('జెం', 'U'), ('ది', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('యె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('డే', 'U'), ('మొ', '|'), ('కో', 'U'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('న', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|'), ('తో', 'U'), ('నా', 'U'), ('డు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('చ', '|'), ('ల', '|'), ('మూ', 'U'), ('ని', '|'), ('నా', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('సా', 'U'), ('మి', '|'), ('రా', 'U'), ('డ', '|'), ('ని', '|'), ('చా', 'U'), ('ల', '|'), ('భ', '|'), ('య', '|'), ('మం', 'U'), ('ది', '|'), ('ని', '|'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('బం', 'U'), ('చె', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('బా', 'U'), ('సి', '|'), ('న', '|'), ('ది', '|'), ('మొ', '|'), ('ద', 'U'), ('ల్నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('తా', 'U'), ('క్షి', '|'), ('కి', '|'), ('నా', 'U'), ('హా', 'U'), ('ర', '|'), ('ని', '|'), ('ద్ర', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('చా', 'U'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('ను', '|'), ('బ', '|'), ('రి', '|'), ('తా', 'U'), ('ప', '|'), ('ము', '|'), ('ను', '|'), ('జెం', 'U'), ('ది', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('యె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('డే', 'U'), ('మొ', '|'), ('కో', 'U'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('న', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|'), ('తో', 'U'), ('నా', 'U'), ('డు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('చ', '|'), ('ల', '|'), ('మూ', 'U'), ('ని', '|'), ('నా', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('సా', 'U'), ('మి', '|'), ('రా', 'U'), ('డ', '|'), ('ని', '|'), ('చా', 'U'), ('ల', '|'), ('భ', '|'), ('య', '|'), ('మం', 'U'), ('ది', '|'), ('ని', '|'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('బం', 'U'), ('చె', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('తొ', '|'), ('లు', '|'), ('త', '|'), ('ప్రా', 'U'), ('ణే', 'U'), ('శు', '|'), ('ని', '|'), ('తొ', '|'), ('డ', '|'), ('ల', '|'), ('పై', 'U'), ('బ', '|'), ('వ', '|'), ('ళం', 'U'), ('చి', '|'), ('యా', 'U'), ('స', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('లా', 'U'), ('డు', '|'), ('కొం', 'U'), ('చు', '|'), ('బ్రా', 'U'), ('ణే', 'U'), ('శ', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('సి', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('ని', '|'), ('లు', '|'), ('చు', '|'), ('నా', 'U'), ('య', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('యా', 'U'), ('న', '|'), ('ని', 'U'), ('చ్చి', '|'), ('న', '|'), ('లి', '|'), ('నా', 'U'), ('క్షి', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('న', '|'), ('ని', '|'), ('బా', 'U'), ('స', '|'), ('లి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('కొ', '|'), ('స', '|'), ('రు', '|'), ('చు', '|'), ('బ', '|'), ('డ', '|'), ('తి', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('దే', 'U'), ('లిం', 'U'), ('చి', '|'), ('య', 'U'), ('క్క', '|'), ('ర', '|'), ('తో', 'U'), ('డ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|')]</t>
+          <t>[('తొ', '|'), ('లు', '|'), ('త', '|'), ('ప్రా', 'U'), ('ణే', 'U'), ('శు', '|'), ('ని', '|'), ('తొ', '|'), ('డ', '|'), ('ల', '|'), ('పై', 'U'), ('బ', '|'), ('వ', '|'), ('ళం', 'U'), ('చి', '|'), ('యా', 'U'), ('స', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('లా', 'U'), ('డు', '|'), ('కొం', 'U'), ('చు', '|'), ('బ్రా', 'U'), ('ణే', 'U'), ('శ', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('సి', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ల్ని', '|'), ('లు', '|'), ('చు', '|'), ('నా', 'U'), ('య', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('యా', 'U'), ('న', '|'), ('ని', 'U'), ('చ్చి', '|'), ('న', '|'), ('లి', '|'), ('నా', 'U'), ('క్షి', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('న', '|'), ('ని', '|'), ('బా', 'U'), ('స', '|'), ('లి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('కొ', '|'), ('స', '|'), ('రు', '|'), ('చు', '|'), ('బ', '|'), ('డ', '|'), ('తి', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('దే', 'U'), ('లిం', 'U'), ('చి', '|'), ('య', 'U'), ('క్క', '|'), ('ర', '|'), ('తో', 'U'), ('డ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('రు', '|'), ('బో', 'U'), ('డి', '|')]</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('ద', '|'), ('నాం', 'U'), ('బు', '|'), ('జ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('కొ', '|'), ('ద', '|'), ('మ', '|'), ('తే', 'U'), ('టు', '|'), ('ల', '|'), ('మా', 'U'), ('డ్కి', '|'), ('న', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('ముం', 'U'), ('గు', '|'), ('రుల్', 'U'), ('న', '|'), ('ట', '|'), ('న', '|'), ('మా', 'U'), ('డ', '|'), ('ప', '|'), ('స', '|'), ('మిం', 'U'), ('చు', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('ప', '|'), ('త', '|'), ('క', '|'), ('ముల్', 'U'), ('జ', '|'), ('త', '|'), ('గూ', 'U'), ('డి', '|'), ('కు', '|'), ('లు', '|'), ('కు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('గు', '|'), ('సి', '|'), ('యా', 'U'), ('డ', '|'), ('సం', 'U'), ('ది', '|'), ('ట', '|'), ('గ', '|'), ('ల', '|'), ('బా', 'U'), ('జు', '|'), ('బం', 'U'), ('దు', '|'), ('కు', 'U'), ('చ్చు', '|'), ('ల', '|'), ('చా', 'U'), ('లు', '|'), ('తో', 'U'), ('ర', '|'), ('మై', 'U'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('తూ', 'U'), ('గు', '|'), ('లా', 'U'), ('డ', '|'), ('చె', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('మొ', '|'), ('ల', '|'), ('నూ', 'U'), ('లి', '|'), ('చి', '|'), ('రు', '|'), ('ఘం', 'U'), ('ట', '|'), ('లొ', '|'), ('ర', '|'), ('యు', '|'), ('చు', '|'), ('సా', 'U'), ('రె', '|'), ('క', '|'), ('ణి', 'U'), ('ల్ల', '|'), ('ని', '|'), ('స', 'U'), ('ద్దు', '|'), ('సే', 'U'), ('య', '|')]</t>
+          <t>[('వ', '|'), ('ద', '|'), ('నాం', 'U'), ('బు', '|'), ('జ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('కొ', '|'), ('ద', '|'), ('మ', '|'), ('తే', 'U'), ('టు', '|'), ('ల', '|'), ('మా', 'U'), ('డ్కి', '|'), ('న', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('ముం', 'U'), ('గు', '|'), ('రు', 'U'), ('ల్న', '|'), ('ట', '|'), ('న', '|'), ('మా', 'U'), ('డ', '|'), ('ప', '|'), ('స', '|'), ('మిం', 'U'), ('చు', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('ప', '|'), ('త', '|'), ('క', '|'), ('ము', 'U'), ('ల్జ', '|'), ('త', '|'), ('గూ', 'U'), ('డి', '|'), ('కు', '|'), ('లు', '|'), ('కు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('గు', '|'), ('సి', '|'), ('యా', 'U'), ('డ', '|'), ('సం', 'U'), ('ది', '|'), ('ట', '|'), ('గ', '|'), ('ల', '|'), ('బా', 'U'), ('జు', '|'), ('బం', 'U'), ('దు', '|'), ('కు', 'U'), ('చ్చు', '|'), ('ల', '|'), ('చా', 'U'), ('లు', '|'), ('తో', 'U'), ('ర', '|'), ('మై', 'U'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('తూ', 'U'), ('గు', '|'), ('లా', 'U'), ('డ', '|'), ('చె', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('మొ', '|'), ('ల', '|'), ('నూ', 'U'), ('లి', '|'), ('చి', '|'), ('రు', '|'), ('ఘం', 'U'), ('ట', '|'), ('లొ', '|'), ('ర', '|'), ('యు', '|'), ('చు', '|'), ('సా', 'U'), ('రె', '|'), ('క', '|'), ('ణి', 'U'), ('ల్ల', '|'), ('ని', '|'), ('స', 'U'), ('ద్దు', '|'), ('సే', 'U'), ('య', '|')]</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('ఱ', '|'), ('గు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('మొ', '|'), ('ద', '|'), ('ముల్', 'U'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('మూ', 'U'), ('డ', '|'), ('వ', '|'), ('నా', 'U'), ('డు', '|'), ('గ', '|'), ('డి', '|'), ('చి', '|'), ('వే', 'U'), ('డ్క', '|'), ('ను', '|'), ('జ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('లా', 'U'), ('డి', '|'), ('ప', '|'), ('స', '|'), ('పూ', 'U'), ('ని', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('మి', '|'), ('సి', '|'), ('మి', '|'), ('కాం', 'U'), ('తి', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('చా', 'U'), ('న', '|'), ('పా', 'U'), ('ది', '|'), ('రి', '|'), ('పూ', 'U'), ('ల', '|'), ('చా', 'U'), ('దు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('నొ', '|'), ('స', '|'), ('ట', '|'), ('బా', 'U'), ('స', '|'), ('ట', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('ప', '|'), ('స', '|'), ('మిం', 'U'), ('చు', '|'), ('వ', '|'), ('జ్రా', 'U'), ('ల', '|'), ('యా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('దా', 'U'), ('ల్చి', '|'), ('త', '|'), ('ళు', '|'), ('కు', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('బు', '|'), ('టే', 'U'), ('దా', 'U'), ('రి', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('పై', 'U'), ('ని', '|'), ('స', '|'), ('రి', '|'), ('గె', '|'), ('పై', 'U'), ('ట', '|'), ('చె', '|'), ('రం', 'U'), ('గు', '|'), ('జా', 'U'), ('ళు', '|'), ('వా', 'U'), ('ర', '|')]</t>
+          <t>[('చె', '|'), ('ఱ', '|'), ('గు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('మొ', '|'), ('ద', '|'), ('ము', 'U'), ('ల్చె', '|'), ('లి', '|'), ('య', '|'), ('మూ', 'U'), ('డ', '|'), ('వ', '|'), ('నా', 'U'), ('డు', '|'), ('గ', '|'), ('డి', '|'), ('చి', '|'), ('వే', 'U'), ('డ్క', '|'), ('ను', '|'), ('జ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('లా', 'U'), ('డి', '|'), ('ప', '|'), ('స', '|'), ('పూ', 'U'), ('ని', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('మి', '|'), ('సి', '|'), ('మి', '|'), ('కాం', 'U'), ('తి', '|'), ('చె', '|'), ('లం', 'U'), ('గ', '|'), ('చా', 'U'), ('న', '|'), ('పా', 'U'), ('ది', '|'), ('రి', '|'), ('పూ', 'U'), ('ల', '|'), ('చా', 'U'), ('దు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('నొ', '|'), ('స', '|'), ('ట', '|'), ('బా', 'U'), ('స', '|'), ('ట', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('ప', '|'), ('స', '|'), ('మిం', 'U'), ('చు', '|'), ('వ', '|'), ('జ్రా', 'U'), ('ల', '|'), ('యా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('దా', 'U'), ('ల్చి', '|'), ('త', '|'), ('ళు', '|'), ('కు', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('బు', '|'), ('టే', 'U'), ('దా', 'U'), ('రి', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('పై', 'U'), ('ని', '|'), ('స', '|'), ('రి', '|'), ('గె', '|'), ('పై', 'U'), ('ట', '|'), ('చె', '|'), ('రం', 'U'), ('గు', '|'), ('జా', 'U'), ('ళు', '|'), ('వా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('ప', 'U'), ('క్క', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('ప్రా', 'U'), ('ణే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('యు', '|'), ('ట', '|'), ('కు', '|'), ('నే', 'U'), ('డు', '|'), ('హే', 'U'), ('తు', '|'), ('వే', 'U'), ('మి', '|'), ('ర', '|'), ('వి', '|'), ('శ', '|'), ('శి', '|'), ('భౌ', 'U'), ('ము', '|'), ('లు', '|'), ('రా', 'U'), ('హు', '|'), ('కే', 'U'), ('తు', '|'), ('వు', '|'), ('లు', '|'), ('ను', '|'), ('బు', '|'), ('ధ', '|'), ('శు', '|'), ('క్ర', '|'), ('శ', '|'), ('ని', '|'), ('గు', '|'), ('రుల్', 'U'), ('పొ', '|'), ('ల', '|'), ('తి', '|'), ('నా', 'U'), ('కు', '|'), ('చా', 'U'), ('ల', '|'), ('రో', 'U'), ('గా', 'U'), ('న', '|'), ('గో', 'U'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('రీ', 'U'), ('తి', '|'), ('ని', '|'), ('య', '|'), ('డు', '|'), ('గ', '|'), ('రే', 'U'), ('వి', '|'), ('ప్రు', '|'), ('ల', '|'), ('న', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|'), ('కా', 'U'), ('కు', 'U'), ('న్న', '|'), ('నా', 'U'), ('భ', 'U'), ('ర్త', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('యిం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('క', '|'), ('యిం', 'U'), ('దు', '|'), ('రా', 'U'), ('కుం', 'U'), ('డు', '|'), ('నా', 'U'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('ర', '|')]</t>
+          <t>[('ప', 'U'), ('క్క', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('ప్రా', 'U'), ('ణే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('యు', '|'), ('ట', '|'), ('కు', '|'), ('నే', 'U'), ('డు', '|'), ('హే', 'U'), ('తు', '|'), ('వే', 'U'), ('మి', '|'), ('ర', '|'), ('వి', '|'), ('శ', '|'), ('శి', '|'), ('భౌ', 'U'), ('ము', '|'), ('లు', '|'), ('రా', 'U'), ('హు', '|'), ('కే', 'U'), ('తు', '|'), ('వు', '|'), ('లు', '|'), ('ను', '|'), ('బు', '|'), ('ధ', '|'), ('శు', '|'), ('క్ర', '|'), ('శ', '|'), ('ని', '|'), ('గు', '|'), ('రు', 'U'), ('ల్పొ', '|'), ('ల', '|'), ('తి', '|'), ('నా', 'U'), ('కు', '|'), ('చా', 'U'), ('ల', '|'), ('రో', 'U'), ('గా', 'U'), ('న', '|'), ('గో', 'U'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('రీ', 'U'), ('తి', '|'), ('ని', '|'), ('య', '|'), ('డు', '|'), ('గ', '|'), ('రే', 'U'), ('వి', '|'), ('ప్రు', '|'), ('ల', '|'), ('న', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|'), ('కా', 'U'), ('కు', 'U'), ('న్న', '|'), ('నా', 'U'), ('భ', 'U'), ('ర్త', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('యిం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('క', '|'), ('యిం', 'U'), ('దు', '|'), ('రా', 'U'), ('కుం', 'U'), ('డు', '|'), ('నా', 'U'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('నా', 'U'), ('ల్గిం', 'U'), ('ట', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ను', '|'), ('క', 'U'), ('న్బొ', '|'), ('మ', '|'), ('లం', 'U'), ('ద', '|'), ('గ', 'U'), ('త్తె', '|'), ('ల', '|'), ('మే', 'U'), ('టి', '|'), ('యా', 'U'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('నే', 'U'), ('డిం', 'U'), ('ట', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ను', '|'), ('నే', 'U'), ('త్ర', '|'), ('ముల్', 'U'), ('మ', '|'), ('రు', '|'), ('చే', 'U'), ('తి', '|'), ('తూ', 'U'), ('పు', '|'), ('యా', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('చూ', 'U'), ('పు', '|'), ('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('నా', 'U'), ('ఱిం', 'U'), ('ట', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('ను', '|'), ('కు', '|'), ('చ', '|'), ('ము', '|'), ('లు', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('లై', 'U'), ('పూ', 'U'), ('చెం', 'U'), ('డ్ల', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('దె', '|'), ('గ', '|'), ('డు', '|'), ('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('బ', '|'), ('ది', '|'), ('రెం', 'U'), ('ట', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('మ', '|'), ('ది', '|'), ('య', '|'), ('ణు', '|'), ('మా', 'U'), ('త్ర', '|'), ('మ', '|'), ('గు', '|'), ('జా', 'U'), ('డ', '|'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|')]</t>
+          <t>[('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('నా', 'U'), ('ల్గిం', 'U'), ('ట', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ను', '|'), ('క', 'U'), ('న్బొ', '|'), ('మ', '|'), ('లం', 'U'), ('ద', '|'), ('గ', 'U'), ('త్తె', '|'), ('ల', '|'), ('మే', 'U'), ('టి', '|'), ('యా', 'U'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('నే', 'U'), ('డిం', 'U'), ('ట', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ను', '|'), ('నే', 'U'), ('త్ర', '|'), ('ము', 'U'), ('ల్మ', '|'), ('రు', '|'), ('చే', 'U'), ('తి', '|'), ('తూ', 'U'), ('పు', '|'), ('యా', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('చూ', 'U'), ('పు', '|'), ('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('నా', 'U'), ('ఱిం', 'U'), ('ట', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('ను', '|'), ('కు', '|'), ('చ', '|'), ('ము', '|'), ('లు', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('లై', 'U'), ('పూ', 'U'), ('చెం', 'U'), ('డ్ల', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('దె', '|'), ('గ', '|'), ('డు', '|'), ('క', 'U'), ('న్నె', '|'), ('కు', '|'), ('బ', '|'), ('ది', '|'), ('రెం', 'U'), ('ట', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('మ', '|'), ('ది', '|'), ('య', '|'), ('ణు', '|'), ('మా', 'U'), ('త్ర', '|'), ('మ', '|'), ('గు', '|'), ('జా', 'U'), ('డ', '|'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('గ', '|'), ('లా', 'U'), ('డి', '|'), ('న', '|'), ('గు', '|'), ('మో', 'U'), ('ము', '|'), ('ని', '|'), ('గ', '|'), ('ని', '|'), ('గల్', 'U'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('చా', 'U'), ('య', '|'), ('ల', '|'), ('ప', 'U'), ('ర్వు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('డి', '|'), ('ను', '|'), ('ను', '|'), ('జె', 'U'), ('క్కు', '|'), ('ల', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('ద', '|'), ('ళ', '|'), ('త', '|'), ('ళ', '|'), ('మిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ద్దం', 'U'), ('బు', '|'), ('లై', 'U'), ('మె', '|'), ('ఱ', '|'), ('యు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('జి', '|'), ('గి', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నె', 'U'), ('మ్మి', '|'), ('డాల్', 'U'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('ల', '|'), ('వి', '|'), ('ద్రు', '|'), ('మ', 'U'), ('చ్ఛ', '|'), ('య', '|'), ('వె', '|'), ('స', '|'), ('గు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('చె', '|'), ('లి', '|'), ('దం', 'U'), ('త', '|'), ('ము', '|'), ('ల', '|'), ('కాం', 'U'), ('తు', '|'), ('లె', '|'), ('ల', '|'), ('మి', '|'), ('తో', 'U'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('డిం', 'U'), ('బ', '|'), ('వి', 'U'), ('త్తు', '|'), ('లై', 'U'), ('త', '|'), ('న', '|'), ('రు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|')]</t>
+          <t>[('వ', '|'), ('గ', '|'), ('లా', 'U'), ('డి', '|'), ('న', '|'), ('గు', '|'), ('మో', 'U'), ('ము', '|'), ('ని', '|'), ('గ', '|'), ('ని', '|'), ('గ', 'U'), ('ల్చూ', 'U'), ('చి', '|'), ('న', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('చా', 'U'), ('య', '|'), ('ల', '|'), ('ప', 'U'), ('ర్వు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('డి', '|'), ('ను', '|'), ('ను', '|'), ('జె', 'U'), ('క్కు', '|'), ('ల', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('ద', '|'), ('ళ', '|'), ('త', '|'), ('ళ', '|'), ('మిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ద్దం', 'U'), ('బు', '|'), ('లై', 'U'), ('మె', '|'), ('ఱ', '|'), ('యు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('జి', '|'), ('గి', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నె', 'U'), ('మ్మి', '|'), ('డా', 'U'), ('ల్చూ', 'U'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('ల', '|'), ('వి', '|'), ('ద్రు', '|'), ('మ', 'U'), ('చ్ఛ', '|'), ('య', '|'), ('వె', '|'), ('స', '|'), ('గు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('చె', '|'), ('లి', '|'), ('దం', 'U'), ('త', '|'), ('ము', '|'), ('ల', '|'), ('కాం', 'U'), ('తు', '|'), ('లె', '|'), ('ల', '|'), ('మి', '|'), ('తో', 'U'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('డిం', 'U'), ('బ', '|'), ('వి', 'U'), ('త్తు', '|'), ('లై', 'U'), ('త', '|'), ('న', '|'), ('రు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[('ఠీ', 'U'), ('కు', '|'), ('కీ', 'U'), ('ల్కా', 'U'), ('వి', '|'), ('బు', '|'), ('టే', 'U'), ('దా', 'U'), ('రు', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('పై', 'U'), ('జ', '|'), ('రీ', 'U'), ('చే', 'U'), ('లం', 'U'), ('బు', '|'), ('బా', 'U'), ('గు', '|'), ('మీ', 'U'), ('ర', '|'), ('హు', '|'), ('రు', '|'), ('మం', 'U'), ('జి', '|'), ('ము', 'U'), ('త్యా', 'U'), ('ల', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('గ', 'U'), ('న్ప', '|'), ('డ', '|'), ('బ', 'U'), ('ట్టు', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('కం', 'U'), ('చు', '|'), ('కం', 'U'), ('బు', '|'), ('బ', '|'), ('వి', '|'), ('రె', '|'), ('లు', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('లు', '|'), ('బా', 'U'), ('వి', '|'), ('లీల్', 'U'), ('వ', '|'), ('జ్రం', 'U'), ('పు', '|'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('ల', '|'), ('చే', 'U'), ('నొ', 'U'), ('ప్పు', '|'), ('పా', 'U'), ('ప', '|'), ('ట', '|'), ('యు', '|'), ('ను', '|'), ('నం', 'U'), ('దె', '|'), ('లు', '|'), ('ము', 'U'), ('వ్వ', '|'), ('లు', '|'), ('హ', 'U'), ('స్త', '|'), ('క', '|'), ('డి', '|'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('సం', 'U'), ('ది', '|'), ('దం', 'U'), ('డ', '|'), ('లు', '|'), ('గుం', 'U'), ('డ్ల', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('దూ', 'U'), ('గ', '|')]</t>
+          <t>[('ఠీ', 'U'), ('కు', '|'), ('కీ', 'U'), ('ల్కా', 'U'), ('వి', '|'), ('బు', '|'), ('టే', 'U'), ('దా', 'U'), ('రు', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('పై', 'U'), ('జ', '|'), ('రీ', 'U'), ('చే', 'U'), ('లం', 'U'), ('బు', '|'), ('బా', 'U'), ('గు', '|'), ('మీ', 'U'), ('ర', '|'), ('హు', '|'), ('రు', '|'), ('మం', 'U'), ('జి', '|'), ('ము', 'U'), ('త్యా', 'U'), ('ల', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('గ', 'U'), ('న్ప', '|'), ('డ', '|'), ('బ', 'U'), ('ట్టు', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('కం', 'U'), ('చు', '|'), ('కం', 'U'), ('బు', '|'), ('బ', '|'), ('వి', '|'), ('రె', '|'), ('లు', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('లు', '|'), ('బా', 'U'), ('వి', '|'), ('లీ', 'U'), ('ల్వ', '|'), ('జ్రం', 'U'), ('పు', '|'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('ల', '|'), ('చే', 'U'), ('నొ', 'U'), ('ప్పు', '|'), ('పా', 'U'), ('ప', '|'), ('ట', '|'), ('యు', '|'), ('ను', '|'), ('నం', 'U'), ('దె', '|'), ('లు', '|'), ('ము', 'U'), ('వ్వ', '|'), ('లు', '|'), ('హ', 'U'), ('స్త', '|'), ('క', '|'), ('డి', '|'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('సం', 'U'), ('ది', '|'), ('దం', 'U'), ('డ', '|'), ('లు', '|'), ('గుం', 'U'), ('డ్ల', '|'), ('స', '|'), ('రు', '|'), ('లు', '|'), ('దూ', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ది', '|'), ('వ', 'U'), ('న్నె', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('కాం', 'U'), ('తి', '|'), ('య', '|'), ('ల', '|'), ('రు', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('ని', '|'), ('హ', '|'), ('సిం', 'U'), ('చు', '|'), ('మో', 'U'), ('ము', '|'), ('వె', '|'), ('ల', '|'), ('లే', 'U'), ('ని', '|'), ('వ', '|'), ('జ్రా', 'U'), ('ల', '|'), ('వె', '|'), ('ల', '|'), ('సే', 'U'), ('యు', '|'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('ముల్', 'U'), ('ప', 'U'), ('చ్చి', '|'), ('వి', '|'), ('ద్రు', '|'), ('మ', '|'), ('కాం', 'U'), ('తి', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('మో', 'U'), ('వి', '|'), ('ము', '|'), ('కు', '|'), ('ర', '|'), ('స', 'U'), ('న్ని', '|'), ('భ', '|'), ('ము', '|'), ('లు', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('చె', 'U'), ('క్కు', '|'), ('లు', '|'), ('ముం', 'U'), ('గు', 'U'), ('ర్లు', '|'), ('తే', 'U'), ('టు', '|'), ('ల', '|'), ('రం', 'U'), ('గు', '|'), ('దె', '|'), ('గ', '|'), ('డు', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('క', '|'), ('ల', '|'), ('శ', '|'), ('ము', '|'), ('లు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్లు', '|'), ('న', '|'), ('లి', '|'), ('నా', 'U'), ('క్షి', '|'), ('నా', 'U'), ('భి', '|'), ('పు', 'U'), ('న్నా', 'U'), ('గ', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|')]</t>
+          <t>[('ప', '|'), ('ది', '|'), ('వ', 'U'), ('న్నె', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('కాం', 'U'), ('తి', '|'), ('య', '|'), ('ల', '|'), ('రు', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('ని', '|'), ('హ', '|'), ('సిం', 'U'), ('చు', '|'), ('మో', 'U'), ('ము', '|'), ('వె', '|'), ('ల', '|'), ('లే', 'U'), ('ని', '|'), ('వ', '|'), ('జ్రా', 'U'), ('ల', '|'), ('వె', '|'), ('ల', '|'), ('సే', 'U'), ('యు', '|'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('ము', 'U'), ('ల్ప', 'U'), ('చ్చి', '|'), ('వి', '|'), ('ద్రు', '|'), ('మ', '|'), ('కాం', 'U'), ('తి', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('మో', 'U'), ('వి', '|'), ('ము', '|'), ('కు', '|'), ('ర', '|'), ('స', 'U'), ('న్ని', '|'), ('భ', '|'), ('ము', '|'), ('లు', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('చె', 'U'), ('క్కు', '|'), ('లు', '|'), ('ముం', 'U'), ('గు', 'U'), ('ర్లు', '|'), ('తే', 'U'), ('టు', '|'), ('ల', '|'), ('రం', 'U'), ('గు', '|'), ('దె', '|'), ('గ', '|'), ('డు', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('క', '|'), ('ల', '|'), ('శ', '|'), ('ము', '|'), ('లు', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్లు', '|'), ('న', '|'), ('లి', '|'), ('నా', 'U'), ('క్షి', '|'), ('నా', 'U'), ('భి', '|'), ('పు', 'U'), ('న్నా', 'U'), ('గ', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>[('చౌ', 'U'), ('సీ', 'U'), ('తి', '|'), ('బం', 'U'), ('ధ', '|'), ('ముల్', 'U'), ('స', '|'), ('రి', '|'), ('బొం', 'U'), ('ద', '|'), ('బె', '|'), ('న', '|'), ('గె', '|'), ('డి', '|'), ('కొ', '|'), ('మ', '|'), ('రు', '|'), ('ప్రా', 'U'), ('య', '|'), ('పు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('మ్మ', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('స', '|'), ('ద', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('వి', '|'), ('భు', '|'), ('నె', '|'), ('ద', '|'), ('నం', 'U'), ('ట', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('న', '|'), ('ది', '|'), ('మి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్చు', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('అ', '|'), ('సి', '|'), ('యా', 'U'), ('డు', '|'), ('గౌ', 'U'), ('ను', '|'), ('న', '|'), ('నె', '|'), ('స', '|'), ('గు', '|'), ('ఘం', 'U'), ('ట', '|'), ('ల', '|'), ('మ్రో', 'U'), ('త', '|'), ('నె', '|'), ('డ', '|'), ('ప', '|'), ('క', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('నిం', 'U'), ('తి', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('బా', 'U'), ('ళి', '|'), ('చే', 'U'), ('గె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('గ్రో', 'U'), ('లిం', 'U'), ('చి', '|'), ('క', '|'), ('డు', '|'), ('మం', 'U'), ('చి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('చే', 'U'), ('.ం', 'U'), ('చు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|')]</t>
+          <t>[('చౌ', 'U'), ('సీ', 'U'), ('తి', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', 'U'), ('ల్స', '|'), ('రి', '|'), ('బొం', 'U'), ('ద', '|'), ('బె', '|'), ('న', '|'), ('గె', '|'), ('డి', '|'), ('కొ', '|'), ('మ', '|'), ('రు', '|'), ('ప్రా', 'U'), ('య', '|'), ('పు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('మ్మ', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('స', '|'), ('ద', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('వి', '|'), ('భు', '|'), ('నె', '|'), ('ద', '|'), ('నం', 'U'), ('ట', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('న', '|'), ('ది', '|'), ('మి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్చు', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('అ', '|'), ('సి', '|'), ('యా', 'U'), ('డు', '|'), ('గౌ', 'U'), ('ను', '|'), ('న', '|'), ('నె', '|'), ('స', '|'), ('గు', '|'), ('ఘం', 'U'), ('ట', '|'), ('ల', '|'), ('మ్రో', 'U'), ('త', '|'), ('నె', '|'), ('డ', '|'), ('ప', '|'), ('క', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('నిం', 'U'), ('తి', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('బా', 'U'), ('ళి', '|'), ('చే', 'U'), ('గె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('గ్రో', 'U'), ('లిం', 'U'), ('చి', '|'), ('క', '|'), ('డు', '|'), ('మం', 'U'), ('చి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('చే', 'U'), ('.ం', 'U'), ('చు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కు', '|'), ('ద', '|'), ('డ', '|'), ('య', '|'), ('క', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('ట', '|'), ('మ', 'U'), ('జ్జ', '|'), ('నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('ప', 'U'), ('ళ్లె', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('మం', 'U'), ('చి', '|'), ('ప', '|'), ('స', '|'), ('గ', '|'), ('ల', '|'), ('య', 'U'), ('న్నం', 'U'), ('బు', '|'), ('గో', 'U'), ('ఘృ', '|'), ('త', '|'), ('ప', 'U'), ('క్వ', '|'), ('మౌ', 'U'), ('కూ', 'U'), ('ర', '|'), ('ల', '|'), ('మ', '|'), ('ర', '|'), ('న', 'U'), ('ప్ప', '|'), ('డం', 'U'), ('బు', '|'), ('లు', '|'), ('కం', 'U'), ('ది', '|'), ('ప', 'U'), ('ప్పు', '|'), ('ను', '|'), ('నొ', 'U'), ('బ్బ', 'U'), ('ట్లు', '|'), ('పా', 'U'), ('లు', '|'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('వె', 'U'), ('న్న', '|'), ('పా', 'U'), ('య', '|'), ('సం', 'U'), ('బు', '|'), ('ఘ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వా', 'U'), ('సిం', 'U'), ('ప', '|'), ('గా', 'U'), ('చా', 'U'), ('రు', '|'), ('వ', '|'), ('డి', '|'), ('య', '|'), ('ముల్', 'U'), ('ప', '|'), ('సి', '|'), ('డి', '|'), ('చెం', 'U'), ('బు', '|'), ('ల', '|'), ('నీ', 'U'), ('రు', '|'), ('బా', 'U'), ('గు', '|'), ('మీ', 'U'), ('ర', '|')]</t>
+          <t>[('త', '|'), ('న', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కు', '|'), ('ద', '|'), ('డ', '|'), ('య', '|'), ('క', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('ట', '|'), ('మ', 'U'), ('జ్జ', '|'), ('నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('ప', 'U'), ('ళ్లె', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('మం', 'U'), ('చి', '|'), ('ప', '|'), ('స', '|'), ('గ', '|'), ('ల', '|'), ('య', 'U'), ('న్నం', 'U'), ('బు', '|'), ('గో', 'U'), ('ఘృ', '|'), ('త', '|'), ('ప', 'U'), ('క్వ', '|'), ('మౌ', 'U'), ('కూ', 'U'), ('ర', '|'), ('ల', '|'), ('మ', '|'), ('ర', '|'), ('న', 'U'), ('ప్ప', '|'), ('డం', 'U'), ('బు', '|'), ('లు', '|'), ('కం', 'U'), ('ది', '|'), ('ప', 'U'), ('ప్పు', '|'), ('ను', '|'), ('నొ', 'U'), ('బ్బ', 'U'), ('ట్లు', '|'), ('పా', 'U'), ('లు', '|'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('వె', 'U'), ('న్న', '|'), ('పా', 'U'), ('య', '|'), ('సం', 'U'), ('బు', '|'), ('ఘ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వా', 'U'), ('సిం', 'U'), ('ప', '|'), ('గా', 'U'), ('చా', 'U'), ('రు', '|'), ('వ', '|'), ('డి', '|'), ('య', '|'), ('ము', 'U'), ('ల్ప', '|'), ('సి', '|'), ('డి', '|'), ('చెం', 'U'), ('బు', '|'), ('ల', '|'), ('నీ', 'U'), ('రు', '|'), ('బా', 'U'), ('గు', '|'), ('మీ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('సు', '|'), ('ధ', '|'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('న', '|'), ('గ', '|'), ('వం', 'U'), ('శా', 'U'), ('బ్ధి', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డౌ', 'U'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('వెం', 'U'), ('క', '|'), ('ట', '|'), ('గి', '|'), ('రి', '|'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కె', '|'), ('ల', '|'), ('మి', '|'), ('వ', '|'), ('ర', '|'), ('పు', '|'), ('త్ర', '|'), ('రి', '|'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('బ', '|'), ('హు', '|'), ('వి', '|'), ('ధ', '|'), ('కృ', '|'), ('తు', '|'), ('లు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('స', 'U'), ('త్కీ', 'U'), ('ర్తి', '|'), ('వె', '|'), ('ల', '|'), ('సి', '|'), ('రా', 'U'), ('జి', 'U'), ('ల్లు', '|'), ('చెం', 'U'), ('గ', 'U'), ('ల్వ', '|'), ('రా', 'U'), ('యా', 'U'), ('హ్వ', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('దే', 'U'), ('జ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('దే', 'U'), ('వు', '|'), ('పా', 'U'), ('ద', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('ముల్', 'U'), ('మ', '|'), ('ది', '|'), ('నుం', 'U'), ('చి', '|'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', '|'), ('పే', 'U'), ('ర', '|'), ('నం', 'U'), ('కి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('క', 'U'), ('బ్బ', '|'), ('మ', '|'), ('మ', '|'), ('ర', '|'), ('జె', 'U'), ('ప్పి', '|')]</t>
+          <t>[('వ', '|'), ('సు', '|'), ('ధ', '|'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('న', '|'), ('గ', '|'), ('వం', 'U'), ('శా', 'U'), ('బ్ధి', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డౌ', 'U'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('వెం', 'U'), ('క', '|'), ('ట', '|'), ('గి', '|'), ('రి', '|'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కె', '|'), ('ల', '|'), ('మి', '|'), ('వ', '|'), ('ర', '|'), ('పు', '|'), ('త్ర', '|'), ('రి', '|'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('బ', '|'), ('హు', '|'), ('వి', '|'), ('ధ', '|'), ('కృ', '|'), ('తు', '|'), ('లు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('స', 'U'), ('త్కీ', 'U'), ('ర్తి', '|'), ('వె', '|'), ('ల', '|'), ('సి', '|'), ('రా', 'U'), ('జి', 'U'), ('ల్లు', '|'), ('చెం', 'U'), ('గ', 'U'), ('ల్వ', '|'), ('రా', 'U'), ('యా', 'U'), ('హ్వ', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('దే', 'U'), ('జ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('దే', 'U'), ('వు', '|'), ('పా', 'U'), ('ద', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('ము', 'U'), ('ల్మ', '|'), ('ది', '|'), ('నుం', 'U'), ('చి', '|'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', '|'), ('పే', 'U'), ('ర', '|'), ('నం', 'U'), ('కి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('క', 'U'), ('బ్బ', '|'), ('మ', '|'), ('మ', '|'), ('ర', '|'), ('జె', 'U'), ('ప్పి', '|')]</t>
         </is>
       </c>
     </row>
